--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(XML)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(XML)_サンプル.xlsx
@@ -47,7 +47,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">インターフェースの授受相手先を記述する。外部機関名称、部署名、システム名など
+          <t xml:space="preserve">インタフェースの授受相手先を記述する。外部機関名称、部署名、システム名など
 同一のファイルを複数の相手先に送る場合、「相手先」欄に複数記述する。
 例）ＸＸ１システム、ＸＸ２システム
 </t>
@@ -78,7 +78,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースのファイルID/電文IDを記述する</t>
+          <t>インタフェースのファイルID/電文IDを記述する</t>
         </r>
       </text>
     </comment>
@@ -92,7 +92,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの利用目的・概要を記述する</t>
+          <t>インタフェースの利用目的・概要を記述する</t>
         </r>
       </text>
     </comment>
@@ -122,7 +122,7 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">XML形式では記載不要。
-インターフェースの授受媒体を選択する。
+インタフェースの授受媒体を選択する。
 「その他」の場合は詳細を記述する。
 </t>
         </r>
@@ -139,7 +139,7 @@
             <charset val="128"/>
           </rPr>
           <t>XML形式では「階層構造(XML形式)」固定
-インターフェースのデータ形式を選択する。
+インタフェースのデータ形式を選択する。
 「その他」の場合は、詳細を記述する</t>
         </r>
       </text>
@@ -200,7 +200,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの暗号化有無を選択する。
+          <t>インタフェースの暗号化有無を選択する。
 暗号化は下記３パターンを想定している。
 ３パターンのいずれかで暗号化するのであれば　暗号化「有り」にチェックをいれて、暗号化の詳細を記載する。
 ・通信暗号化：通信経路の暗号化(HTTPS、SFTP等)
@@ -220,7 +220,7 @@
             <charset val="128"/>
           </rPr>
           <t>XML形式では記載不要。
-インターフェースの改行コードを選択する。
+インタフェースの改行コードを選択する。
 「その他」の場合は、詳細を記述する。</t>
         </r>
       </text>
@@ -235,7 +235,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの文字コードを記述する</t>
+          <t>インタフェースの文字コードを記述する</t>
         </r>
       </text>
     </comment>
@@ -265,7 +265,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースを入出力する処理サイクルを記述する。
+          <t>インタフェースを入出力する処理サイクルを記述する。
 括弧内には、詳細を記述する</t>
         </r>
       </text>
@@ -343,7 +343,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェース項目を識別するためのID。数値のみでないこと。
+          <t>インタフェース項目を識別するためのID。数値のみでないこと。
 また、レコード種類ごとに一意になるIDをつけること。
 グループ名の項目に関しては[ ]で囲むこととする。</t>
         </r>
@@ -445,8 +445,8 @@
             <charset val="128"/>
           </rPr>
           <t>フォーマット編集が必要な場合に記入する。
-入力インターフェースの場合は受け取り可能なフォーマットを記述する。
-出力インターフェースの場合はどのようなフォーマットに編集するかを記述する。</t>
+入力インタフェースの場合は受け取り可能なフォーマットを記述する。
+出力インタフェースの場合はどのようなフォーマットに編集するかを記述する。</t>
         </r>
       </text>
     </comment>
@@ -1582,7 +1582,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -4070,19 +4070,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="3162300"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2171700" y="3314700"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4100,27 +4100,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4128,27 +4116,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -4165,19 +4141,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="828675" y="3467100"/>
+        <a:xfrm rot="20636203">
+          <a:off x="981075" y="3619500"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4195,27 +4171,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4223,27 +4187,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -4260,19 +4212,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="3371850"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1257300" y="3524250"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4290,27 +4242,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -4318,27 +4258,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6232,7 +6160,7 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>リポジトリ内の「外部インターフェース設計関連 」を参照。</a:t>
+            <a:t>リポジトリ内の「外部インタフェース設計関連 」を参照。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -6303,19 +6231,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152069</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="3943350"/>
+        <a:xfrm rot="20636203">
+          <a:off x="1256969" y="4143376"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6333,27 +6261,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6361,27 +6277,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -6520,17 +6424,17 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
+        <a:xfrm rot="20636203">
           <a:off x="0" y="3657600"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
@@ -6549,27 +6453,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -6577,27 +6469,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7225,19 +7105,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2771775" y="3257550"/>
+        <a:xfrm rot="20636203">
+          <a:off x="2924175" y="3409950"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7255,27 +7135,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7283,27 +7151,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7315,19 +7171,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3133725" y="9925050"/>
+        <a:xfrm rot="20636203">
+          <a:off x="3286125" y="10077450"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7345,27 +7201,15 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="9600" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="120000"/>
-                    <a:shade val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="1000"/>
+                  <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:glow rad="53100">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="180000"/>
-                    <a:alpha val="30000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -7373,27 +7217,15 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="9600" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:satMod val="120000"/>
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:tint val="1000"/>
+                <a:alpha val="30000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst>
-              <a:glow rad="53100">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="180000"/>
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -7777,19 +7609,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z512"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="S1" s="74"/>
@@ -7801,29 +7633,29 @@
       <c r="Y1" s="74"/>
       <c r="Z1" s="74"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="21" spans="2:19" ht="9" customHeight="1"/>
+    <row r="22" spans="2:19" ht="17.25" customHeight="1">
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
@@ -7841,7 +7673,7 @@
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" ht="15.95" customHeight="1">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -7852,7 +7684,7 @@
       <c r="K23" s="85"/>
       <c r="L23" s="85"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19" ht="18" customHeight="1">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -7872,7 +7704,7 @@
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
     </row>
-    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" ht="13.5" customHeight="1">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -7884,7 +7716,7 @@
       <c r="K25" s="229"/>
       <c r="L25" s="85"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -7893,7 +7725,7 @@
       <c r="K26" s="85"/>
       <c r="L26" s="85"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1">
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -7902,7 +7734,7 @@
       <c r="K27" s="85"/>
       <c r="L27" s="85"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" ht="15" customHeight="1">
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="85"/>
@@ -7910,7 +7742,7 @@
       <c r="K28" s="85"/>
       <c r="L28" s="85"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" ht="13.5" customHeight="1">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
@@ -7919,7 +7751,7 @@
       <c r="K29" s="85"/>
       <c r="L29" s="85"/>
     </row>
-    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" ht="18.75" customHeight="1">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -7928,7 +7760,7 @@
       <c r="K30" s="85"/>
       <c r="L30" s="85"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" ht="13.5" customHeight="1">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -7937,7 +7769,7 @@
       <c r="K31" s="85"/>
       <c r="L31" s="85"/>
     </row>
-    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" ht="18.75" customHeight="1">
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="85"/>
@@ -7952,7 +7784,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75" customHeight="1">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="85"/>
@@ -7966,7 +7798,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1">
       <c r="I34" s="85"/>
       <c r="J34" s="87"/>
       <c r="K34" s="85"/>
@@ -7976,509 +7808,509 @@
       <c r="R34" s="183"/>
       <c r="S34" s="183"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="P35" s="11"/>
       <c r="Q35" s="183"/>
       <c r="R35" s="183"/>
       <c r="S35" s="183"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
       <c r="P36" s="11"/>
       <c r="Q36" s="183"/>
       <c r="R36" s="183"/>
       <c r="S36" s="180"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
       <c r="P37" s="11"/>
       <c r="Q37" s="184"/>
       <c r="R37" s="184"/>
       <c r="S37" s="184"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
       <c r="P38" s="11"/>
       <c r="Q38" s="184"/>
       <c r="R38" s="184"/>
       <c r="S38" s="184"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
       <c r="P39" s="11"/>
       <c r="Q39" s="184"/>
       <c r="R39" s="184"/>
       <c r="S39" s="184"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -8494,7 +8326,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN33"/>
@@ -8503,7 +8335,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="64" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="73" customWidth="1"/>
@@ -8512,7 +8344,7 @@
     <col min="36" max="16384" width="4.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" s="66" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="230" t="s">
         <v>64</v>
       </c>
@@ -8569,7 +8401,7 @@
       <c r="AM1" s="67"/>
       <c r="AN1" s="68"/>
     </row>
-    <row r="2" spans="1:40" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" s="66" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="230" t="s">
         <v>65</v>
       </c>
@@ -8622,7 +8454,7 @@
       <c r="AM2" s="67"/>
       <c r="AN2" s="67"/>
     </row>
-    <row r="3" spans="1:40" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" s="66" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="233" t="s">
         <v>66</v>
       </c>
@@ -8667,7 +8499,7 @@
       <c r="AM3" s="67"/>
       <c r="AN3" s="67"/>
     </row>
-    <row r="4" spans="1:40" s="69" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" s="69" customFormat="1" ht="19.5" customHeight="1">
       <c r="AB4" s="70"/>
       <c r="AC4" s="70"/>
       <c r="AD4" s="71"/>
@@ -8678,7 +8510,7 @@
       <c r="AI4" s="70"/>
       <c r="AJ4" s="70"/>
     </row>
-    <row r="5" spans="1:40" s="69" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="69" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
@@ -8692,7 +8524,7 @@
       <c r="AI5" s="70"/>
       <c r="AJ5" s="70"/>
     </row>
-    <row r="6" spans="1:40" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="69" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="2"/>
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
@@ -8704,7 +8536,7 @@
       <c r="AI6" s="70"/>
       <c r="AJ6" s="70"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="60" t="s">
         <v>69</v>
       </c>
@@ -8756,7 +8588,7 @@
       <c r="AI7" s="279"/>
       <c r="AJ7" s="61"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="62">
         <v>1</v>
       </c>
@@ -8808,7 +8640,7 @@
       <c r="AI8" s="293"/>
       <c r="AJ8" s="61"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="63"/>
       <c r="B9" s="254"/>
       <c r="C9" s="255"/>
@@ -8846,7 +8678,7 @@
       <c r="AI9" s="262"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="63"/>
       <c r="B10" s="254"/>
       <c r="C10" s="255"/>
@@ -8883,7 +8715,7 @@
       <c r="AH10" s="261"/>
       <c r="AI10" s="262"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="63"/>
       <c r="B11" s="254"/>
       <c r="C11" s="255"/>
@@ -8920,7 +8752,7 @@
       <c r="AH11" s="261"/>
       <c r="AI11" s="262"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="63"/>
       <c r="B12" s="254"/>
       <c r="C12" s="255"/>
@@ -8957,7 +8789,7 @@
       <c r="AH12" s="261"/>
       <c r="AI12" s="262"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="63"/>
       <c r="B13" s="254"/>
       <c r="C13" s="255"/>
@@ -8994,7 +8826,7 @@
       <c r="AH13" s="261"/>
       <c r="AI13" s="262"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="63"/>
       <c r="B14" s="254"/>
       <c r="C14" s="255"/>
@@ -9031,7 +8863,7 @@
       <c r="AH14" s="261"/>
       <c r="AI14" s="262"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="63"/>
       <c r="B15" s="254"/>
       <c r="C15" s="255"/>
@@ -9068,7 +8900,7 @@
       <c r="AH15" s="261"/>
       <c r="AI15" s="262"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="63"/>
       <c r="B16" s="254"/>
       <c r="C16" s="255"/>
@@ -9105,7 +8937,7 @@
       <c r="AH16" s="261"/>
       <c r="AI16" s="262"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="63"/>
       <c r="B17" s="254"/>
       <c r="C17" s="255"/>
@@ -9142,7 +8974,7 @@
       <c r="AH17" s="261"/>
       <c r="AI17" s="262"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="63"/>
       <c r="B18" s="254"/>
       <c r="C18" s="255"/>
@@ -9179,7 +9011,7 @@
       <c r="AH18" s="261"/>
       <c r="AI18" s="262"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="63"/>
       <c r="B19" s="254"/>
       <c r="C19" s="255"/>
@@ -9216,7 +9048,7 @@
       <c r="AH19" s="261"/>
       <c r="AI19" s="262"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="63"/>
       <c r="B20" s="254"/>
       <c r="C20" s="255"/>
@@ -9253,7 +9085,7 @@
       <c r="AH20" s="261"/>
       <c r="AI20" s="262"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="63"/>
       <c r="B21" s="254"/>
       <c r="C21" s="255"/>
@@ -9290,7 +9122,7 @@
       <c r="AH21" s="261"/>
       <c r="AI21" s="262"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="63"/>
       <c r="B22" s="254"/>
       <c r="C22" s="255"/>
@@ -9327,7 +9159,7 @@
       <c r="AH22" s="261"/>
       <c r="AI22" s="262"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="63"/>
       <c r="B23" s="254"/>
       <c r="C23" s="255"/>
@@ -9364,7 +9196,7 @@
       <c r="AH23" s="261"/>
       <c r="AI23" s="262"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="63"/>
       <c r="B24" s="254"/>
       <c r="C24" s="255"/>
@@ -9401,7 +9233,7 @@
       <c r="AH24" s="261"/>
       <c r="AI24" s="262"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="63"/>
       <c r="B25" s="254"/>
       <c r="C25" s="255"/>
@@ -9438,7 +9270,7 @@
       <c r="AH25" s="261"/>
       <c r="AI25" s="262"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="63"/>
       <c r="B26" s="254"/>
       <c r="C26" s="255"/>
@@ -9475,7 +9307,7 @@
       <c r="AH26" s="261"/>
       <c r="AI26" s="262"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="63"/>
       <c r="B27" s="254"/>
       <c r="C27" s="255"/>
@@ -9512,7 +9344,7 @@
       <c r="AH27" s="261"/>
       <c r="AI27" s="262"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="63"/>
       <c r="B28" s="254"/>
       <c r="C28" s="255"/>
@@ -9549,7 +9381,7 @@
       <c r="AH28" s="261"/>
       <c r="AI28" s="262"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="63"/>
       <c r="B29" s="254"/>
       <c r="C29" s="255"/>
@@ -9586,7 +9418,7 @@
       <c r="AH29" s="261"/>
       <c r="AI29" s="262"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="63"/>
       <c r="B30" s="254"/>
       <c r="C30" s="255"/>
@@ -9623,7 +9455,7 @@
       <c r="AH30" s="261"/>
       <c r="AI30" s="262"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="63"/>
       <c r="B31" s="254"/>
       <c r="C31" s="255"/>
@@ -9660,7 +9492,7 @@
       <c r="AH31" s="261"/>
       <c r="AI31" s="262"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="63"/>
       <c r="B32" s="254"/>
       <c r="C32" s="255"/>
@@ -9697,7 +9529,7 @@
       <c r="AH32" s="261"/>
       <c r="AI32" s="262"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="63"/>
       <c r="B33" s="254"/>
       <c r="C33" s="255"/>
@@ -9927,7 +9759,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
@@ -9936,7 +9768,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="64" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="148" customWidth="1"/>
@@ -10071,7 +9903,7 @@
     <col min="16163" max="16384" width="4.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="111" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="111" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="230" t="s">
         <v>64</v>
       </c>
@@ -10127,7 +9959,7 @@
       <c r="AH1" s="313"/>
       <c r="AI1" s="314"/>
     </row>
-    <row r="2" spans="1:35" s="111" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="111" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="230" t="s">
         <v>65</v>
       </c>
@@ -10177,7 +10009,7 @@
       <c r="AH2" s="313"/>
       <c r="AI2" s="314"/>
     </row>
-    <row r="3" spans="1:35" s="111" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" s="111" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="230" t="s">
         <v>66</v>
       </c>
@@ -10225,7 +10057,7 @@
       <c r="AH3" s="313"/>
       <c r="AI3" s="314"/>
     </row>
-    <row r="4" spans="1:35" s="69" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" s="69" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="67"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -10262,7 +10094,7 @@
       <c r="AH4" s="67"/>
       <c r="AI4" s="67"/>
     </row>
-    <row r="5" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="67"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -10301,7 +10133,7 @@
       <c r="AH5" s="67"/>
       <c r="AI5" s="67"/>
     </row>
-    <row r="6" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="67"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -10338,7 +10170,7 @@
       <c r="AH6" s="67"/>
       <c r="AI6" s="67"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="112"/>
       <c r="B7" s="122" t="s">
         <v>203</v>
@@ -10377,7 +10209,7 @@
       <c r="AH7" s="126"/>
       <c r="AI7" s="127"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="112"/>
       <c r="B8" s="122"/>
       <c r="C8" s="122"/>
@@ -10414,7 +10246,7 @@
       <c r="AH8" s="129"/>
       <c r="AI8" s="127"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="112"/>
       <c r="B9" s="130" t="s">
         <v>85</v>
@@ -10453,7 +10285,7 @@
       <c r="AH9" s="131"/>
       <c r="AI9" s="112"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="112"/>
       <c r="B10" s="123"/>
       <c r="C10" s="178"/>
@@ -10490,7 +10322,7 @@
       <c r="AH10" s="126"/>
       <c r="AI10" s="127"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="112"/>
       <c r="B11" s="179" t="s">
         <v>200</v>
@@ -10529,7 +10361,7 @@
       <c r="AH11" s="126"/>
       <c r="AI11" s="127"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="112"/>
       <c r="B12" s="123"/>
       <c r="C12" s="130" t="s">
@@ -10568,7 +10400,7 @@
       <c r="AH12" s="126"/>
       <c r="AI12" s="127"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="112"/>
       <c r="B13" s="123"/>
       <c r="C13" s="112"/>
@@ -10600,7 +10432,7 @@
       <c r="AH13" s="126"/>
       <c r="AI13" s="127"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="112"/>
       <c r="B14" s="127"/>
       <c r="C14" s="130"/>
@@ -10637,7 +10469,7 @@
       <c r="AH14" s="126"/>
       <c r="AI14" s="127"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="112"/>
       <c r="B15" s="130"/>
       <c r="C15" s="112"/>
@@ -10674,7 +10506,7 @@
       <c r="AH15" s="126"/>
       <c r="AI15" s="127"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="112"/>
       <c r="B16" s="130"/>
       <c r="C16" s="130"/>
@@ -10707,7 +10539,7 @@
       <c r="AH16" s="126"/>
       <c r="AI16" s="127"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="112"/>
       <c r="B17" s="67"/>
       <c r="C17" s="130"/>
@@ -10744,7 +10576,7 @@
       <c r="AH17" s="126"/>
       <c r="AI17" s="127"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="112"/>
       <c r="B18" s="67"/>
       <c r="C18" s="112"/>
@@ -10781,7 +10613,7 @@
       <c r="AH18" s="126"/>
       <c r="AI18" s="127"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="112"/>
       <c r="B19" s="67"/>
       <c r="C19" s="112"/>
@@ -10818,7 +10650,7 @@
       <c r="AH19" s="126"/>
       <c r="AI19" s="127"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="112"/>
       <c r="B20" s="67"/>
       <c r="C20" s="112"/>
@@ -10855,7 +10687,7 @@
       <c r="AH20" s="126"/>
       <c r="AI20" s="127"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="112"/>
       <c r="B21" s="67"/>
       <c r="C21" s="112"/>
@@ -10892,7 +10724,7 @@
       <c r="AH21" s="126"/>
       <c r="AI21" s="127"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="112"/>
       <c r="B22" s="67"/>
       <c r="C22" s="112"/>
@@ -10929,7 +10761,7 @@
       <c r="AH22" s="126"/>
       <c r="AI22" s="127"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="112"/>
       <c r="B23" s="132"/>
       <c r="C23" s="123"/>
@@ -10966,7 +10798,7 @@
       <c r="AH23" s="126"/>
       <c r="AI23" s="127"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="112"/>
       <c r="B24" s="67"/>
       <c r="C24" s="112"/>
@@ -11003,7 +10835,7 @@
       <c r="AH24" s="126"/>
       <c r="AI24" s="127"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="112"/>
       <c r="B25" s="67"/>
       <c r="C25" s="112"/>
@@ -11040,7 +10872,7 @@
       <c r="AH25" s="126"/>
       <c r="AI25" s="127"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="112"/>
       <c r="B26" s="67"/>
       <c r="C26" s="112"/>
@@ -11077,7 +10909,7 @@
       <c r="AH26" s="126"/>
       <c r="AI26" s="127"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="112"/>
       <c r="B27" s="67"/>
       <c r="C27" s="112"/>
@@ -11114,7 +10946,7 @@
       <c r="AH27" s="126"/>
       <c r="AI27" s="127"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="112"/>
       <c r="B28" s="67"/>
       <c r="C28" s="112"/>
@@ -11151,7 +10983,7 @@
       <c r="AH28" s="126"/>
       <c r="AI28" s="127"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="112"/>
       <c r="B29" s="67"/>
       <c r="C29" s="112"/>
@@ -11188,7 +11020,7 @@
       <c r="AH29" s="126"/>
       <c r="AI29" s="127"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="133"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
@@ -11225,7 +11057,7 @@
       <c r="AH30" s="136"/>
       <c r="AI30" s="137"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="133"/>
       <c r="B31" s="67"/>
       <c r="C31" s="120"/>
@@ -11262,7 +11094,7 @@
       <c r="AH31" s="136"/>
       <c r="AI31" s="137"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="133"/>
       <c r="B32" s="140"/>
       <c r="C32" s="112"/>
@@ -11299,7 +11131,7 @@
       <c r="AH32" s="136"/>
       <c r="AI32" s="137"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="133"/>
       <c r="B33" s="140"/>
       <c r="C33" s="112"/>
@@ -11336,7 +11168,7 @@
       <c r="AH33" s="136"/>
       <c r="AI33" s="137"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="133"/>
       <c r="B34" s="140"/>
       <c r="C34" s="112"/>
@@ -11373,7 +11205,7 @@
       <c r="AH34" s="136"/>
       <c r="AI34" s="137"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="133"/>
       <c r="B35" s="140"/>
       <c r="C35" s="112"/>
@@ -11410,7 +11242,7 @@
       <c r="AH35" s="136"/>
       <c r="AI35" s="137"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="A36" s="133"/>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -11447,7 +11279,7 @@
       <c r="AH36" s="145"/>
       <c r="AI36" s="133"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="B37" s="146"/>
       <c r="E37" s="146"/>
       <c r="F37" s="146"/>
@@ -11479,7 +11311,7 @@
       <c r="AH37" s="152"/>
       <c r="AI37" s="149"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="S38" s="149"/>
       <c r="T38" s="149"/>
       <c r="U38" s="150"/>
@@ -11498,7 +11330,7 @@
       <c r="AH38" s="155"/>
       <c r="AI38" s="149"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="Q39" s="156"/>
       <c r="S39" s="149"/>
       <c r="T39" s="150"/>
@@ -11518,7 +11350,7 @@
       <c r="AH39" s="155"/>
       <c r="AI39" s="149"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="S40" s="149"/>
       <c r="T40" s="149"/>
       <c r="U40" s="149"/>
@@ -11537,7 +11369,7 @@
       <c r="AH40" s="155"/>
       <c r="AI40" s="149"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="J41" s="146"/>
       <c r="K41" s="146"/>
       <c r="L41" s="146"/>
@@ -11551,37 +11383,37 @@
       <c r="AH41" s="155"/>
       <c r="AI41" s="149"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="149"/>
       <c r="AF42" s="153"/>
       <c r="AG42" s="154"/>
       <c r="AH42" s="155"/>
       <c r="AI42" s="149"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="AE43" s="149"/>
       <c r="AF43" s="153"/>
       <c r="AG43" s="153"/>
       <c r="AH43" s="155"/>
       <c r="AI43" s="149"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="146"/>
       <c r="AF44" s="157"/>
       <c r="AG44" s="157"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="A45" s="146"/>
       <c r="AG45" s="157"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AF46" s="157"/>
       <c r="AG46" s="157"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="AG47" s="157"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="S48" s="146"/>
       <c r="T48" s="146"/>
       <c r="V48" s="146"/>
@@ -11594,7 +11426,7 @@
       <c r="AC48" s="146"/>
       <c r="AD48" s="146"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="146"/>
       <c r="S49" s="146"/>
       <c r="T49" s="146"/>
@@ -11609,10 +11441,10 @@
       <c r="AD49" s="146"/>
       <c r="AG49" s="157"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1">
       <c r="R50" s="146"/>
     </row>
-    <row r="51" spans="1:34" s="146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="146" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="64"/>
       <c r="B51" s="64"/>
       <c r="C51" s="64"/>
@@ -11645,7 +11477,7 @@
       <c r="AD51" s="64"/>
       <c r="AH51" s="156"/>
     </row>
-    <row r="52" spans="1:34" s="146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="146" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -11718,12 +11550,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="230" t="s">
         <v>64</v>
       </c>
@@ -11779,7 +11611,7 @@
       <c r="AH1" s="313"/>
       <c r="AI1" s="314"/>
     </row>
-    <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="230" t="s">
         <v>65</v>
       </c>
@@ -11829,7 +11661,7 @@
       <c r="AH2" s="313"/>
       <c r="AI2" s="314"/>
     </row>
-    <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="230" t="s">
         <v>66</v>
       </c>
@@ -11877,7 +11709,7 @@
       <c r="AH3" s="313"/>
       <c r="AI3" s="314"/>
     </row>
-    <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="39"/>
       <c r="AD4" s="76"/>
       <c r="AE4" s="76"/>
@@ -11886,7 +11718,7 @@
       <c r="AH4" s="49"/>
       <c r="AI4" s="49"/>
     </row>
-    <row r="5" spans="1:35" s="56" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="64" t="s">
         <v>202</v>
       </c>
@@ -11925,7 +11757,7 @@
       <c r="AH5" s="75"/>
       <c r="AI5" s="75"/>
     </row>
-    <row r="6" spans="1:35" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="56" customFormat="1">
       <c r="A6" s="64"/>
       <c r="B6" s="75"/>
       <c r="C6" s="90"/>
@@ -11962,7 +11794,7 @@
       <c r="AH6" s="75"/>
       <c r="AI6" s="75"/>
     </row>
-    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="315" t="s">
         <v>38</v>
       </c>
@@ -12005,7 +11837,7 @@
       <c r="AH7" s="319"/>
       <c r="AI7" s="320"/>
     </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="315" t="s">
         <v>20</v>
       </c>
@@ -12050,7 +11882,7 @@
       <c r="AH8" s="322"/>
       <c r="AI8" s="323"/>
     </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="315" t="s">
         <v>39</v>
       </c>
@@ -12089,7 +11921,7 @@
       <c r="AH9" s="161"/>
       <c r="AI9" s="25"/>
     </row>
-    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
         <v>88</v>
@@ -12128,7 +11960,7 @@
       <c r="AH10" s="160"/>
       <c r="AI10" s="21"/>
     </row>
-    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="160"/>
       <c r="C11" s="20"/>
@@ -12165,7 +11997,7 @@
       <c r="AH11" s="160"/>
       <c r="AI11" s="21"/>
     </row>
-    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="160"/>
       <c r="C12" s="20"/>
@@ -12202,7 +12034,7 @@
       <c r="AH12" s="160"/>
       <c r="AI12" s="21"/>
     </row>
-    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="51"/>
       <c r="B13" s="159"/>
       <c r="C13" s="17" t="s">
@@ -12241,7 +12073,7 @@
       <c r="AH13" s="159"/>
       <c r="AI13" s="37"/>
     </row>
-    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="315" t="s">
         <v>23</v>
       </c>
@@ -12280,7 +12112,7 @@
       <c r="AH14" s="161"/>
       <c r="AI14" s="25"/>
     </row>
-    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="28"/>
       <c r="B15" s="160"/>
       <c r="C15" s="160"/>
@@ -12317,7 +12149,7 @@
       <c r="AH15" s="160"/>
       <c r="AI15" s="21"/>
     </row>
-    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="28"/>
       <c r="B16" s="160"/>
       <c r="C16" s="160"/>
@@ -12354,7 +12186,7 @@
       <c r="AH16" s="160"/>
       <c r="AI16" s="21"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="159"/>
       <c r="C17" s="159"/>
@@ -12391,7 +12223,7 @@
       <c r="AH17" s="159"/>
       <c r="AI17" s="37"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="329" t="s">
         <v>19</v>
       </c>
@@ -12432,7 +12264,7 @@
       <c r="AH18" s="20"/>
       <c r="AI18" s="52"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="162"/>
       <c r="B19" s="163"/>
       <c r="C19" s="163"/>
@@ -12477,7 +12309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="165"/>
       <c r="B20" s="166"/>
       <c r="C20" s="166"/>
@@ -12514,7 +12346,7 @@
       <c r="AH20" s="20"/>
       <c r="AI20" s="21"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="315" t="s">
         <v>12</v>
       </c>
@@ -12555,7 +12387,7 @@
       <c r="AH21" s="333"/>
       <c r="AI21" s="334"/>
     </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="326" t="s">
         <v>18</v>
       </c>
@@ -12596,7 +12428,7 @@
       <c r="AH22" s="212"/>
       <c r="AI22" s="208"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="165"/>
       <c r="B23" s="166"/>
       <c r="C23" s="166"/>
@@ -12641,7 +12473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="348" t="s">
         <v>11</v>
       </c>
@@ -12686,7 +12518,7 @@
       <c r="AH24" s="217"/>
       <c r="AI24" s="219"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="344" t="s">
         <v>16</v>
       </c>
@@ -12733,7 +12565,7 @@
       <c r="AH25" s="161"/>
       <c r="AI25" s="25"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="44"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -12778,7 +12610,7 @@
       <c r="AH26" s="160"/>
       <c r="AI26" s="21"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -12823,7 +12655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="315" t="s">
         <v>22</v>
       </c>
@@ -12862,7 +12694,7 @@
       <c r="AH28" s="161"/>
       <c r="AI28" s="25"/>
     </row>
-    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="30"/>
       <c r="B29" s="160"/>
       <c r="C29" s="160"/>
@@ -12899,7 +12731,7 @@
       <c r="AH29" s="160"/>
       <c r="AI29" s="21"/>
     </row>
-    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="30"/>
       <c r="B30" s="160"/>
       <c r="C30" s="160"/>
@@ -12936,7 +12768,7 @@
       <c r="AH30" s="160"/>
       <c r="AI30" s="21"/>
     </row>
-    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="48"/>
       <c r="B31" s="159"/>
       <c r="C31" s="159"/>
@@ -13689,12 +13521,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="230" t="s">
         <v>64</v>
       </c>
@@ -13753,7 +13585,7 @@
       <c r="AK1" s="13"/>
       <c r="AL1" s="53"/>
     </row>
-    <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="230" t="s">
         <v>65</v>
       </c>
@@ -13804,7 +13636,7 @@
       <c r="AI2" s="314"/>
       <c r="AJ2" s="31"/>
     </row>
-    <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="230" t="s">
         <v>66</v>
       </c>
@@ -13853,7 +13685,7 @@
       <c r="AI3" s="314"/>
       <c r="AJ3" s="31"/>
     </row>
-    <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -13873,7 +13705,7 @@
       <c r="AI4" s="40"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" spans="1:47" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:47" s="56" customFormat="1">
       <c r="A5" s="64" t="s">
         <v>76</v>
       </c>
@@ -13924,7 +13756,7 @@
       <c r="AT5" s="75"/>
       <c r="AU5" s="75"/>
     </row>
-    <row r="6" spans="1:47" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:47" s="56" customFormat="1">
       <c r="A6" s="64"/>
       <c r="B6" s="75"/>
       <c r="C6" s="12"/>
@@ -13973,7 +13805,7 @@
       <c r="AT6" s="75"/>
       <c r="AU6" s="75"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:47">
       <c r="A7" s="170" t="s">
         <v>49</v>
       </c>
@@ -14014,7 +13846,7 @@
       <c r="AH7" s="96"/>
       <c r="AI7" s="98"/>
     </row>
-    <row r="8" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:47" ht="22.5" customHeight="1">
       <c r="A8" s="99" t="s">
         <v>77</v>
       </c>
@@ -14069,7 +13901,7 @@
       </c>
       <c r="AI8" s="393"/>
     </row>
-    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="95">
         <v>1</v>
       </c>
@@ -14112,7 +13944,7 @@
       <c r="AH9" s="394"/>
       <c r="AI9" s="395"/>
     </row>
-    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="189">
         <v>2</v>
       </c>
@@ -14151,7 +13983,7 @@
       <c r="AH10" s="396"/>
       <c r="AI10" s="397"/>
     </row>
-    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="189">
         <v>3</v>
       </c>
@@ -14190,7 +14022,7 @@
       <c r="AH11" s="396"/>
       <c r="AI11" s="397"/>
     </row>
-    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="189">
         <v>4</v>
       </c>
@@ -14229,7 +14061,7 @@
       <c r="AH12" s="396"/>
       <c r="AI12" s="397"/>
     </row>
-    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="189">
         <v>5</v>
       </c>
@@ -14268,7 +14100,7 @@
       <c r="AH13" s="396"/>
       <c r="AI13" s="397"/>
     </row>
-    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="189">
         <v>6</v>
       </c>
@@ -14307,7 +14139,7 @@
       <c r="AH14" s="396"/>
       <c r="AI14" s="397"/>
     </row>
-    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="190">
         <v>7</v>
       </c>
@@ -14346,7 +14178,7 @@
       <c r="AH15" s="396"/>
       <c r="AI15" s="397"/>
     </row>
-    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="191">
         <v>8</v>
       </c>
@@ -14385,7 +14217,7 @@
       <c r="AH16" s="396"/>
       <c r="AI16" s="397"/>
     </row>
-    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="192">
         <v>9</v>
       </c>
@@ -14424,7 +14256,7 @@
       <c r="AH17" s="429"/>
       <c r="AI17" s="430"/>
     </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="418"/>
       <c r="B18" s="419"/>
       <c r="C18" s="419"/>
@@ -14462,7 +14294,7 @@
       <c r="AI18" s="76"/>
       <c r="AJ18" s="34"/>
     </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="412" t="s">
         <v>51</v>
       </c>
@@ -14509,7 +14341,7 @@
       <c r="AT19" s="75"/>
       <c r="AU19" s="75"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="193"/>
       <c r="B20" s="194"/>
       <c r="C20" s="195"/>
@@ -14555,7 +14387,7 @@
       <c r="AT20" s="75"/>
       <c r="AU20" s="75"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="193"/>
       <c r="B21" s="194"/>
       <c r="C21" s="194"/>
@@ -14601,7 +14433,7 @@
       <c r="AT21" s="75"/>
       <c r="AU21" s="75"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="193"/>
       <c r="B22" s="194"/>
       <c r="C22" s="194"/>
@@ -14647,7 +14479,7 @@
       <c r="AT22" s="75"/>
       <c r="AU22" s="75"/>
     </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="193"/>
       <c r="B23" s="194"/>
       <c r="C23" s="194"/>
@@ -14693,7 +14525,7 @@
       <c r="AT23" s="75"/>
       <c r="AU23" s="75"/>
     </row>
-    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="193"/>
       <c r="B24" s="194"/>
       <c r="C24" s="194"/>
@@ -14739,7 +14571,7 @@
       <c r="AT24" s="75"/>
       <c r="AU24" s="75"/>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="193"/>
       <c r="B25" s="194"/>
       <c r="C25" s="194"/>
@@ -14785,7 +14617,7 @@
       <c r="AT25" s="75"/>
       <c r="AU25" s="75"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="193"/>
       <c r="B26" s="194"/>
       <c r="C26" s="194"/>
@@ -14831,7 +14663,7 @@
       <c r="AT26" s="75"/>
       <c r="AU26" s="75"/>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="193"/>
       <c r="B27" s="195"/>
       <c r="C27" s="195"/>
@@ -14877,7 +14709,7 @@
       <c r="AT27" s="75"/>
       <c r="AU27" s="75"/>
     </row>
-    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="193"/>
       <c r="B28" s="195"/>
       <c r="C28" s="194"/>
@@ -14923,7 +14755,7 @@
       <c r="AT28" s="75"/>
       <c r="AU28" s="75"/>
     </row>
-    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="201"/>
       <c r="B29" s="202"/>
       <c r="C29" s="203"/>
@@ -14969,7 +14801,7 @@
       <c r="AT29" s="75"/>
       <c r="AU29" s="75"/>
     </row>
-    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="38"/>
       <c r="B30" s="177"/>
       <c r="C30" s="34"/>
@@ -15015,7 +14847,7 @@
       <c r="AT30" s="75"/>
       <c r="AU30" s="75"/>
     </row>
-    <row r="31" spans="1:47" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:47" ht="4.5" customHeight="1">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -15061,7 +14893,7 @@
       <c r="AT31" s="75"/>
       <c r="AU31" s="75"/>
     </row>
-    <row r="32" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:47" ht="12">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -15107,7 +14939,7 @@
       <c r="AT32" s="75"/>
       <c r="AU32" s="75"/>
     </row>
-    <row r="33" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:47" ht="12">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -15153,7 +14985,7 @@
       <c r="AT33" s="75"/>
       <c r="AU33" s="75"/>
     </row>
-    <row r="34" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:47" ht="12">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -15199,7 +15031,7 @@
       <c r="AT34" s="75"/>
       <c r="AU34" s="75"/>
     </row>
-    <row r="35" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:47" ht="12">
       <c r="AN35" s="92"/>
       <c r="AO35" s="75"/>
       <c r="AP35" s="75"/>
@@ -15209,7 +15041,7 @@
       <c r="AT35" s="75"/>
       <c r="AU35" s="75"/>
     </row>
-    <row r="36" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:47" ht="12">
       <c r="AN36" s="92"/>
       <c r="AO36" s="75"/>
       <c r="AP36" s="75"/>
@@ -15219,7 +15051,7 @@
       <c r="AT36" s="75"/>
       <c r="AU36" s="75"/>
     </row>
-    <row r="37" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:47" ht="12">
       <c r="AN37" s="92"/>
       <c r="AO37" s="75"/>
       <c r="AP37" s="75"/>
@@ -15229,7 +15061,7 @@
       <c r="AT37" s="75"/>
       <c r="AU37" s="75"/>
     </row>
-    <row r="38" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:47" ht="12">
       <c r="AN38" s="92"/>
       <c r="AO38" s="75"/>
       <c r="AP38" s="75"/>
@@ -15239,7 +15071,7 @@
       <c r="AT38" s="75"/>
       <c r="AU38" s="75"/>
     </row>
-    <row r="39" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:47" ht="12">
       <c r="AN39" s="92"/>
       <c r="AO39" s="75"/>
       <c r="AP39" s="75"/>
@@ -15249,7 +15081,7 @@
       <c r="AT39" s="75"/>
       <c r="AU39" s="75"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:47">
       <c r="AN40" s="75"/>
       <c r="AO40" s="75"/>
       <c r="AP40" s="75"/>
@@ -15259,7 +15091,7 @@
       <c r="AT40" s="75"/>
       <c r="AU40" s="75"/>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:47">
       <c r="AN41" s="75"/>
       <c r="AO41" s="75"/>
       <c r="AP41" s="75"/>
@@ -15269,7 +15101,7 @@
       <c r="AT41" s="75"/>
       <c r="AU41" s="75"/>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:47">
       <c r="AN42" s="75"/>
       <c r="AO42" s="75"/>
       <c r="AP42" s="75"/>
@@ -15406,7 +15238,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CR71"/>
@@ -15415,12 +15247,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:95" s="66" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="230" t="s">
         <v>64</v>
       </c>
@@ -15476,7 +15308,7 @@
       <c r="AH1" s="313"/>
       <c r="AI1" s="314"/>
     </row>
-    <row r="2" spans="1:95" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:95" s="66" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="230" t="s">
         <v>65</v>
       </c>
@@ -15526,7 +15358,7 @@
       <c r="AH2" s="313"/>
       <c r="AI2" s="314"/>
     </row>
-    <row r="3" spans="1:95" s="66" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:95" s="66" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="230" t="s">
         <v>66</v>
       </c>
@@ -15574,8 +15406,8 @@
       <c r="AH3" s="313"/>
       <c r="AI3" s="314"/>
     </row>
-    <row r="4" spans="1:95" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:95" ht="12" customHeight="1"/>
+    <row r="5" spans="1:95" ht="15" customHeight="1">
       <c r="A5" s="209" t="s">
         <v>205</v>
       </c>
@@ -15583,7 +15415,7 @@
       <c r="C5" s="112"/>
       <c r="D5" s="112"/>
     </row>
-    <row r="6" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:95" ht="15" customHeight="1">
       <c r="A6" s="112"/>
       <c r="B6" s="112"/>
       <c r="C6" s="112"/>
@@ -15614,7 +15446,7 @@
       <c r="AB6" s="112"/>
       <c r="AC6" s="112"/>
     </row>
-    <row r="7" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:95" ht="15" customHeight="1">
       <c r="A7" s="220" t="s">
         <v>69</v>
       </c>
@@ -15730,7 +15562,7 @@
       <c r="CP7" s="168"/>
       <c r="CQ7" s="168"/>
     </row>
-    <row r="8" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:95" ht="15" customHeight="1">
       <c r="A8" s="223">
         <v>1</v>
       </c>
@@ -15831,7 +15663,7 @@
       <c r="CP8" s="168"/>
       <c r="CQ8" s="168"/>
     </row>
-    <row r="9" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:95" ht="15" customHeight="1">
       <c r="A9" s="223">
         <v>2</v>
       </c>
@@ -15938,7 +15770,7 @@
       <c r="CP9" s="168"/>
       <c r="CQ9" s="168"/>
     </row>
-    <row r="10" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:95" ht="15" customHeight="1">
       <c r="A10" s="223">
         <v>3</v>
       </c>
@@ -16044,7 +15876,7 @@
       <c r="CP10" s="168"/>
       <c r="CQ10" s="168"/>
     </row>
-    <row r="11" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:95" ht="15" customHeight="1">
       <c r="A11" s="223">
         <v>4</v>
       </c>
@@ -16143,7 +15975,7 @@
       <c r="CP11" s="168"/>
       <c r="CQ11" s="168"/>
     </row>
-    <row r="12" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:95" ht="15" customHeight="1">
       <c r="A12" s="223">
         <v>5</v>
       </c>
@@ -16250,7 +16082,7 @@
       <c r="CP12" s="168"/>
       <c r="CQ12" s="168"/>
     </row>
-    <row r="13" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:95" ht="15" customHeight="1">
       <c r="A13" s="223">
         <v>6</v>
       </c>
@@ -16357,7 +16189,7 @@
       <c r="CP13" s="168"/>
       <c r="CQ13" s="168"/>
     </row>
-    <row r="14" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:95" ht="15" customHeight="1">
       <c r="A14" s="223">
         <v>7</v>
       </c>
@@ -16463,7 +16295,7 @@
       <c r="CP14" s="168"/>
       <c r="CQ14" s="168"/>
     </row>
-    <row r="15" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:95" ht="15" customHeight="1">
       <c r="A15" s="223">
         <v>8</v>
       </c>
@@ -16569,7 +16401,7 @@
       <c r="CP15" s="168"/>
       <c r="CQ15" s="168"/>
     </row>
-    <row r="16" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:95" ht="15" customHeight="1">
       <c r="A16" s="223">
         <v>9</v>
       </c>
@@ -16667,7 +16499,7 @@
       <c r="CP16" s="168"/>
       <c r="CQ16" s="168"/>
     </row>
-    <row r="17" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:95" ht="15" customHeight="1">
       <c r="A17" s="223">
         <v>10</v>
       </c>
@@ -16773,7 +16605,7 @@
       <c r="CP17" s="168"/>
       <c r="CQ17" s="168"/>
     </row>
-    <row r="18" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:95" ht="15" customHeight="1">
       <c r="A18" s="223">
         <v>11</v>
       </c>
@@ -16879,7 +16711,7 @@
       <c r="CP18" s="168"/>
       <c r="CQ18" s="168"/>
     </row>
-    <row r="19" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:95" ht="15" customHeight="1">
       <c r="A19" s="223">
         <v>12</v>
       </c>
@@ -16947,7 +16779,7 @@
       <c r="CP19" s="168"/>
       <c r="CQ19" s="168"/>
     </row>
-    <row r="20" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:95" ht="15" customHeight="1">
       <c r="A20" s="223">
         <v>13</v>
       </c>
@@ -17013,7 +16845,7 @@
       <c r="CP20" s="168"/>
       <c r="CQ20" s="168"/>
     </row>
-    <row r="21" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:95" ht="15" customHeight="1">
       <c r="A21" s="223">
         <v>14</v>
       </c>
@@ -17079,7 +16911,7 @@
       <c r="CP21" s="168"/>
       <c r="CQ21" s="168"/>
     </row>
-    <row r="22" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:95" ht="15" customHeight="1">
       <c r="A22" s="223">
         <v>15</v>
       </c>
@@ -17147,7 +16979,7 @@
       <c r="CP22" s="168"/>
       <c r="CQ22" s="168"/>
     </row>
-    <row r="23" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:95" ht="15" customHeight="1">
       <c r="A23" s="223">
         <v>16</v>
       </c>
@@ -17213,7 +17045,7 @@
       <c r="CP23" s="168"/>
       <c r="CQ23" s="168"/>
     </row>
-    <row r="24" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:95" ht="15" customHeight="1">
       <c r="A24" s="223">
         <v>17</v>
       </c>
@@ -17281,7 +17113,7 @@
       <c r="CP24" s="168"/>
       <c r="CQ24" s="168"/>
     </row>
-    <row r="25" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:95" ht="15" customHeight="1">
       <c r="A25" s="223">
         <v>18</v>
       </c>
@@ -17347,7 +17179,7 @@
       <c r="CP25" s="168"/>
       <c r="CQ25" s="168"/>
     </row>
-    <row r="26" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:95" ht="15" customHeight="1">
       <c r="A26" s="223">
         <v>19</v>
       </c>
@@ -17413,7 +17245,7 @@
       <c r="CP26" s="168"/>
       <c r="CQ26" s="168"/>
     </row>
-    <row r="27" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:95" ht="15" customHeight="1">
       <c r="A27" s="223">
         <v>20</v>
       </c>
@@ -17479,7 +17311,7 @@
       <c r="CP27" s="168"/>
       <c r="CQ27" s="168"/>
     </row>
-    <row r="28" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:95" ht="15" customHeight="1">
       <c r="A28" s="223">
         <v>21</v>
       </c>
@@ -17545,7 +17377,7 @@
       <c r="CP28" s="168"/>
       <c r="CQ28" s="168"/>
     </row>
-    <row r="29" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:95" ht="15" customHeight="1">
       <c r="A29" s="223">
         <v>22</v>
       </c>
@@ -17605,7 +17437,7 @@
       <c r="CP29" s="168"/>
       <c r="CQ29" s="168"/>
     </row>
-    <row r="30" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:95" ht="15" customHeight="1">
       <c r="A30" s="223">
         <v>23</v>
       </c>
@@ -17673,7 +17505,7 @@
       <c r="CP30" s="168"/>
       <c r="CQ30" s="168"/>
     </row>
-    <row r="31" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:95" ht="15" customHeight="1">
       <c r="A31" s="223">
         <v>24</v>
       </c>
@@ -17741,7 +17573,7 @@
       <c r="CP31" s="168"/>
       <c r="CQ31" s="168"/>
     </row>
-    <row r="32" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:95" ht="15" customHeight="1">
       <c r="A32" s="223">
         <v>25</v>
       </c>
@@ -17809,7 +17641,7 @@
       <c r="CP32" s="168"/>
       <c r="CQ32" s="168"/>
     </row>
-    <row r="33" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:96" ht="15" customHeight="1">
       <c r="A33" s="223">
         <v>26</v>
       </c>
@@ -17877,7 +17709,7 @@
       <c r="CP33" s="168"/>
       <c r="CQ33" s="168"/>
     </row>
-    <row r="34" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:96" ht="15" customHeight="1">
       <c r="A34" s="223">
         <v>27</v>
       </c>
@@ -17945,7 +17777,7 @@
       <c r="CP34" s="168"/>
       <c r="CQ34" s="168"/>
     </row>
-    <row r="35" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:96" ht="15" customHeight="1">
       <c r="A35" s="223">
         <v>28</v>
       </c>
@@ -18013,7 +17845,7 @@
       <c r="CP35" s="168"/>
       <c r="CQ35" s="168"/>
     </row>
-    <row r="36" spans="1:96" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:96" s="106" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="100"/>
       <c r="B36" s="100"/>
       <c r="C36" s="100"/>
@@ -18064,7 +17896,7 @@
       <c r="CQ36" s="108"/>
       <c r="CR36" s="108"/>
     </row>
-    <row r="37" spans="1:96" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:96" s="106" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="109"/>
       <c r="B37" s="109"/>
       <c r="C37" s="109"/>
@@ -18115,7 +17947,7 @@
       <c r="CQ37" s="108"/>
       <c r="CR37" s="108"/>
     </row>
-    <row r="38" spans="1:96" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:96" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="438" t="s">
         <v>73</v>
       </c>
@@ -18158,7 +17990,7 @@
       <c r="AJ38" s="436"/>
       <c r="AK38" s="437"/>
     </row>
-    <row r="39" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:96" ht="15" customHeight="1">
       <c r="A39" s="452"/>
       <c r="B39" s="453"/>
       <c r="C39" s="453"/>
@@ -18212,7 +18044,7 @@
       <c r="CQ39" s="168"/>
       <c r="CR39" s="168"/>
     </row>
-    <row r="40" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:96" ht="15" customHeight="1">
       <c r="A40" s="78"/>
       <c r="B40" s="93" t="s">
         <v>163</v>
@@ -18252,7 +18084,7 @@
       <c r="AJ40" s="79"/>
       <c r="AK40" s="188"/>
     </row>
-    <row r="41" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:96" ht="15" customHeight="1">
       <c r="A41" s="80"/>
       <c r="B41" s="93" t="s">
         <v>164</v>
@@ -18292,7 +18124,7 @@
       <c r="AJ41" s="185"/>
       <c r="AK41" s="81"/>
     </row>
-    <row r="42" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:96" ht="15" customHeight="1">
       <c r="A42" s="80"/>
       <c r="B42" s="93" t="s">
         <v>165</v>
@@ -18332,7 +18164,7 @@
       <c r="AJ42" s="185"/>
       <c r="AK42" s="81"/>
     </row>
-    <row r="43" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:96" ht="15" customHeight="1">
       <c r="A43" s="80"/>
       <c r="B43" s="93" t="s">
         <v>166</v>
@@ -18372,7 +18204,7 @@
       <c r="AJ43" s="185"/>
       <c r="AK43" s="81"/>
     </row>
-    <row r="44" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:96" ht="15" customHeight="1">
       <c r="A44" s="80"/>
       <c r="B44" s="93" t="s">
         <v>167</v>
@@ -18412,7 +18244,7 @@
       <c r="AJ44" s="185"/>
       <c r="AK44" s="81"/>
     </row>
-    <row r="45" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:96" ht="15" customHeight="1">
       <c r="A45" s="80"/>
       <c r="B45" s="93" t="s">
         <v>168</v>
@@ -18452,7 +18284,7 @@
       <c r="AJ45" s="185"/>
       <c r="AK45" s="81"/>
     </row>
-    <row r="46" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:96" ht="15" customHeight="1">
       <c r="A46" s="80"/>
       <c r="B46" s="93" t="s">
         <v>169</v>
@@ -18492,7 +18324,7 @@
       <c r="AJ46" s="185"/>
       <c r="AK46" s="81"/>
     </row>
-    <row r="47" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:96" ht="15" customHeight="1">
       <c r="A47" s="80"/>
       <c r="B47" s="93" t="s">
         <v>170</v>
@@ -18532,7 +18364,7 @@
       <c r="AJ47" s="185"/>
       <c r="AK47" s="81"/>
     </row>
-    <row r="48" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:96" ht="15" customHeight="1">
       <c r="A48" s="80"/>
       <c r="B48" s="93" t="s">
         <v>171</v>
@@ -18572,7 +18404,7 @@
       <c r="AJ48" s="185"/>
       <c r="AK48" s="81"/>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:37" ht="15" customHeight="1">
       <c r="A49" s="80"/>
       <c r="B49" s="93" t="s">
         <v>172</v>
@@ -18612,7 +18444,7 @@
       <c r="AJ49" s="185"/>
       <c r="AK49" s="81"/>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:37" ht="15" customHeight="1">
       <c r="A50" s="80"/>
       <c r="B50" s="93" t="s">
         <v>168</v>
@@ -18652,7 +18484,7 @@
       <c r="AJ50" s="185"/>
       <c r="AK50" s="81"/>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:37" ht="15" customHeight="1">
       <c r="A51" s="80"/>
       <c r="B51" s="93" t="s">
         <v>173</v>
@@ -18692,7 +18524,7 @@
       <c r="AJ51" s="185"/>
       <c r="AK51" s="81"/>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:37" ht="15" customHeight="1">
       <c r="A52" s="80"/>
       <c r="B52" s="93" t="s">
         <v>174</v>
@@ -18732,7 +18564,7 @@
       <c r="AJ52" s="185"/>
       <c r="AK52" s="81"/>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:37" ht="15" customHeight="1">
       <c r="A53" s="80"/>
       <c r="B53" s="93" t="s">
         <v>175</v>
@@ -18772,7 +18604,7 @@
       <c r="AJ53" s="185"/>
       <c r="AK53" s="81"/>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:37" ht="15" customHeight="1">
       <c r="A54" s="80"/>
       <c r="B54" s="93" t="s">
         <v>176</v>
@@ -18812,7 +18644,7 @@
       <c r="AJ54" s="185"/>
       <c r="AK54" s="81"/>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:37" ht="15" customHeight="1">
       <c r="A55" s="80"/>
       <c r="B55" s="93"/>
       <c r="C55" s="93" t="s">
@@ -18852,7 +18684,7 @@
       <c r="AJ55" s="185"/>
       <c r="AK55" s="81"/>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:37" ht="15" customHeight="1">
       <c r="A56" s="80"/>
       <c r="B56" s="93"/>
       <c r="C56" s="93" t="s">
@@ -18892,7 +18724,7 @@
       <c r="AJ56" s="185"/>
       <c r="AK56" s="81"/>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:37" ht="15" customHeight="1">
       <c r="A57" s="80"/>
       <c r="B57" s="93"/>
       <c r="C57" s="93" t="s">
@@ -18932,7 +18764,7 @@
       <c r="AJ57" s="185"/>
       <c r="AK57" s="81"/>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:37" ht="15" customHeight="1">
       <c r="A58" s="80"/>
       <c r="B58" s="93"/>
       <c r="C58" s="93" t="s">
@@ -18972,7 +18804,7 @@
       <c r="AJ58" s="185"/>
       <c r="AK58" s="81"/>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:37" ht="15" customHeight="1">
       <c r="A59" s="80"/>
       <c r="B59" s="93"/>
       <c r="C59" s="93" t="s">
@@ -19012,7 +18844,7 @@
       <c r="AJ59" s="185"/>
       <c r="AK59" s="81"/>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:37" ht="15" customHeight="1">
       <c r="A60" s="80"/>
       <c r="B60" s="93"/>
       <c r="C60" s="93" t="s">
@@ -19052,7 +18884,7 @@
       <c r="AJ60" s="185"/>
       <c r="AK60" s="81"/>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:37" ht="15" customHeight="1">
       <c r="A61" s="80"/>
       <c r="B61" s="93" t="s">
         <v>183</v>
@@ -19092,7 +18924,7 @@
       <c r="AJ61" s="185"/>
       <c r="AK61" s="81"/>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:37" ht="15" customHeight="1">
       <c r="A62" s="80"/>
       <c r="B62" s="93" t="s">
         <v>184</v>
@@ -19132,7 +18964,7 @@
       <c r="AJ62" s="185"/>
       <c r="AK62" s="81"/>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:37" ht="15" customHeight="1">
       <c r="A63" s="80"/>
       <c r="B63" s="93" t="s">
         <v>185</v>
@@ -19172,7 +19004,7 @@
       <c r="AJ63" s="185"/>
       <c r="AK63" s="81"/>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:37" ht="15" customHeight="1">
       <c r="A64" s="80"/>
       <c r="B64" s="93" t="s">
         <v>186</v>
@@ -19212,7 +19044,7 @@
       <c r="AJ64" s="185"/>
       <c r="AK64" s="81"/>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:37" ht="15" customHeight="1">
       <c r="A65" s="80"/>
       <c r="B65" s="93" t="s">
         <v>175</v>
@@ -19252,7 +19084,7 @@
       <c r="AJ65" s="185"/>
       <c r="AK65" s="81"/>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:37" ht="15" customHeight="1">
       <c r="A66" s="80"/>
       <c r="B66" s="93" t="s">
         <v>184</v>
@@ -19292,7 +19124,7 @@
       <c r="AJ66" s="185"/>
       <c r="AK66" s="81"/>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:37" ht="15" customHeight="1">
       <c r="A67" s="80"/>
       <c r="B67" s="93" t="s">
         <v>187</v>
@@ -19332,7 +19164,7 @@
       <c r="AJ67" s="185"/>
       <c r="AK67" s="81"/>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:37" ht="15" customHeight="1">
       <c r="A68" s="80"/>
       <c r="B68" s="93"/>
       <c r="C68" s="168"/>
@@ -19370,7 +19202,7 @@
       <c r="AJ68" s="185"/>
       <c r="AK68" s="81"/>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:37" ht="15" customHeight="1">
       <c r="A69" s="80"/>
       <c r="B69" s="93"/>
       <c r="C69" s="93"/>
@@ -19409,7 +19241,7 @@
       <c r="AJ69" s="185"/>
       <c r="AK69" s="81"/>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:37" ht="15" customHeight="1">
       <c r="A70" s="82"/>
       <c r="B70" s="83"/>
       <c r="C70" s="83"/>
@@ -19448,7 +19280,7 @@
       <c r="AJ70" s="83"/>
       <c r="AK70" s="84"/>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:37" ht="15" customHeight="1">
       <c r="D71" s="92"/>
       <c r="X71" s="92"/>
     </row>
@@ -19736,110 +19568,110 @@
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" style="12" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="65" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="173"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="174" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="173"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="175" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="173"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="174" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="173"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="174" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="173"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="174" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="173"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="174" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="173"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="175" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="57"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="175" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="173"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="175" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="173"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="175" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="173"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="175" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="173"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="175" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="173"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="175" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="173"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="175" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="173"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="59" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="173"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="59" t="s">
         <v>59</v>
       </c>

--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(XML)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(XML)_サンプル.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE5E200-845B-4E79-8BD8-EB068A8F4A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80EBE12-DEDF-45C9-8ADA-14CF3FDB4E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1365" windowWidth="20670" windowHeight="13575" tabRatio="641" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" r:id="rId1"/>
@@ -36,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2820,7 +2819,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="480">
+  <cellXfs count="481">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3457,18 +3456,138 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3523,125 +3642,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3697,15 +3705,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3715,6 +3714,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3724,99 +3813,237 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3826,248 +4053,104 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4081,89 +4164,8 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -9783,155 +9785,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="66" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="278" t="s">
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="272" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="248" t="s">
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="288" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="250"/>
-      <c r="S1" s="257" t="s">
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="290"/>
+      <c r="S1" s="297" t="s">
         <v>201</v>
       </c>
-      <c r="T1" s="258"/>
-      <c r="U1" s="258"/>
-      <c r="V1" s="258"/>
-      <c r="W1" s="258"/>
-      <c r="X1" s="258"/>
-      <c r="Y1" s="258"/>
-      <c r="Z1" s="259"/>
-      <c r="AA1" s="242" t="s">
+      <c r="T1" s="298"/>
+      <c r="U1" s="298"/>
+      <c r="V1" s="298"/>
+      <c r="W1" s="298"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="299"/>
+      <c r="AA1" s="284" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="275" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="284">
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="277"/>
+      <c r="AG1" s="278">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="285"/>
-      <c r="AI1" s="286"/>
+      <c r="AH1" s="279"/>
+      <c r="AI1" s="280"/>
       <c r="AK1" s="67"/>
       <c r="AL1" s="67"/>
       <c r="AM1" s="67"/>
       <c r="AN1" s="68"/>
     </row>
     <row r="2" spans="1:40" s="66" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="284" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="278" t="s">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="272" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="253"/>
-      <c r="S2" s="260"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="262"/>
-      <c r="AA2" s="242" t="s">
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="292"/>
+      <c r="Q2" s="292"/>
+      <c r="R2" s="293"/>
+      <c r="S2" s="300"/>
+      <c r="T2" s="301"/>
+      <c r="U2" s="301"/>
+      <c r="V2" s="301"/>
+      <c r="W2" s="301"/>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="302"/>
+      <c r="AA2" s="284" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="287" t="str">
+      <c r="AB2" s="285"/>
+      <c r="AC2" s="281" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="288"/>
-      <c r="AE2" s="288"/>
-      <c r="AF2" s="289"/>
-      <c r="AG2" s="284" t="str">
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="278" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="285"/>
-      <c r="AI2" s="286"/>
+      <c r="AH2" s="279"/>
+      <c r="AI2" s="280"/>
       <c r="AK2" s="67"/>
       <c r="AL2" s="67"/>
       <c r="AM2" s="67"/>
       <c r="AN2" s="67"/>
     </row>
     <row r="3" spans="1:40" s="66" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="255" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="278" t="s">
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="272" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="280"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="255"/>
-      <c r="R3" s="256"/>
-      <c r="S3" s="263"/>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="265"/>
-      <c r="AA3" s="245"/>
-      <c r="AB3" s="247"/>
-      <c r="AC3" s="281"/>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="284"/>
-      <c r="AH3" s="285"/>
-      <c r="AI3" s="286"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="294"/>
+      <c r="P3" s="295"/>
+      <c r="Q3" s="295"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="303"/>
+      <c r="T3" s="304"/>
+      <c r="U3" s="304"/>
+      <c r="V3" s="304"/>
+      <c r="W3" s="304"/>
+      <c r="X3" s="304"/>
+      <c r="Y3" s="304"/>
+      <c r="Z3" s="305"/>
+      <c r="AA3" s="255"/>
+      <c r="AB3" s="256"/>
+      <c r="AC3" s="275"/>
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="278"/>
+      <c r="AH3" s="279"/>
+      <c r="AI3" s="280"/>
       <c r="AK3" s="67"/>
       <c r="AL3" s="67"/>
       <c r="AM3" s="67"/>
@@ -9978,1189 +9980,1034 @@
       <c r="A7" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="290" t="s">
+      <c r="C7" s="252"/>
+      <c r="D7" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="292"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="290" t="s">
+      <c r="E7" s="253"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="292"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="293" t="s">
+      <c r="H7" s="253"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="254" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="292"/>
-      <c r="L7" s="292"/>
-      <c r="M7" s="292"/>
-      <c r="N7" s="292"/>
-      <c r="O7" s="292"/>
-      <c r="P7" s="291"/>
-      <c r="Q7" s="290" t="s">
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="252"/>
+      <c r="Q7" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="292"/>
-      <c r="S7" s="292"/>
-      <c r="T7" s="292"/>
-      <c r="U7" s="292"/>
-      <c r="V7" s="292"/>
-      <c r="W7" s="292"/>
-      <c r="X7" s="292"/>
-      <c r="Y7" s="292"/>
-      <c r="Z7" s="292"/>
-      <c r="AA7" s="292"/>
-      <c r="AB7" s="292"/>
-      <c r="AC7" s="292"/>
-      <c r="AD7" s="292"/>
-      <c r="AE7" s="291"/>
-      <c r="AF7" s="290" t="s">
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="253"/>
+      <c r="AE7" s="252"/>
+      <c r="AF7" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="292"/>
-      <c r="AH7" s="292"/>
-      <c r="AI7" s="291"/>
+      <c r="AG7" s="253"/>
+      <c r="AH7" s="253"/>
+      <c r="AI7" s="252"/>
       <c r="AJ7" s="61"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="62">
         <v>1</v>
       </c>
-      <c r="B8" s="294" t="s">
+      <c r="B8" s="257" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="295"/>
-      <c r="D8" s="296">
+      <c r="C8" s="258"/>
+      <c r="D8" s="259">
         <v>43336</v>
       </c>
-      <c r="E8" s="297"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="294" t="s">
+      <c r="E8" s="260"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="257" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="299"/>
-      <c r="I8" s="295"/>
-      <c r="J8" s="300" t="s">
+      <c r="H8" s="262"/>
+      <c r="I8" s="258"/>
+      <c r="J8" s="263" t="s">
         <v>187</v>
       </c>
-      <c r="K8" s="301"/>
-      <c r="L8" s="301"/>
-      <c r="M8" s="301"/>
-      <c r="N8" s="301"/>
-      <c r="O8" s="301"/>
-      <c r="P8" s="302"/>
-      <c r="Q8" s="300" t="s">
+      <c r="K8" s="264"/>
+      <c r="L8" s="264"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="264"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="265"/>
+      <c r="Q8" s="263" t="s">
         <v>188</v>
       </c>
-      <c r="R8" s="301"/>
-      <c r="S8" s="301"/>
-      <c r="T8" s="301"/>
-      <c r="U8" s="301"/>
-      <c r="V8" s="301"/>
-      <c r="W8" s="301"/>
-      <c r="X8" s="301"/>
-      <c r="Y8" s="301"/>
-      <c r="Z8" s="301"/>
-      <c r="AA8" s="301"/>
-      <c r="AB8" s="301"/>
-      <c r="AC8" s="301"/>
-      <c r="AD8" s="301"/>
-      <c r="AE8" s="302"/>
-      <c r="AF8" s="303" t="s">
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="264"/>
+      <c r="U8" s="264"/>
+      <c r="V8" s="264"/>
+      <c r="W8" s="264"/>
+      <c r="X8" s="264"/>
+      <c r="Y8" s="264"/>
+      <c r="Z8" s="264"/>
+      <c r="AA8" s="264"/>
+      <c r="AB8" s="264"/>
+      <c r="AC8" s="264"/>
+      <c r="AD8" s="264"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="266" t="s">
         <v>189</v>
       </c>
-      <c r="AG8" s="304"/>
-      <c r="AH8" s="304"/>
-      <c r="AI8" s="305"/>
+      <c r="AG8" s="267"/>
+      <c r="AH8" s="267"/>
+      <c r="AI8" s="268"/>
       <c r="AJ8" s="61"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="63"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="270"/>
-      <c r="G9" s="266"/>
-      <c r="H9" s="271"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="275"/>
-      <c r="K9" s="276"/>
-      <c r="L9" s="276"/>
-      <c r="M9" s="276"/>
-      <c r="N9" s="276"/>
-      <c r="O9" s="276"/>
-      <c r="P9" s="277"/>
-      <c r="Q9" s="275"/>
-      <c r="R9" s="276"/>
-      <c r="S9" s="276"/>
-      <c r="T9" s="276"/>
-      <c r="U9" s="276"/>
-      <c r="V9" s="276"/>
-      <c r="W9" s="276"/>
-      <c r="X9" s="276"/>
-      <c r="Y9" s="276"/>
-      <c r="Z9" s="276"/>
-      <c r="AA9" s="276"/>
-      <c r="AB9" s="276"/>
-      <c r="AC9" s="276"/>
-      <c r="AD9" s="276"/>
-      <c r="AE9" s="277"/>
-      <c r="AF9" s="272"/>
-      <c r="AG9" s="273"/>
-      <c r="AH9" s="273"/>
-      <c r="AI9" s="274"/>
+      <c r="B9" s="242"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="247"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="248"/>
+      <c r="K9" s="249"/>
+      <c r="L9" s="249"/>
+      <c r="M9" s="249"/>
+      <c r="N9" s="249"/>
+      <c r="O9" s="249"/>
+      <c r="P9" s="250"/>
+      <c r="Q9" s="248"/>
+      <c r="R9" s="249"/>
+      <c r="S9" s="249"/>
+      <c r="T9" s="249"/>
+      <c r="U9" s="249"/>
+      <c r="V9" s="249"/>
+      <c r="W9" s="249"/>
+      <c r="X9" s="249"/>
+      <c r="Y9" s="249"/>
+      <c r="Z9" s="249"/>
+      <c r="AA9" s="249"/>
+      <c r="AB9" s="249"/>
+      <c r="AC9" s="249"/>
+      <c r="AD9" s="249"/>
+      <c r="AE9" s="250"/>
+      <c r="AF9" s="269"/>
+      <c r="AG9" s="270"/>
+      <c r="AH9" s="270"/>
+      <c r="AI9" s="271"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="63"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="266"/>
-      <c r="H10" s="271"/>
-      <c r="I10" s="267"/>
-      <c r="J10" s="275"/>
-      <c r="K10" s="276"/>
-      <c r="L10" s="276"/>
-      <c r="M10" s="276"/>
-      <c r="N10" s="276"/>
-      <c r="O10" s="276"/>
-      <c r="P10" s="277"/>
-      <c r="Q10" s="275"/>
-      <c r="R10" s="276"/>
-      <c r="S10" s="276"/>
-      <c r="T10" s="276"/>
-      <c r="U10" s="276"/>
-      <c r="V10" s="276"/>
-      <c r="W10" s="276"/>
-      <c r="X10" s="276"/>
-      <c r="Y10" s="276"/>
-      <c r="Z10" s="276"/>
-      <c r="AA10" s="276"/>
-      <c r="AB10" s="276"/>
-      <c r="AC10" s="276"/>
-      <c r="AD10" s="276"/>
-      <c r="AE10" s="277"/>
-      <c r="AF10" s="272"/>
-      <c r="AG10" s="273"/>
-      <c r="AH10" s="273"/>
-      <c r="AI10" s="274"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="249"/>
+      <c r="L10" s="249"/>
+      <c r="M10" s="249"/>
+      <c r="N10" s="249"/>
+      <c r="O10" s="249"/>
+      <c r="P10" s="250"/>
+      <c r="Q10" s="248"/>
+      <c r="R10" s="249"/>
+      <c r="S10" s="249"/>
+      <c r="T10" s="249"/>
+      <c r="U10" s="249"/>
+      <c r="V10" s="249"/>
+      <c r="W10" s="249"/>
+      <c r="X10" s="249"/>
+      <c r="Y10" s="249"/>
+      <c r="Z10" s="249"/>
+      <c r="AA10" s="249"/>
+      <c r="AB10" s="249"/>
+      <c r="AC10" s="249"/>
+      <c r="AD10" s="249"/>
+      <c r="AE10" s="250"/>
+      <c r="AF10" s="269"/>
+      <c r="AG10" s="270"/>
+      <c r="AH10" s="270"/>
+      <c r="AI10" s="271"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="63"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="268"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="270"/>
-      <c r="G11" s="266"/>
-      <c r="H11" s="271"/>
-      <c r="I11" s="267"/>
-      <c r="J11" s="275"/>
-      <c r="K11" s="276"/>
-      <c r="L11" s="276"/>
-      <c r="M11" s="276"/>
-      <c r="N11" s="276"/>
-      <c r="O11" s="276"/>
-      <c r="P11" s="277"/>
-      <c r="Q11" s="275"/>
-      <c r="R11" s="276"/>
-      <c r="S11" s="276"/>
-      <c r="T11" s="276"/>
-      <c r="U11" s="276"/>
-      <c r="V11" s="276"/>
-      <c r="W11" s="276"/>
-      <c r="X11" s="276"/>
-      <c r="Y11" s="276"/>
-      <c r="Z11" s="276"/>
-      <c r="AA11" s="276"/>
-      <c r="AB11" s="276"/>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="276"/>
-      <c r="AE11" s="277"/>
-      <c r="AF11" s="272"/>
-      <c r="AG11" s="273"/>
-      <c r="AH11" s="273"/>
-      <c r="AI11" s="274"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="247"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="248"/>
+      <c r="K11" s="249"/>
+      <c r="L11" s="249"/>
+      <c r="M11" s="249"/>
+      <c r="N11" s="249"/>
+      <c r="O11" s="249"/>
+      <c r="P11" s="250"/>
+      <c r="Q11" s="248"/>
+      <c r="R11" s="249"/>
+      <c r="S11" s="249"/>
+      <c r="T11" s="249"/>
+      <c r="U11" s="249"/>
+      <c r="V11" s="249"/>
+      <c r="W11" s="249"/>
+      <c r="X11" s="249"/>
+      <c r="Y11" s="249"/>
+      <c r="Z11" s="249"/>
+      <c r="AA11" s="249"/>
+      <c r="AB11" s="249"/>
+      <c r="AC11" s="249"/>
+      <c r="AD11" s="249"/>
+      <c r="AE11" s="250"/>
+      <c r="AF11" s="269"/>
+      <c r="AG11" s="270"/>
+      <c r="AH11" s="270"/>
+      <c r="AI11" s="271"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="63"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="267"/>
-      <c r="D12" s="268"/>
-      <c r="E12" s="269"/>
-      <c r="F12" s="270"/>
-      <c r="G12" s="266"/>
-      <c r="H12" s="271"/>
-      <c r="I12" s="267"/>
-      <c r="J12" s="275"/>
-      <c r="K12" s="276"/>
-      <c r="L12" s="276"/>
-      <c r="M12" s="276"/>
-      <c r="N12" s="276"/>
-      <c r="O12" s="276"/>
-      <c r="P12" s="277"/>
-      <c r="Q12" s="275"/>
-      <c r="R12" s="276"/>
-      <c r="S12" s="276"/>
-      <c r="T12" s="276"/>
-      <c r="U12" s="276"/>
-      <c r="V12" s="276"/>
-      <c r="W12" s="276"/>
-      <c r="X12" s="276"/>
-      <c r="Y12" s="276"/>
-      <c r="Z12" s="276"/>
-      <c r="AA12" s="276"/>
-      <c r="AB12" s="276"/>
-      <c r="AC12" s="276"/>
-      <c r="AD12" s="276"/>
-      <c r="AE12" s="277"/>
-      <c r="AF12" s="272"/>
-      <c r="AG12" s="273"/>
-      <c r="AH12" s="273"/>
-      <c r="AI12" s="274"/>
+      <c r="B12" s="242"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="249"/>
+      <c r="L12" s="249"/>
+      <c r="M12" s="249"/>
+      <c r="N12" s="249"/>
+      <c r="O12" s="249"/>
+      <c r="P12" s="250"/>
+      <c r="Q12" s="248"/>
+      <c r="R12" s="249"/>
+      <c r="S12" s="249"/>
+      <c r="T12" s="249"/>
+      <c r="U12" s="249"/>
+      <c r="V12" s="249"/>
+      <c r="W12" s="249"/>
+      <c r="X12" s="249"/>
+      <c r="Y12" s="249"/>
+      <c r="Z12" s="249"/>
+      <c r="AA12" s="249"/>
+      <c r="AB12" s="249"/>
+      <c r="AC12" s="249"/>
+      <c r="AD12" s="249"/>
+      <c r="AE12" s="250"/>
+      <c r="AF12" s="269"/>
+      <c r="AG12" s="270"/>
+      <c r="AH12" s="270"/>
+      <c r="AI12" s="271"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="63"/>
-      <c r="B13" s="266"/>
-      <c r="C13" s="267"/>
-      <c r="D13" s="268"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="271"/>
-      <c r="I13" s="267"/>
-      <c r="J13" s="275"/>
-      <c r="K13" s="276"/>
-      <c r="L13" s="276"/>
-      <c r="M13" s="276"/>
-      <c r="N13" s="276"/>
-      <c r="O13" s="276"/>
-      <c r="P13" s="277"/>
-      <c r="Q13" s="275"/>
-      <c r="R13" s="276"/>
-      <c r="S13" s="276"/>
-      <c r="T13" s="276"/>
-      <c r="U13" s="276"/>
-      <c r="V13" s="276"/>
-      <c r="W13" s="276"/>
-      <c r="X13" s="276"/>
-      <c r="Y13" s="276"/>
-      <c r="Z13" s="276"/>
-      <c r="AA13" s="276"/>
-      <c r="AB13" s="276"/>
-      <c r="AC13" s="276"/>
-      <c r="AD13" s="276"/>
-      <c r="AE13" s="277"/>
-      <c r="AF13" s="272"/>
-      <c r="AG13" s="273"/>
-      <c r="AH13" s="273"/>
-      <c r="AI13" s="274"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="244"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="249"/>
+      <c r="M13" s="249"/>
+      <c r="N13" s="249"/>
+      <c r="O13" s="249"/>
+      <c r="P13" s="250"/>
+      <c r="Q13" s="248"/>
+      <c r="R13" s="249"/>
+      <c r="S13" s="249"/>
+      <c r="T13" s="249"/>
+      <c r="U13" s="249"/>
+      <c r="V13" s="249"/>
+      <c r="W13" s="249"/>
+      <c r="X13" s="249"/>
+      <c r="Y13" s="249"/>
+      <c r="Z13" s="249"/>
+      <c r="AA13" s="249"/>
+      <c r="AB13" s="249"/>
+      <c r="AC13" s="249"/>
+      <c r="AD13" s="249"/>
+      <c r="AE13" s="250"/>
+      <c r="AF13" s="269"/>
+      <c r="AG13" s="270"/>
+      <c r="AH13" s="270"/>
+      <c r="AI13" s="271"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="63"/>
-      <c r="B14" s="266"/>
-      <c r="C14" s="267"/>
-      <c r="D14" s="268"/>
-      <c r="E14" s="269"/>
-      <c r="F14" s="270"/>
-      <c r="G14" s="266"/>
-      <c r="H14" s="271"/>
-      <c r="I14" s="267"/>
-      <c r="J14" s="272"/>
-      <c r="K14" s="273"/>
-      <c r="L14" s="273"/>
-      <c r="M14" s="273"/>
-      <c r="N14" s="273"/>
-      <c r="O14" s="273"/>
-      <c r="P14" s="274"/>
-      <c r="Q14" s="275"/>
-      <c r="R14" s="276"/>
-      <c r="S14" s="276"/>
-      <c r="T14" s="276"/>
-      <c r="U14" s="276"/>
-      <c r="V14" s="276"/>
-      <c r="W14" s="276"/>
-      <c r="X14" s="276"/>
-      <c r="Y14" s="276"/>
-      <c r="Z14" s="276"/>
-      <c r="AA14" s="276"/>
-      <c r="AB14" s="276"/>
-      <c r="AC14" s="276"/>
-      <c r="AD14" s="276"/>
-      <c r="AE14" s="277"/>
-      <c r="AF14" s="272"/>
-      <c r="AG14" s="273"/>
-      <c r="AH14" s="273"/>
-      <c r="AI14" s="274"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="245"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="247"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="269"/>
+      <c r="K14" s="270"/>
+      <c r="L14" s="270"/>
+      <c r="M14" s="270"/>
+      <c r="N14" s="270"/>
+      <c r="O14" s="270"/>
+      <c r="P14" s="271"/>
+      <c r="Q14" s="248"/>
+      <c r="R14" s="249"/>
+      <c r="S14" s="249"/>
+      <c r="T14" s="249"/>
+      <c r="U14" s="249"/>
+      <c r="V14" s="249"/>
+      <c r="W14" s="249"/>
+      <c r="X14" s="249"/>
+      <c r="Y14" s="249"/>
+      <c r="Z14" s="249"/>
+      <c r="AA14" s="249"/>
+      <c r="AB14" s="249"/>
+      <c r="AC14" s="249"/>
+      <c r="AD14" s="249"/>
+      <c r="AE14" s="250"/>
+      <c r="AF14" s="269"/>
+      <c r="AG14" s="270"/>
+      <c r="AH14" s="270"/>
+      <c r="AI14" s="271"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="63"/>
-      <c r="B15" s="266"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="268"/>
-      <c r="E15" s="269"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="271"/>
-      <c r="I15" s="267"/>
-      <c r="J15" s="272"/>
-      <c r="K15" s="273"/>
-      <c r="L15" s="273"/>
-      <c r="M15" s="273"/>
-      <c r="N15" s="273"/>
-      <c r="O15" s="273"/>
-      <c r="P15" s="274"/>
-      <c r="Q15" s="275"/>
-      <c r="R15" s="276"/>
-      <c r="S15" s="276"/>
-      <c r="T15" s="276"/>
-      <c r="U15" s="276"/>
-      <c r="V15" s="276"/>
-      <c r="W15" s="276"/>
-      <c r="X15" s="276"/>
-      <c r="Y15" s="276"/>
-      <c r="Z15" s="276"/>
-      <c r="AA15" s="276"/>
-      <c r="AB15" s="276"/>
-      <c r="AC15" s="276"/>
-      <c r="AD15" s="276"/>
-      <c r="AE15" s="277"/>
-      <c r="AF15" s="272"/>
-      <c r="AG15" s="273"/>
-      <c r="AH15" s="273"/>
-      <c r="AI15" s="274"/>
+      <c r="B15" s="242"/>
+      <c r="C15" s="243"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="243"/>
+      <c r="J15" s="269"/>
+      <c r="K15" s="270"/>
+      <c r="L15" s="270"/>
+      <c r="M15" s="270"/>
+      <c r="N15" s="270"/>
+      <c r="O15" s="270"/>
+      <c r="P15" s="271"/>
+      <c r="Q15" s="248"/>
+      <c r="R15" s="249"/>
+      <c r="S15" s="249"/>
+      <c r="T15" s="249"/>
+      <c r="U15" s="249"/>
+      <c r="V15" s="249"/>
+      <c r="W15" s="249"/>
+      <c r="X15" s="249"/>
+      <c r="Y15" s="249"/>
+      <c r="Z15" s="249"/>
+      <c r="AA15" s="249"/>
+      <c r="AB15" s="249"/>
+      <c r="AC15" s="249"/>
+      <c r="AD15" s="249"/>
+      <c r="AE15" s="250"/>
+      <c r="AF15" s="269"/>
+      <c r="AG15" s="270"/>
+      <c r="AH15" s="270"/>
+      <c r="AI15" s="271"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="63"/>
-      <c r="B16" s="266"/>
-      <c r="C16" s="267"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="270"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="271"/>
-      <c r="I16" s="267"/>
-      <c r="J16" s="272"/>
-      <c r="K16" s="273"/>
-      <c r="L16" s="273"/>
-      <c r="M16" s="273"/>
-      <c r="N16" s="273"/>
-      <c r="O16" s="273"/>
-      <c r="P16" s="274"/>
-      <c r="Q16" s="275"/>
-      <c r="R16" s="276"/>
-      <c r="S16" s="276"/>
-      <c r="T16" s="276"/>
-      <c r="U16" s="276"/>
-      <c r="V16" s="276"/>
-      <c r="W16" s="276"/>
-      <c r="X16" s="276"/>
-      <c r="Y16" s="276"/>
-      <c r="Z16" s="276"/>
-      <c r="AA16" s="276"/>
-      <c r="AB16" s="276"/>
-      <c r="AC16" s="276"/>
-      <c r="AD16" s="276"/>
-      <c r="AE16" s="277"/>
-      <c r="AF16" s="272"/>
-      <c r="AG16" s="273"/>
-      <c r="AH16" s="273"/>
-      <c r="AI16" s="274"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="243"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="245"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="269"/>
+      <c r="K16" s="270"/>
+      <c r="L16" s="270"/>
+      <c r="M16" s="270"/>
+      <c r="N16" s="270"/>
+      <c r="O16" s="270"/>
+      <c r="P16" s="271"/>
+      <c r="Q16" s="248"/>
+      <c r="R16" s="249"/>
+      <c r="S16" s="249"/>
+      <c r="T16" s="249"/>
+      <c r="U16" s="249"/>
+      <c r="V16" s="249"/>
+      <c r="W16" s="249"/>
+      <c r="X16" s="249"/>
+      <c r="Y16" s="249"/>
+      <c r="Z16" s="249"/>
+      <c r="AA16" s="249"/>
+      <c r="AB16" s="249"/>
+      <c r="AC16" s="249"/>
+      <c r="AD16" s="249"/>
+      <c r="AE16" s="250"/>
+      <c r="AF16" s="269"/>
+      <c r="AG16" s="270"/>
+      <c r="AH16" s="270"/>
+      <c r="AI16" s="271"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="63"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="267"/>
-      <c r="D17" s="268"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="270"/>
-      <c r="G17" s="266"/>
-      <c r="H17" s="271"/>
-      <c r="I17" s="267"/>
-      <c r="J17" s="272"/>
-      <c r="K17" s="273"/>
-      <c r="L17" s="273"/>
-      <c r="M17" s="273"/>
-      <c r="N17" s="273"/>
-      <c r="O17" s="273"/>
-      <c r="P17" s="274"/>
-      <c r="Q17" s="275"/>
-      <c r="R17" s="276"/>
-      <c r="S17" s="276"/>
-      <c r="T17" s="276"/>
-      <c r="U17" s="276"/>
-      <c r="V17" s="276"/>
-      <c r="W17" s="276"/>
-      <c r="X17" s="276"/>
-      <c r="Y17" s="276"/>
-      <c r="Z17" s="276"/>
-      <c r="AA17" s="276"/>
-      <c r="AB17" s="276"/>
-      <c r="AC17" s="276"/>
-      <c r="AD17" s="276"/>
-      <c r="AE17" s="277"/>
-      <c r="AF17" s="272"/>
-      <c r="AG17" s="273"/>
-      <c r="AH17" s="273"/>
-      <c r="AI17" s="274"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="245"/>
+      <c r="F17" s="246"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="269"/>
+      <c r="K17" s="270"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="270"/>
+      <c r="N17" s="270"/>
+      <c r="O17" s="270"/>
+      <c r="P17" s="271"/>
+      <c r="Q17" s="248"/>
+      <c r="R17" s="249"/>
+      <c r="S17" s="249"/>
+      <c r="T17" s="249"/>
+      <c r="U17" s="249"/>
+      <c r="V17" s="249"/>
+      <c r="W17" s="249"/>
+      <c r="X17" s="249"/>
+      <c r="Y17" s="249"/>
+      <c r="Z17" s="249"/>
+      <c r="AA17" s="249"/>
+      <c r="AB17" s="249"/>
+      <c r="AC17" s="249"/>
+      <c r="AD17" s="249"/>
+      <c r="AE17" s="250"/>
+      <c r="AF17" s="269"/>
+      <c r="AG17" s="270"/>
+      <c r="AH17" s="270"/>
+      <c r="AI17" s="271"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="63"/>
-      <c r="B18" s="266"/>
-      <c r="C18" s="267"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="271"/>
-      <c r="I18" s="267"/>
-      <c r="J18" s="272"/>
-      <c r="K18" s="273"/>
-      <c r="L18" s="273"/>
-      <c r="M18" s="273"/>
-      <c r="N18" s="273"/>
-      <c r="O18" s="273"/>
-      <c r="P18" s="274"/>
-      <c r="Q18" s="275"/>
-      <c r="R18" s="276"/>
-      <c r="S18" s="276"/>
-      <c r="T18" s="276"/>
-      <c r="U18" s="276"/>
-      <c r="V18" s="276"/>
-      <c r="W18" s="276"/>
-      <c r="X18" s="276"/>
-      <c r="Y18" s="276"/>
-      <c r="Z18" s="276"/>
-      <c r="AA18" s="276"/>
-      <c r="AB18" s="276"/>
-      <c r="AC18" s="276"/>
-      <c r="AD18" s="276"/>
-      <c r="AE18" s="277"/>
-      <c r="AF18" s="272"/>
-      <c r="AG18" s="273"/>
-      <c r="AH18" s="273"/>
-      <c r="AI18" s="274"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="244"/>
+      <c r="E18" s="245"/>
+      <c r="F18" s="246"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="269"/>
+      <c r="K18" s="270"/>
+      <c r="L18" s="270"/>
+      <c r="M18" s="270"/>
+      <c r="N18" s="270"/>
+      <c r="O18" s="270"/>
+      <c r="P18" s="271"/>
+      <c r="Q18" s="248"/>
+      <c r="R18" s="249"/>
+      <c r="S18" s="249"/>
+      <c r="T18" s="249"/>
+      <c r="U18" s="249"/>
+      <c r="V18" s="249"/>
+      <c r="W18" s="249"/>
+      <c r="X18" s="249"/>
+      <c r="Y18" s="249"/>
+      <c r="Z18" s="249"/>
+      <c r="AA18" s="249"/>
+      <c r="AB18" s="249"/>
+      <c r="AC18" s="249"/>
+      <c r="AD18" s="249"/>
+      <c r="AE18" s="250"/>
+      <c r="AF18" s="269"/>
+      <c r="AG18" s="270"/>
+      <c r="AH18" s="270"/>
+      <c r="AI18" s="271"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="63"/>
-      <c r="B19" s="266"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="268"/>
-      <c r="E19" s="269"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="266"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="267"/>
-      <c r="J19" s="272"/>
-      <c r="K19" s="273"/>
-      <c r="L19" s="273"/>
-      <c r="M19" s="273"/>
-      <c r="N19" s="273"/>
-      <c r="O19" s="273"/>
-      <c r="P19" s="274"/>
-      <c r="Q19" s="275"/>
-      <c r="R19" s="276"/>
-      <c r="S19" s="276"/>
-      <c r="T19" s="276"/>
-      <c r="U19" s="276"/>
-      <c r="V19" s="276"/>
-      <c r="W19" s="276"/>
-      <c r="X19" s="276"/>
-      <c r="Y19" s="276"/>
-      <c r="Z19" s="276"/>
-      <c r="AA19" s="276"/>
-      <c r="AB19" s="276"/>
-      <c r="AC19" s="276"/>
-      <c r="AD19" s="276"/>
-      <c r="AE19" s="277"/>
-      <c r="AF19" s="272"/>
-      <c r="AG19" s="273"/>
-      <c r="AH19" s="273"/>
-      <c r="AI19" s="274"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="244"/>
+      <c r="E19" s="245"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="243"/>
+      <c r="J19" s="269"/>
+      <c r="K19" s="270"/>
+      <c r="L19" s="270"/>
+      <c r="M19" s="270"/>
+      <c r="N19" s="270"/>
+      <c r="O19" s="270"/>
+      <c r="P19" s="271"/>
+      <c r="Q19" s="248"/>
+      <c r="R19" s="249"/>
+      <c r="S19" s="249"/>
+      <c r="T19" s="249"/>
+      <c r="U19" s="249"/>
+      <c r="V19" s="249"/>
+      <c r="W19" s="249"/>
+      <c r="X19" s="249"/>
+      <c r="Y19" s="249"/>
+      <c r="Z19" s="249"/>
+      <c r="AA19" s="249"/>
+      <c r="AB19" s="249"/>
+      <c r="AC19" s="249"/>
+      <c r="AD19" s="249"/>
+      <c r="AE19" s="250"/>
+      <c r="AF19" s="269"/>
+      <c r="AG19" s="270"/>
+      <c r="AH19" s="270"/>
+      <c r="AI19" s="271"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="63"/>
-      <c r="B20" s="266"/>
-      <c r="C20" s="267"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="269"/>
-      <c r="F20" s="270"/>
-      <c r="G20" s="266"/>
-      <c r="H20" s="271"/>
-      <c r="I20" s="267"/>
-      <c r="J20" s="272"/>
-      <c r="K20" s="273"/>
-      <c r="L20" s="273"/>
-      <c r="M20" s="273"/>
-      <c r="N20" s="273"/>
-      <c r="O20" s="273"/>
-      <c r="P20" s="274"/>
-      <c r="Q20" s="275"/>
-      <c r="R20" s="276"/>
-      <c r="S20" s="276"/>
-      <c r="T20" s="276"/>
-      <c r="U20" s="276"/>
-      <c r="V20" s="276"/>
-      <c r="W20" s="276"/>
-      <c r="X20" s="276"/>
-      <c r="Y20" s="276"/>
-      <c r="Z20" s="276"/>
-      <c r="AA20" s="276"/>
-      <c r="AB20" s="276"/>
-      <c r="AC20" s="276"/>
-      <c r="AD20" s="276"/>
-      <c r="AE20" s="277"/>
-      <c r="AF20" s="272"/>
-      <c r="AG20" s="273"/>
-      <c r="AH20" s="273"/>
-      <c r="AI20" s="274"/>
+      <c r="B20" s="242"/>
+      <c r="C20" s="243"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="246"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="243"/>
+      <c r="J20" s="269"/>
+      <c r="K20" s="270"/>
+      <c r="L20" s="270"/>
+      <c r="M20" s="270"/>
+      <c r="N20" s="270"/>
+      <c r="O20" s="270"/>
+      <c r="P20" s="271"/>
+      <c r="Q20" s="248"/>
+      <c r="R20" s="249"/>
+      <c r="S20" s="249"/>
+      <c r="T20" s="249"/>
+      <c r="U20" s="249"/>
+      <c r="V20" s="249"/>
+      <c r="W20" s="249"/>
+      <c r="X20" s="249"/>
+      <c r="Y20" s="249"/>
+      <c r="Z20" s="249"/>
+      <c r="AA20" s="249"/>
+      <c r="AB20" s="249"/>
+      <c r="AC20" s="249"/>
+      <c r="AD20" s="249"/>
+      <c r="AE20" s="250"/>
+      <c r="AF20" s="269"/>
+      <c r="AG20" s="270"/>
+      <c r="AH20" s="270"/>
+      <c r="AI20" s="271"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="63"/>
-      <c r="B21" s="266"/>
-      <c r="C21" s="267"/>
-      <c r="D21" s="268"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="270"/>
-      <c r="G21" s="266"/>
-      <c r="H21" s="271"/>
-      <c r="I21" s="267"/>
-      <c r="J21" s="272"/>
-      <c r="K21" s="273"/>
-      <c r="L21" s="273"/>
-      <c r="M21" s="273"/>
-      <c r="N21" s="273"/>
-      <c r="O21" s="273"/>
-      <c r="P21" s="274"/>
-      <c r="Q21" s="275"/>
-      <c r="R21" s="276"/>
-      <c r="S21" s="276"/>
-      <c r="T21" s="276"/>
-      <c r="U21" s="276"/>
-      <c r="V21" s="276"/>
-      <c r="W21" s="276"/>
-      <c r="X21" s="276"/>
-      <c r="Y21" s="276"/>
-      <c r="Z21" s="276"/>
-      <c r="AA21" s="276"/>
-      <c r="AB21" s="276"/>
-      <c r="AC21" s="276"/>
-      <c r="AD21" s="276"/>
-      <c r="AE21" s="277"/>
-      <c r="AF21" s="272"/>
-      <c r="AG21" s="273"/>
-      <c r="AH21" s="273"/>
-      <c r="AI21" s="274"/>
+      <c r="B21" s="242"/>
+      <c r="C21" s="243"/>
+      <c r="D21" s="244"/>
+      <c r="E21" s="245"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="242"/>
+      <c r="H21" s="247"/>
+      <c r="I21" s="243"/>
+      <c r="J21" s="269"/>
+      <c r="K21" s="270"/>
+      <c r="L21" s="270"/>
+      <c r="M21" s="270"/>
+      <c r="N21" s="270"/>
+      <c r="O21" s="270"/>
+      <c r="P21" s="271"/>
+      <c r="Q21" s="248"/>
+      <c r="R21" s="249"/>
+      <c r="S21" s="249"/>
+      <c r="T21" s="249"/>
+      <c r="U21" s="249"/>
+      <c r="V21" s="249"/>
+      <c r="W21" s="249"/>
+      <c r="X21" s="249"/>
+      <c r="Y21" s="249"/>
+      <c r="Z21" s="249"/>
+      <c r="AA21" s="249"/>
+      <c r="AB21" s="249"/>
+      <c r="AC21" s="249"/>
+      <c r="AD21" s="249"/>
+      <c r="AE21" s="250"/>
+      <c r="AF21" s="269"/>
+      <c r="AG21" s="270"/>
+      <c r="AH21" s="270"/>
+      <c r="AI21" s="271"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="63"/>
-      <c r="B22" s="266"/>
-      <c r="C22" s="267"/>
-      <c r="D22" s="268"/>
-      <c r="E22" s="269"/>
-      <c r="F22" s="270"/>
-      <c r="G22" s="266"/>
-      <c r="H22" s="271"/>
-      <c r="I22" s="267"/>
-      <c r="J22" s="272"/>
-      <c r="K22" s="273"/>
-      <c r="L22" s="273"/>
-      <c r="M22" s="273"/>
-      <c r="N22" s="273"/>
-      <c r="O22" s="273"/>
-      <c r="P22" s="274"/>
-      <c r="Q22" s="275"/>
-      <c r="R22" s="276"/>
-      <c r="S22" s="276"/>
-      <c r="T22" s="276"/>
-      <c r="U22" s="276"/>
-      <c r="V22" s="276"/>
-      <c r="W22" s="276"/>
-      <c r="X22" s="276"/>
-      <c r="Y22" s="276"/>
-      <c r="Z22" s="276"/>
-      <c r="AA22" s="276"/>
-      <c r="AB22" s="276"/>
-      <c r="AC22" s="276"/>
-      <c r="AD22" s="276"/>
-      <c r="AE22" s="277"/>
-      <c r="AF22" s="272"/>
-      <c r="AG22" s="273"/>
-      <c r="AH22" s="273"/>
-      <c r="AI22" s="274"/>
+      <c r="B22" s="242"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="245"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="242"/>
+      <c r="H22" s="247"/>
+      <c r="I22" s="243"/>
+      <c r="J22" s="269"/>
+      <c r="K22" s="270"/>
+      <c r="L22" s="270"/>
+      <c r="M22" s="270"/>
+      <c r="N22" s="270"/>
+      <c r="O22" s="270"/>
+      <c r="P22" s="271"/>
+      <c r="Q22" s="248"/>
+      <c r="R22" s="249"/>
+      <c r="S22" s="249"/>
+      <c r="T22" s="249"/>
+      <c r="U22" s="249"/>
+      <c r="V22" s="249"/>
+      <c r="W22" s="249"/>
+      <c r="X22" s="249"/>
+      <c r="Y22" s="249"/>
+      <c r="Z22" s="249"/>
+      <c r="AA22" s="249"/>
+      <c r="AB22" s="249"/>
+      <c r="AC22" s="249"/>
+      <c r="AD22" s="249"/>
+      <c r="AE22" s="250"/>
+      <c r="AF22" s="269"/>
+      <c r="AG22" s="270"/>
+      <c r="AH22" s="270"/>
+      <c r="AI22" s="271"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="63"/>
-      <c r="B23" s="266"/>
-      <c r="C23" s="267"/>
-      <c r="D23" s="268"/>
-      <c r="E23" s="269"/>
-      <c r="F23" s="270"/>
-      <c r="G23" s="266"/>
-      <c r="H23" s="271"/>
-      <c r="I23" s="267"/>
-      <c r="J23" s="272"/>
-      <c r="K23" s="273"/>
-      <c r="L23" s="273"/>
-      <c r="M23" s="273"/>
-      <c r="N23" s="273"/>
-      <c r="O23" s="273"/>
-      <c r="P23" s="274"/>
-      <c r="Q23" s="275"/>
-      <c r="R23" s="276"/>
-      <c r="S23" s="276"/>
-      <c r="T23" s="276"/>
-      <c r="U23" s="276"/>
-      <c r="V23" s="276"/>
-      <c r="W23" s="276"/>
-      <c r="X23" s="276"/>
-      <c r="Y23" s="276"/>
-      <c r="Z23" s="276"/>
-      <c r="AA23" s="276"/>
-      <c r="AB23" s="276"/>
-      <c r="AC23" s="276"/>
-      <c r="AD23" s="276"/>
-      <c r="AE23" s="277"/>
-      <c r="AF23" s="272"/>
-      <c r="AG23" s="273"/>
-      <c r="AH23" s="273"/>
-      <c r="AI23" s="274"/>
+      <c r="B23" s="242"/>
+      <c r="C23" s="243"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="243"/>
+      <c r="J23" s="269"/>
+      <c r="K23" s="270"/>
+      <c r="L23" s="270"/>
+      <c r="M23" s="270"/>
+      <c r="N23" s="270"/>
+      <c r="O23" s="270"/>
+      <c r="P23" s="271"/>
+      <c r="Q23" s="248"/>
+      <c r="R23" s="249"/>
+      <c r="S23" s="249"/>
+      <c r="T23" s="249"/>
+      <c r="U23" s="249"/>
+      <c r="V23" s="249"/>
+      <c r="W23" s="249"/>
+      <c r="X23" s="249"/>
+      <c r="Y23" s="249"/>
+      <c r="Z23" s="249"/>
+      <c r="AA23" s="249"/>
+      <c r="AB23" s="249"/>
+      <c r="AC23" s="249"/>
+      <c r="AD23" s="249"/>
+      <c r="AE23" s="250"/>
+      <c r="AF23" s="269"/>
+      <c r="AG23" s="270"/>
+      <c r="AH23" s="270"/>
+      <c r="AI23" s="271"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="63"/>
-      <c r="B24" s="266"/>
-      <c r="C24" s="267"/>
-      <c r="D24" s="268"/>
-      <c r="E24" s="269"/>
-      <c r="F24" s="270"/>
-      <c r="G24" s="266"/>
-      <c r="H24" s="271"/>
-      <c r="I24" s="267"/>
-      <c r="J24" s="272"/>
-      <c r="K24" s="273"/>
-      <c r="L24" s="273"/>
-      <c r="M24" s="273"/>
-      <c r="N24" s="273"/>
-      <c r="O24" s="273"/>
-      <c r="P24" s="274"/>
-      <c r="Q24" s="275"/>
-      <c r="R24" s="276"/>
-      <c r="S24" s="276"/>
-      <c r="T24" s="276"/>
-      <c r="U24" s="276"/>
-      <c r="V24" s="276"/>
-      <c r="W24" s="276"/>
-      <c r="X24" s="276"/>
-      <c r="Y24" s="276"/>
-      <c r="Z24" s="276"/>
-      <c r="AA24" s="276"/>
-      <c r="AB24" s="276"/>
-      <c r="AC24" s="276"/>
-      <c r="AD24" s="276"/>
-      <c r="AE24" s="277"/>
-      <c r="AF24" s="272"/>
-      <c r="AG24" s="273"/>
-      <c r="AH24" s="273"/>
-      <c r="AI24" s="274"/>
+      <c r="B24" s="242"/>
+      <c r="C24" s="243"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="242"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="243"/>
+      <c r="J24" s="269"/>
+      <c r="K24" s="270"/>
+      <c r="L24" s="270"/>
+      <c r="M24" s="270"/>
+      <c r="N24" s="270"/>
+      <c r="O24" s="270"/>
+      <c r="P24" s="271"/>
+      <c r="Q24" s="248"/>
+      <c r="R24" s="249"/>
+      <c r="S24" s="249"/>
+      <c r="T24" s="249"/>
+      <c r="U24" s="249"/>
+      <c r="V24" s="249"/>
+      <c r="W24" s="249"/>
+      <c r="X24" s="249"/>
+      <c r="Y24" s="249"/>
+      <c r="Z24" s="249"/>
+      <c r="AA24" s="249"/>
+      <c r="AB24" s="249"/>
+      <c r="AC24" s="249"/>
+      <c r="AD24" s="249"/>
+      <c r="AE24" s="250"/>
+      <c r="AF24" s="269"/>
+      <c r="AG24" s="270"/>
+      <c r="AH24" s="270"/>
+      <c r="AI24" s="271"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="63"/>
-      <c r="B25" s="266"/>
-      <c r="C25" s="267"/>
-      <c r="D25" s="268"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="270"/>
-      <c r="G25" s="266"/>
-      <c r="H25" s="271"/>
-      <c r="I25" s="267"/>
-      <c r="J25" s="272"/>
-      <c r="K25" s="273"/>
-      <c r="L25" s="273"/>
-      <c r="M25" s="273"/>
-      <c r="N25" s="273"/>
-      <c r="O25" s="273"/>
-      <c r="P25" s="274"/>
-      <c r="Q25" s="275"/>
-      <c r="R25" s="276"/>
-      <c r="S25" s="276"/>
-      <c r="T25" s="276"/>
-      <c r="U25" s="276"/>
-      <c r="V25" s="276"/>
-      <c r="W25" s="276"/>
-      <c r="X25" s="276"/>
-      <c r="Y25" s="276"/>
-      <c r="Z25" s="276"/>
-      <c r="AA25" s="276"/>
-      <c r="AB25" s="276"/>
-      <c r="AC25" s="276"/>
-      <c r="AD25" s="276"/>
-      <c r="AE25" s="277"/>
-      <c r="AF25" s="272"/>
-      <c r="AG25" s="273"/>
-      <c r="AH25" s="273"/>
-      <c r="AI25" s="274"/>
+      <c r="B25" s="242"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="245"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="247"/>
+      <c r="I25" s="243"/>
+      <c r="J25" s="269"/>
+      <c r="K25" s="270"/>
+      <c r="L25" s="270"/>
+      <c r="M25" s="270"/>
+      <c r="N25" s="270"/>
+      <c r="O25" s="270"/>
+      <c r="P25" s="271"/>
+      <c r="Q25" s="248"/>
+      <c r="R25" s="249"/>
+      <c r="S25" s="249"/>
+      <c r="T25" s="249"/>
+      <c r="U25" s="249"/>
+      <c r="V25" s="249"/>
+      <c r="W25" s="249"/>
+      <c r="X25" s="249"/>
+      <c r="Y25" s="249"/>
+      <c r="Z25" s="249"/>
+      <c r="AA25" s="249"/>
+      <c r="AB25" s="249"/>
+      <c r="AC25" s="249"/>
+      <c r="AD25" s="249"/>
+      <c r="AE25" s="250"/>
+      <c r="AF25" s="269"/>
+      <c r="AG25" s="270"/>
+      <c r="AH25" s="270"/>
+      <c r="AI25" s="271"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="63"/>
-      <c r="B26" s="266"/>
-      <c r="C26" s="267"/>
-      <c r="D26" s="268"/>
-      <c r="E26" s="269"/>
-      <c r="F26" s="270"/>
-      <c r="G26" s="266"/>
-      <c r="H26" s="271"/>
-      <c r="I26" s="267"/>
-      <c r="J26" s="272"/>
-      <c r="K26" s="273"/>
-      <c r="L26" s="273"/>
-      <c r="M26" s="273"/>
-      <c r="N26" s="273"/>
-      <c r="O26" s="273"/>
-      <c r="P26" s="274"/>
-      <c r="Q26" s="275"/>
-      <c r="R26" s="276"/>
-      <c r="S26" s="276"/>
-      <c r="T26" s="276"/>
-      <c r="U26" s="276"/>
-      <c r="V26" s="276"/>
-      <c r="W26" s="276"/>
-      <c r="X26" s="276"/>
-      <c r="Y26" s="276"/>
-      <c r="Z26" s="276"/>
-      <c r="AA26" s="276"/>
-      <c r="AB26" s="276"/>
-      <c r="AC26" s="276"/>
-      <c r="AD26" s="276"/>
-      <c r="AE26" s="277"/>
-      <c r="AF26" s="272"/>
-      <c r="AG26" s="273"/>
-      <c r="AH26" s="273"/>
-      <c r="AI26" s="274"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="242"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="243"/>
+      <c r="J26" s="269"/>
+      <c r="K26" s="270"/>
+      <c r="L26" s="270"/>
+      <c r="M26" s="270"/>
+      <c r="N26" s="270"/>
+      <c r="O26" s="270"/>
+      <c r="P26" s="271"/>
+      <c r="Q26" s="248"/>
+      <c r="R26" s="249"/>
+      <c r="S26" s="249"/>
+      <c r="T26" s="249"/>
+      <c r="U26" s="249"/>
+      <c r="V26" s="249"/>
+      <c r="W26" s="249"/>
+      <c r="X26" s="249"/>
+      <c r="Y26" s="249"/>
+      <c r="Z26" s="249"/>
+      <c r="AA26" s="249"/>
+      <c r="AB26" s="249"/>
+      <c r="AC26" s="249"/>
+      <c r="AD26" s="249"/>
+      <c r="AE26" s="250"/>
+      <c r="AF26" s="269"/>
+      <c r="AG26" s="270"/>
+      <c r="AH26" s="270"/>
+      <c r="AI26" s="271"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="63"/>
-      <c r="B27" s="266"/>
-      <c r="C27" s="267"/>
-      <c r="D27" s="268"/>
-      <c r="E27" s="269"/>
-      <c r="F27" s="270"/>
-      <c r="G27" s="266"/>
-      <c r="H27" s="271"/>
-      <c r="I27" s="267"/>
-      <c r="J27" s="272"/>
-      <c r="K27" s="273"/>
-      <c r="L27" s="273"/>
-      <c r="M27" s="273"/>
-      <c r="N27" s="273"/>
-      <c r="O27" s="273"/>
-      <c r="P27" s="274"/>
-      <c r="Q27" s="275"/>
-      <c r="R27" s="276"/>
-      <c r="S27" s="276"/>
-      <c r="T27" s="276"/>
-      <c r="U27" s="276"/>
-      <c r="V27" s="276"/>
-      <c r="W27" s="276"/>
-      <c r="X27" s="276"/>
-      <c r="Y27" s="276"/>
-      <c r="Z27" s="276"/>
-      <c r="AA27" s="276"/>
-      <c r="AB27" s="276"/>
-      <c r="AC27" s="276"/>
-      <c r="AD27" s="276"/>
-      <c r="AE27" s="277"/>
-      <c r="AF27" s="272"/>
-      <c r="AG27" s="273"/>
-      <c r="AH27" s="273"/>
-      <c r="AI27" s="274"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="244"/>
+      <c r="E27" s="245"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="243"/>
+      <c r="J27" s="269"/>
+      <c r="K27" s="270"/>
+      <c r="L27" s="270"/>
+      <c r="M27" s="270"/>
+      <c r="N27" s="270"/>
+      <c r="O27" s="270"/>
+      <c r="P27" s="271"/>
+      <c r="Q27" s="248"/>
+      <c r="R27" s="249"/>
+      <c r="S27" s="249"/>
+      <c r="T27" s="249"/>
+      <c r="U27" s="249"/>
+      <c r="V27" s="249"/>
+      <c r="W27" s="249"/>
+      <c r="X27" s="249"/>
+      <c r="Y27" s="249"/>
+      <c r="Z27" s="249"/>
+      <c r="AA27" s="249"/>
+      <c r="AB27" s="249"/>
+      <c r="AC27" s="249"/>
+      <c r="AD27" s="249"/>
+      <c r="AE27" s="250"/>
+      <c r="AF27" s="269"/>
+      <c r="AG27" s="270"/>
+      <c r="AH27" s="270"/>
+      <c r="AI27" s="271"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="63"/>
-      <c r="B28" s="266"/>
-      <c r="C28" s="267"/>
-      <c r="D28" s="268"/>
-      <c r="E28" s="269"/>
-      <c r="F28" s="270"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="271"/>
-      <c r="I28" s="267"/>
-      <c r="J28" s="272"/>
-      <c r="K28" s="273"/>
-      <c r="L28" s="273"/>
-      <c r="M28" s="273"/>
-      <c r="N28" s="273"/>
-      <c r="O28" s="273"/>
-      <c r="P28" s="274"/>
-      <c r="Q28" s="275"/>
-      <c r="R28" s="276"/>
-      <c r="S28" s="276"/>
-      <c r="T28" s="276"/>
-      <c r="U28" s="276"/>
-      <c r="V28" s="276"/>
-      <c r="W28" s="276"/>
-      <c r="X28" s="276"/>
-      <c r="Y28" s="276"/>
-      <c r="Z28" s="276"/>
-      <c r="AA28" s="276"/>
-      <c r="AB28" s="276"/>
-      <c r="AC28" s="276"/>
-      <c r="AD28" s="276"/>
-      <c r="AE28" s="277"/>
-      <c r="AF28" s="272"/>
-      <c r="AG28" s="273"/>
-      <c r="AH28" s="273"/>
-      <c r="AI28" s="274"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="244"/>
+      <c r="E28" s="245"/>
+      <c r="F28" s="246"/>
+      <c r="G28" s="242"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="243"/>
+      <c r="J28" s="269"/>
+      <c r="K28" s="270"/>
+      <c r="L28" s="270"/>
+      <c r="M28" s="270"/>
+      <c r="N28" s="270"/>
+      <c r="O28" s="270"/>
+      <c r="P28" s="271"/>
+      <c r="Q28" s="248"/>
+      <c r="R28" s="249"/>
+      <c r="S28" s="249"/>
+      <c r="T28" s="249"/>
+      <c r="U28" s="249"/>
+      <c r="V28" s="249"/>
+      <c r="W28" s="249"/>
+      <c r="X28" s="249"/>
+      <c r="Y28" s="249"/>
+      <c r="Z28" s="249"/>
+      <c r="AA28" s="249"/>
+      <c r="AB28" s="249"/>
+      <c r="AC28" s="249"/>
+      <c r="AD28" s="249"/>
+      <c r="AE28" s="250"/>
+      <c r="AF28" s="269"/>
+      <c r="AG28" s="270"/>
+      <c r="AH28" s="270"/>
+      <c r="AI28" s="271"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="63"/>
-      <c r="B29" s="266"/>
-      <c r="C29" s="267"/>
-      <c r="D29" s="268"/>
-      <c r="E29" s="269"/>
-      <c r="F29" s="270"/>
-      <c r="G29" s="266"/>
-      <c r="H29" s="271"/>
-      <c r="I29" s="267"/>
-      <c r="J29" s="272"/>
-      <c r="K29" s="273"/>
-      <c r="L29" s="273"/>
-      <c r="M29" s="273"/>
-      <c r="N29" s="273"/>
-      <c r="O29" s="273"/>
-      <c r="P29" s="274"/>
-      <c r="Q29" s="275"/>
-      <c r="R29" s="276"/>
-      <c r="S29" s="276"/>
-      <c r="T29" s="276"/>
-      <c r="U29" s="276"/>
-      <c r="V29" s="276"/>
-      <c r="W29" s="276"/>
-      <c r="X29" s="276"/>
-      <c r="Y29" s="276"/>
-      <c r="Z29" s="276"/>
-      <c r="AA29" s="276"/>
-      <c r="AB29" s="276"/>
-      <c r="AC29" s="276"/>
-      <c r="AD29" s="276"/>
-      <c r="AE29" s="277"/>
-      <c r="AF29" s="272"/>
-      <c r="AG29" s="273"/>
-      <c r="AH29" s="273"/>
-      <c r="AI29" s="274"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="243"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="246"/>
+      <c r="G29" s="242"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="243"/>
+      <c r="J29" s="269"/>
+      <c r="K29" s="270"/>
+      <c r="L29" s="270"/>
+      <c r="M29" s="270"/>
+      <c r="N29" s="270"/>
+      <c r="O29" s="270"/>
+      <c r="P29" s="271"/>
+      <c r="Q29" s="248"/>
+      <c r="R29" s="249"/>
+      <c r="S29" s="249"/>
+      <c r="T29" s="249"/>
+      <c r="U29" s="249"/>
+      <c r="V29" s="249"/>
+      <c r="W29" s="249"/>
+      <c r="X29" s="249"/>
+      <c r="Y29" s="249"/>
+      <c r="Z29" s="249"/>
+      <c r="AA29" s="249"/>
+      <c r="AB29" s="249"/>
+      <c r="AC29" s="249"/>
+      <c r="AD29" s="249"/>
+      <c r="AE29" s="250"/>
+      <c r="AF29" s="269"/>
+      <c r="AG29" s="270"/>
+      <c r="AH29" s="270"/>
+      <c r="AI29" s="271"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="63"/>
-      <c r="B30" s="266"/>
-      <c r="C30" s="267"/>
-      <c r="D30" s="268"/>
-      <c r="E30" s="269"/>
-      <c r="F30" s="270"/>
-      <c r="G30" s="266"/>
-      <c r="H30" s="271"/>
-      <c r="I30" s="267"/>
-      <c r="J30" s="272"/>
-      <c r="K30" s="273"/>
-      <c r="L30" s="273"/>
-      <c r="M30" s="273"/>
-      <c r="N30" s="273"/>
-      <c r="O30" s="273"/>
-      <c r="P30" s="274"/>
-      <c r="Q30" s="275"/>
-      <c r="R30" s="276"/>
-      <c r="S30" s="276"/>
-      <c r="T30" s="276"/>
-      <c r="U30" s="276"/>
-      <c r="V30" s="276"/>
-      <c r="W30" s="276"/>
-      <c r="X30" s="276"/>
-      <c r="Y30" s="276"/>
-      <c r="Z30" s="276"/>
-      <c r="AA30" s="276"/>
-      <c r="AB30" s="276"/>
-      <c r="AC30" s="276"/>
-      <c r="AD30" s="276"/>
-      <c r="AE30" s="277"/>
-      <c r="AF30" s="272"/>
-      <c r="AG30" s="273"/>
-      <c r="AH30" s="273"/>
-      <c r="AI30" s="274"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="243"/>
+      <c r="D30" s="244"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="247"/>
+      <c r="I30" s="243"/>
+      <c r="J30" s="269"/>
+      <c r="K30" s="270"/>
+      <c r="L30" s="270"/>
+      <c r="M30" s="270"/>
+      <c r="N30" s="270"/>
+      <c r="O30" s="270"/>
+      <c r="P30" s="271"/>
+      <c r="Q30" s="248"/>
+      <c r="R30" s="249"/>
+      <c r="S30" s="249"/>
+      <c r="T30" s="249"/>
+      <c r="U30" s="249"/>
+      <c r="V30" s="249"/>
+      <c r="W30" s="249"/>
+      <c r="X30" s="249"/>
+      <c r="Y30" s="249"/>
+      <c r="Z30" s="249"/>
+      <c r="AA30" s="249"/>
+      <c r="AB30" s="249"/>
+      <c r="AC30" s="249"/>
+      <c r="AD30" s="249"/>
+      <c r="AE30" s="250"/>
+      <c r="AF30" s="269"/>
+      <c r="AG30" s="270"/>
+      <c r="AH30" s="270"/>
+      <c r="AI30" s="271"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="63"/>
-      <c r="B31" s="266"/>
-      <c r="C31" s="267"/>
-      <c r="D31" s="268"/>
-      <c r="E31" s="269"/>
-      <c r="F31" s="270"/>
-      <c r="G31" s="266"/>
-      <c r="H31" s="271"/>
-      <c r="I31" s="267"/>
-      <c r="J31" s="272"/>
-      <c r="K31" s="273"/>
-      <c r="L31" s="273"/>
-      <c r="M31" s="273"/>
-      <c r="N31" s="273"/>
-      <c r="O31" s="273"/>
-      <c r="P31" s="274"/>
-      <c r="Q31" s="275"/>
-      <c r="R31" s="276"/>
-      <c r="S31" s="276"/>
-      <c r="T31" s="276"/>
-      <c r="U31" s="276"/>
-      <c r="V31" s="276"/>
-      <c r="W31" s="276"/>
-      <c r="X31" s="276"/>
-      <c r="Y31" s="276"/>
-      <c r="Z31" s="276"/>
-      <c r="AA31" s="276"/>
-      <c r="AB31" s="276"/>
-      <c r="AC31" s="276"/>
-      <c r="AD31" s="276"/>
-      <c r="AE31" s="277"/>
-      <c r="AF31" s="272"/>
-      <c r="AG31" s="273"/>
-      <c r="AH31" s="273"/>
-      <c r="AI31" s="274"/>
+      <c r="B31" s="242"/>
+      <c r="C31" s="243"/>
+      <c r="D31" s="244"/>
+      <c r="E31" s="245"/>
+      <c r="F31" s="246"/>
+      <c r="G31" s="242"/>
+      <c r="H31" s="247"/>
+      <c r="I31" s="243"/>
+      <c r="J31" s="269"/>
+      <c r="K31" s="270"/>
+      <c r="L31" s="270"/>
+      <c r="M31" s="270"/>
+      <c r="N31" s="270"/>
+      <c r="O31" s="270"/>
+      <c r="P31" s="271"/>
+      <c r="Q31" s="248"/>
+      <c r="R31" s="249"/>
+      <c r="S31" s="249"/>
+      <c r="T31" s="249"/>
+      <c r="U31" s="249"/>
+      <c r="V31" s="249"/>
+      <c r="W31" s="249"/>
+      <c r="X31" s="249"/>
+      <c r="Y31" s="249"/>
+      <c r="Z31" s="249"/>
+      <c r="AA31" s="249"/>
+      <c r="AB31" s="249"/>
+      <c r="AC31" s="249"/>
+      <c r="AD31" s="249"/>
+      <c r="AE31" s="250"/>
+      <c r="AF31" s="269"/>
+      <c r="AG31" s="270"/>
+      <c r="AH31" s="270"/>
+      <c r="AI31" s="271"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="63"/>
-      <c r="B32" s="266"/>
-      <c r="C32" s="267"/>
-      <c r="D32" s="268"/>
-      <c r="E32" s="269"/>
-      <c r="F32" s="270"/>
-      <c r="G32" s="266"/>
-      <c r="H32" s="271"/>
-      <c r="I32" s="267"/>
-      <c r="J32" s="272"/>
-      <c r="K32" s="273"/>
-      <c r="L32" s="273"/>
-      <c r="M32" s="273"/>
-      <c r="N32" s="273"/>
-      <c r="O32" s="273"/>
-      <c r="P32" s="274"/>
-      <c r="Q32" s="275"/>
-      <c r="R32" s="276"/>
-      <c r="S32" s="276"/>
-      <c r="T32" s="276"/>
-      <c r="U32" s="276"/>
-      <c r="V32" s="276"/>
-      <c r="W32" s="276"/>
-      <c r="X32" s="276"/>
-      <c r="Y32" s="276"/>
-      <c r="Z32" s="276"/>
-      <c r="AA32" s="276"/>
-      <c r="AB32" s="276"/>
-      <c r="AC32" s="276"/>
-      <c r="AD32" s="276"/>
-      <c r="AE32" s="277"/>
-      <c r="AF32" s="272"/>
-      <c r="AG32" s="273"/>
-      <c r="AH32" s="273"/>
-      <c r="AI32" s="274"/>
+      <c r="B32" s="242"/>
+      <c r="C32" s="243"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="245"/>
+      <c r="F32" s="246"/>
+      <c r="G32" s="242"/>
+      <c r="H32" s="247"/>
+      <c r="I32" s="243"/>
+      <c r="J32" s="269"/>
+      <c r="K32" s="270"/>
+      <c r="L32" s="270"/>
+      <c r="M32" s="270"/>
+      <c r="N32" s="270"/>
+      <c r="O32" s="270"/>
+      <c r="P32" s="271"/>
+      <c r="Q32" s="248"/>
+      <c r="R32" s="249"/>
+      <c r="S32" s="249"/>
+      <c r="T32" s="249"/>
+      <c r="U32" s="249"/>
+      <c r="V32" s="249"/>
+      <c r="W32" s="249"/>
+      <c r="X32" s="249"/>
+      <c r="Y32" s="249"/>
+      <c r="Z32" s="249"/>
+      <c r="AA32" s="249"/>
+      <c r="AB32" s="249"/>
+      <c r="AC32" s="249"/>
+      <c r="AD32" s="249"/>
+      <c r="AE32" s="250"/>
+      <c r="AF32" s="269"/>
+      <c r="AG32" s="270"/>
+      <c r="AH32" s="270"/>
+      <c r="AI32" s="271"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="63"/>
-      <c r="B33" s="266"/>
-      <c r="C33" s="267"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="266"/>
-      <c r="H33" s="271"/>
-      <c r="I33" s="267"/>
-      <c r="J33" s="272"/>
-      <c r="K33" s="273"/>
-      <c r="L33" s="273"/>
-      <c r="M33" s="273"/>
-      <c r="N33" s="273"/>
-      <c r="O33" s="273"/>
-      <c r="P33" s="274"/>
-      <c r="Q33" s="275"/>
-      <c r="R33" s="276"/>
-      <c r="S33" s="276"/>
-      <c r="T33" s="276"/>
-      <c r="U33" s="276"/>
-      <c r="V33" s="276"/>
-      <c r="W33" s="276"/>
-      <c r="X33" s="276"/>
-      <c r="Y33" s="276"/>
-      <c r="Z33" s="276"/>
-      <c r="AA33" s="276"/>
-      <c r="AB33" s="276"/>
-      <c r="AC33" s="276"/>
-      <c r="AD33" s="276"/>
-      <c r="AE33" s="277"/>
-      <c r="AF33" s="272"/>
-      <c r="AG33" s="273"/>
-      <c r="AH33" s="273"/>
-      <c r="AI33" s="274"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="245"/>
+      <c r="F33" s="246"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="247"/>
+      <c r="I33" s="243"/>
+      <c r="J33" s="269"/>
+      <c r="K33" s="270"/>
+      <c r="L33" s="270"/>
+      <c r="M33" s="270"/>
+      <c r="N33" s="270"/>
+      <c r="O33" s="270"/>
+      <c r="P33" s="271"/>
+      <c r="Q33" s="248"/>
+      <c r="R33" s="249"/>
+      <c r="S33" s="249"/>
+      <c r="T33" s="249"/>
+      <c r="U33" s="249"/>
+      <c r="V33" s="249"/>
+      <c r="W33" s="249"/>
+      <c r="X33" s="249"/>
+      <c r="Y33" s="249"/>
+      <c r="Z33" s="249"/>
+      <c r="AA33" s="249"/>
+      <c r="AB33" s="249"/>
+      <c r="AC33" s="249"/>
+      <c r="AD33" s="249"/>
+      <c r="AE33" s="250"/>
+      <c r="AF33" s="269"/>
+      <c r="AG33" s="270"/>
+      <c r="AH33" s="270"/>
+      <c r="AI33" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -11185,6 +11032,161 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -11342,158 +11344,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="110" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="278" t="str">
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="306" t="s">
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="309" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="315" t="str">
+      <c r="P1" s="310"/>
+      <c r="Q1" s="310"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="318" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(XML)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="316"/>
-      <c r="U1" s="316"/>
-      <c r="V1" s="316"/>
-      <c r="W1" s="316"/>
-      <c r="X1" s="316"/>
-      <c r="Y1" s="316"/>
-      <c r="Z1" s="317"/>
-      <c r="AA1" s="242" t="s">
+      <c r="T1" s="319"/>
+      <c r="U1" s="319"/>
+      <c r="V1" s="319"/>
+      <c r="W1" s="319"/>
+      <c r="X1" s="319"/>
+      <c r="Y1" s="319"/>
+      <c r="Z1" s="320"/>
+      <c r="AA1" s="284" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="324">
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="277"/>
+      <c r="AG1" s="306">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="326"/>
+      <c r="AH1" s="307"/>
+      <c r="AI1" s="308"/>
     </row>
     <row r="2" spans="1:35" s="110" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="284" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="278" t="str">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="318"/>
-      <c r="T2" s="319"/>
-      <c r="U2" s="319"/>
-      <c r="V2" s="319"/>
-      <c r="W2" s="319"/>
-      <c r="X2" s="319"/>
-      <c r="Y2" s="319"/>
-      <c r="Z2" s="320"/>
-      <c r="AA2" s="242" t="s">
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="313"/>
+      <c r="R2" s="314"/>
+      <c r="S2" s="321"/>
+      <c r="T2" s="322"/>
+      <c r="U2" s="322"/>
+      <c r="V2" s="322"/>
+      <c r="W2" s="322"/>
+      <c r="X2" s="322"/>
+      <c r="Y2" s="322"/>
+      <c r="Z2" s="323"/>
+      <c r="AA2" s="284" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="281" t="str">
+      <c r="AB2" s="285"/>
+      <c r="AC2" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="283"/>
-      <c r="AG2" s="324" t="str">
+      <c r="AD2" s="276"/>
+      <c r="AE2" s="276"/>
+      <c r="AF2" s="277"/>
+      <c r="AG2" s="306" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="325"/>
-      <c r="AI2" s="326"/>
+      <c r="AH2" s="307"/>
+      <c r="AI2" s="308"/>
     </row>
     <row r="3" spans="1:35" s="110" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="284" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="278" t="str">
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="280"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="321"/>
-      <c r="T3" s="322"/>
-      <c r="U3" s="322"/>
-      <c r="V3" s="322"/>
-      <c r="W3" s="322"/>
-      <c r="X3" s="322"/>
-      <c r="Y3" s="322"/>
-      <c r="Z3" s="323"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="281" t="str">
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="315"/>
+      <c r="P3" s="316"/>
+      <c r="Q3" s="316"/>
+      <c r="R3" s="317"/>
+      <c r="S3" s="324"/>
+      <c r="T3" s="325"/>
+      <c r="U3" s="325"/>
+      <c r="V3" s="325"/>
+      <c r="W3" s="325"/>
+      <c r="X3" s="325"/>
+      <c r="Y3" s="325"/>
+      <c r="Z3" s="326"/>
+      <c r="AA3" s="284"/>
+      <c r="AB3" s="285"/>
+      <c r="AC3" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="324" t="str">
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="306" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="325"/>
-      <c r="AI3" s="326"/>
+      <c r="AH3" s="307"/>
+      <c r="AI3" s="308"/>
     </row>
     <row r="4" spans="1:35" s="69" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="67"/>
@@ -12950,13 +12952,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12967,6 +12962,13 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -12994,158 +12996,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="278" t="str">
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="306" t="s">
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="309" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="315" t="str">
+      <c r="P1" s="310"/>
+      <c r="Q1" s="310"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="318" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(XML)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="316"/>
-      <c r="U1" s="316"/>
-      <c r="V1" s="316"/>
-      <c r="W1" s="316"/>
-      <c r="X1" s="316"/>
-      <c r="Y1" s="316"/>
-      <c r="Z1" s="317"/>
-      <c r="AA1" s="242" t="s">
+      <c r="T1" s="319"/>
+      <c r="U1" s="319"/>
+      <c r="V1" s="319"/>
+      <c r="W1" s="319"/>
+      <c r="X1" s="319"/>
+      <c r="Y1" s="319"/>
+      <c r="Z1" s="320"/>
+      <c r="AA1" s="284" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="324">
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="277"/>
+      <c r="AG1" s="306">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="326"/>
+      <c r="AH1" s="307"/>
+      <c r="AI1" s="308"/>
     </row>
     <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="284" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="278" t="str">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="318"/>
-      <c r="T2" s="319"/>
-      <c r="U2" s="319"/>
-      <c r="V2" s="319"/>
-      <c r="W2" s="319"/>
-      <c r="X2" s="319"/>
-      <c r="Y2" s="319"/>
-      <c r="Z2" s="320"/>
-      <c r="AA2" s="242" t="s">
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="313"/>
+      <c r="R2" s="314"/>
+      <c r="S2" s="321"/>
+      <c r="T2" s="322"/>
+      <c r="U2" s="322"/>
+      <c r="V2" s="322"/>
+      <c r="W2" s="322"/>
+      <c r="X2" s="322"/>
+      <c r="Y2" s="322"/>
+      <c r="Z2" s="323"/>
+      <c r="AA2" s="284" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="281" t="str">
+      <c r="AB2" s="285"/>
+      <c r="AC2" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="283"/>
-      <c r="AG2" s="324" t="str">
+      <c r="AD2" s="276"/>
+      <c r="AE2" s="276"/>
+      <c r="AF2" s="277"/>
+      <c r="AG2" s="306" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="325"/>
-      <c r="AI2" s="326"/>
+      <c r="AH2" s="307"/>
+      <c r="AI2" s="308"/>
     </row>
     <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="284" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="278" t="str">
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="280"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="321"/>
-      <c r="T3" s="322"/>
-      <c r="U3" s="322"/>
-      <c r="V3" s="322"/>
-      <c r="W3" s="322"/>
-      <c r="X3" s="322"/>
-      <c r="Y3" s="322"/>
-      <c r="Z3" s="323"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="281" t="str">
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="315"/>
+      <c r="P3" s="316"/>
+      <c r="Q3" s="316"/>
+      <c r="R3" s="317"/>
+      <c r="S3" s="324"/>
+      <c r="T3" s="325"/>
+      <c r="U3" s="325"/>
+      <c r="V3" s="325"/>
+      <c r="W3" s="325"/>
+      <c r="X3" s="325"/>
+      <c r="Y3" s="325"/>
+      <c r="Z3" s="326"/>
+      <c r="AA3" s="284"/>
+      <c r="AB3" s="285"/>
+      <c r="AC3" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="324" t="str">
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="306" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="325"/>
-      <c r="AI3" s="326"/>
+      <c r="AH3" s="307"/>
+      <c r="AI3" s="308"/>
     </row>
     <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="39"/>
@@ -13236,9 +13238,9 @@
       <c r="A7" s="327" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="336"/>
-      <c r="C7" s="336"/>
-      <c r="D7" s="337"/>
+      <c r="B7" s="334"/>
+      <c r="C7" s="334"/>
+      <c r="D7" s="335"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -13251,82 +13253,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="338" t="s">
+      <c r="Q7" s="351" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="339"/>
-      <c r="S7" s="339"/>
-      <c r="T7" s="340"/>
-      <c r="U7" s="330" t="s">
+      <c r="R7" s="352"/>
+      <c r="S7" s="352"/>
+      <c r="T7" s="353"/>
+      <c r="U7" s="360" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="331"/>
-      <c r="W7" s="331"/>
-      <c r="X7" s="331"/>
-      <c r="Y7" s="331"/>
-      <c r="Z7" s="331"/>
-      <c r="AA7" s="331"/>
-      <c r="AB7" s="331"/>
-      <c r="AC7" s="331"/>
-      <c r="AD7" s="331"/>
-      <c r="AE7" s="331"/>
-      <c r="AF7" s="331"/>
-      <c r="AG7" s="331"/>
-      <c r="AH7" s="331"/>
-      <c r="AI7" s="332"/>
+      <c r="V7" s="361"/>
+      <c r="W7" s="361"/>
+      <c r="X7" s="361"/>
+      <c r="Y7" s="361"/>
+      <c r="Z7" s="361"/>
+      <c r="AA7" s="361"/>
+      <c r="AB7" s="361"/>
+      <c r="AC7" s="361"/>
+      <c r="AD7" s="361"/>
+      <c r="AE7" s="361"/>
+      <c r="AF7" s="361"/>
+      <c r="AG7" s="361"/>
+      <c r="AH7" s="361"/>
+      <c r="AI7" s="362"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="327" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="336"/>
-      <c r="C8" s="336"/>
-      <c r="D8" s="337"/>
-      <c r="E8" s="333" t="s">
+      <c r="B8" s="334"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="335"/>
+      <c r="E8" s="357" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="334"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="334"/>
-      <c r="I8" s="334"/>
-      <c r="J8" s="334"/>
-      <c r="K8" s="334"/>
-      <c r="L8" s="334"/>
-      <c r="M8" s="334"/>
-      <c r="N8" s="334"/>
-      <c r="O8" s="334"/>
-      <c r="P8" s="334"/>
+      <c r="F8" s="358"/>
+      <c r="G8" s="358"/>
+      <c r="H8" s="358"/>
+      <c r="I8" s="358"/>
+      <c r="J8" s="358"/>
+      <c r="K8" s="358"/>
+      <c r="L8" s="358"/>
+      <c r="M8" s="358"/>
+      <c r="N8" s="358"/>
+      <c r="O8" s="358"/>
+      <c r="P8" s="358"/>
       <c r="Q8" s="327" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="336"/>
-      <c r="S8" s="336"/>
-      <c r="T8" s="337"/>
-      <c r="U8" s="333" t="s">
+      <c r="R8" s="334"/>
+      <c r="S8" s="334"/>
+      <c r="T8" s="335"/>
+      <c r="U8" s="357" t="s">
         <v>87</v>
       </c>
-      <c r="V8" s="334"/>
-      <c r="W8" s="334"/>
-      <c r="X8" s="334"/>
-      <c r="Y8" s="334"/>
-      <c r="Z8" s="334"/>
-      <c r="AA8" s="334"/>
-      <c r="AB8" s="334"/>
-      <c r="AC8" s="334"/>
-      <c r="AD8" s="334"/>
-      <c r="AE8" s="334"/>
-      <c r="AF8" s="334"/>
-      <c r="AG8" s="334"/>
-      <c r="AH8" s="334"/>
-      <c r="AI8" s="335"/>
+      <c r="V8" s="358"/>
+      <c r="W8" s="358"/>
+      <c r="X8" s="358"/>
+      <c r="Y8" s="358"/>
+      <c r="Z8" s="358"/>
+      <c r="AA8" s="358"/>
+      <c r="AB8" s="358"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="358"/>
+      <c r="AE8" s="358"/>
+      <c r="AF8" s="358"/>
+      <c r="AG8" s="358"/>
+      <c r="AH8" s="358"/>
+      <c r="AI8" s="359"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="327" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="336"/>
-      <c r="C9" s="336"/>
-      <c r="D9" s="337"/>
+      <c r="B9" s="334"/>
+      <c r="C9" s="334"/>
+      <c r="D9" s="335"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -13662,12 +13664,12 @@
       <c r="AI17" s="37"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="341" t="s">
+      <c r="A18" s="345" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="342"/>
-      <c r="C18" s="342"/>
-      <c r="D18" s="343"/>
+      <c r="B18" s="346"/>
+      <c r="C18" s="346"/>
+      <c r="D18" s="347"/>
       <c r="E18" s="209"/>
       <c r="F18" s="210"/>
       <c r="G18" s="197"/>
@@ -13680,12 +13682,12 @@
       <c r="N18" s="197"/>
       <c r="O18" s="195"/>
       <c r="P18" s="197"/>
-      <c r="Q18" s="341" t="s">
+      <c r="Q18" s="345" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="342"/>
-      <c r="S18" s="342"/>
-      <c r="T18" s="343"/>
+      <c r="R18" s="346"/>
+      <c r="S18" s="346"/>
+      <c r="T18" s="347"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -13788,50 +13790,50 @@
       <c r="A21" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="336"/>
-      <c r="C21" s="336"/>
-      <c r="D21" s="337"/>
-      <c r="E21" s="333"/>
-      <c r="F21" s="334"/>
-      <c r="G21" s="334"/>
-      <c r="H21" s="334"/>
-      <c r="I21" s="334"/>
-      <c r="J21" s="334"/>
-      <c r="K21" s="334"/>
-      <c r="L21" s="334"/>
-      <c r="M21" s="334"/>
-      <c r="N21" s="334"/>
-      <c r="O21" s="334"/>
-      <c r="P21" s="335"/>
+      <c r="B21" s="334"/>
+      <c r="C21" s="334"/>
+      <c r="D21" s="335"/>
+      <c r="E21" s="357"/>
+      <c r="F21" s="358"/>
+      <c r="G21" s="358"/>
+      <c r="H21" s="358"/>
+      <c r="I21" s="358"/>
+      <c r="J21" s="358"/>
+      <c r="K21" s="358"/>
+      <c r="L21" s="358"/>
+      <c r="M21" s="358"/>
+      <c r="N21" s="358"/>
+      <c r="O21" s="358"/>
+      <c r="P21" s="359"/>
       <c r="Q21" s="327" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="336"/>
-      <c r="S21" s="336"/>
-      <c r="T21" s="337"/>
-      <c r="U21" s="344"/>
-      <c r="V21" s="345"/>
-      <c r="W21" s="345"/>
-      <c r="X21" s="345"/>
-      <c r="Y21" s="345"/>
-      <c r="Z21" s="345"/>
-      <c r="AA21" s="345"/>
-      <c r="AB21" s="345"/>
-      <c r="AC21" s="345"/>
-      <c r="AD21" s="345"/>
-      <c r="AE21" s="345"/>
-      <c r="AF21" s="345"/>
-      <c r="AG21" s="345"/>
-      <c r="AH21" s="345"/>
-      <c r="AI21" s="346"/>
+      <c r="R21" s="334"/>
+      <c r="S21" s="334"/>
+      <c r="T21" s="335"/>
+      <c r="U21" s="348"/>
+      <c r="V21" s="349"/>
+      <c r="W21" s="349"/>
+      <c r="X21" s="349"/>
+      <c r="Y21" s="349"/>
+      <c r="Z21" s="349"/>
+      <c r="AA21" s="349"/>
+      <c r="AB21" s="349"/>
+      <c r="AC21" s="349"/>
+      <c r="AD21" s="349"/>
+      <c r="AE21" s="349"/>
+      <c r="AF21" s="349"/>
+      <c r="AG21" s="349"/>
+      <c r="AH21" s="349"/>
+      <c r="AI21" s="350"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="338" t="s">
+      <c r="A22" s="351" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="339"/>
-      <c r="C22" s="339"/>
-      <c r="D22" s="340"/>
+      <c r="B22" s="352"/>
+      <c r="C22" s="352"/>
+      <c r="D22" s="353"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="160"/>
@@ -13844,12 +13846,12 @@
       <c r="N22" s="160"/>
       <c r="O22" s="18"/>
       <c r="P22" s="160"/>
-      <c r="Q22" s="338" t="s">
+      <c r="Q22" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="339"/>
-      <c r="S22" s="339"/>
-      <c r="T22" s="340"/>
+      <c r="R22" s="352"/>
+      <c r="S22" s="352"/>
+      <c r="T22" s="353"/>
       <c r="U22" s="205"/>
       <c r="V22" s="206"/>
       <c r="W22" s="211"/>
@@ -13912,36 +13914,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="360" t="s">
+      <c r="A24" s="342" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="361"/>
-      <c r="C24" s="361"/>
-      <c r="D24" s="362"/>
-      <c r="E24" s="333" t="s">
+      <c r="B24" s="343"/>
+      <c r="C24" s="343"/>
+      <c r="D24" s="344"/>
+      <c r="E24" s="357" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="334"/>
-      <c r="G24" s="334"/>
-      <c r="H24" s="334"/>
-      <c r="I24" s="334"/>
-      <c r="J24" s="334"/>
-      <c r="K24" s="334"/>
-      <c r="L24" s="334"/>
-      <c r="M24" s="334"/>
-      <c r="N24" s="334"/>
-      <c r="O24" s="334"/>
-      <c r="P24" s="335"/>
-      <c r="Q24" s="347" t="s">
+      <c r="F24" s="358"/>
+      <c r="G24" s="358"/>
+      <c r="H24" s="358"/>
+      <c r="I24" s="358"/>
+      <c r="J24" s="358"/>
+      <c r="K24" s="358"/>
+      <c r="L24" s="358"/>
+      <c r="M24" s="358"/>
+      <c r="N24" s="358"/>
+      <c r="O24" s="358"/>
+      <c r="P24" s="359"/>
+      <c r="Q24" s="354" t="s">
         <v>47</v>
       </c>
-      <c r="R24" s="348"/>
-      <c r="S24" s="348"/>
-      <c r="T24" s="349"/>
-      <c r="U24" s="352"/>
-      <c r="V24" s="353"/>
-      <c r="W24" s="353"/>
-      <c r="X24" s="353"/>
+      <c r="R24" s="355"/>
+      <c r="S24" s="355"/>
+      <c r="T24" s="356"/>
+      <c r="U24" s="332"/>
+      <c r="V24" s="333"/>
+      <c r="W24" s="333"/>
+      <c r="X24" s="333"/>
       <c r="Y24" s="216" t="s">
         <v>48</v>
       </c>
@@ -13957,26 +13959,26 @@
       <c r="AI24" s="218"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="356" t="s">
+      <c r="A25" s="338" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="357"/>
-      <c r="C25" s="357"/>
-      <c r="D25" s="358"/>
+      <c r="B25" s="339"/>
+      <c r="C25" s="339"/>
+      <c r="D25" s="340"/>
       <c r="E25" s="23"/>
       <c r="F25" s="36"/>
       <c r="G25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="350"/>
-      <c r="I25" s="351"/>
-      <c r="J25" s="351"/>
-      <c r="K25" s="351"/>
-      <c r="L25" s="351"/>
-      <c r="M25" s="351"/>
-      <c r="N25" s="351"/>
-      <c r="O25" s="351"/>
-      <c r="P25" s="351"/>
+      <c r="H25" s="330"/>
+      <c r="I25" s="331"/>
+      <c r="J25" s="331"/>
+      <c r="K25" s="331"/>
+      <c r="L25" s="331"/>
+      <c r="M25" s="331"/>
+      <c r="N25" s="331"/>
+      <c r="O25" s="331"/>
+      <c r="P25" s="331"/>
       <c r="Q25" s="160" t="s">
         <v>7</v>
       </c>
@@ -13985,15 +13987,15 @@
       <c r="T25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="359"/>
-      <c r="V25" s="359"/>
-      <c r="W25" s="359"/>
-      <c r="X25" s="359"/>
-      <c r="Y25" s="359"/>
-      <c r="Z25" s="359"/>
-      <c r="AA25" s="359"/>
-      <c r="AB25" s="359"/>
-      <c r="AC25" s="359"/>
+      <c r="U25" s="341"/>
+      <c r="V25" s="341"/>
+      <c r="W25" s="341"/>
+      <c r="X25" s="341"/>
+      <c r="Y25" s="341"/>
+      <c r="Z25" s="341"/>
+      <c r="AA25" s="341"/>
+      <c r="AB25" s="341"/>
+      <c r="AC25" s="341"/>
       <c r="AD25" s="160" t="s">
         <v>7</v>
       </c>
@@ -14013,15 +14015,15 @@
       <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="355"/>
-      <c r="I26" s="355"/>
-      <c r="J26" s="355"/>
-      <c r="K26" s="355"/>
-      <c r="L26" s="355"/>
-      <c r="M26" s="355"/>
-      <c r="N26" s="355"/>
-      <c r="O26" s="355"/>
-      <c r="P26" s="355"/>
+      <c r="H26" s="337"/>
+      <c r="I26" s="337"/>
+      <c r="J26" s="337"/>
+      <c r="K26" s="337"/>
+      <c r="L26" s="337"/>
+      <c r="M26" s="337"/>
+      <c r="N26" s="337"/>
+      <c r="O26" s="337"/>
+      <c r="P26" s="337"/>
       <c r="Q26" s="159" t="s">
         <v>7</v>
       </c>
@@ -14030,15 +14032,15 @@
       <c r="T26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="355"/>
-      <c r="V26" s="355"/>
-      <c r="W26" s="355"/>
-      <c r="X26" s="355"/>
-      <c r="Y26" s="355"/>
-      <c r="Z26" s="355"/>
-      <c r="AA26" s="355"/>
-      <c r="AB26" s="355"/>
-      <c r="AC26" s="355"/>
+      <c r="U26" s="337"/>
+      <c r="V26" s="337"/>
+      <c r="W26" s="337"/>
+      <c r="X26" s="337"/>
+      <c r="Y26" s="337"/>
+      <c r="Z26" s="337"/>
+      <c r="AA26" s="337"/>
+      <c r="AB26" s="337"/>
+      <c r="AC26" s="337"/>
       <c r="AD26" s="159" t="s">
         <v>7</v>
       </c>
@@ -14058,15 +14060,15 @@
       <c r="G27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="354"/>
-      <c r="I27" s="354"/>
-      <c r="J27" s="354"/>
-      <c r="K27" s="354"/>
-      <c r="L27" s="354"/>
-      <c r="M27" s="354"/>
-      <c r="N27" s="354"/>
-      <c r="O27" s="354"/>
-      <c r="P27" s="354"/>
+      <c r="H27" s="336"/>
+      <c r="I27" s="336"/>
+      <c r="J27" s="336"/>
+      <c r="K27" s="336"/>
+      <c r="L27" s="336"/>
+      <c r="M27" s="336"/>
+      <c r="N27" s="336"/>
+      <c r="O27" s="336"/>
+      <c r="P27" s="336"/>
       <c r="Q27" s="158" t="s">
         <v>7</v>
       </c>
@@ -14075,20 +14077,20 @@
       <c r="T27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="354"/>
-      <c r="V27" s="354"/>
-      <c r="W27" s="354"/>
-      <c r="X27" s="354"/>
-      <c r="Y27" s="354"/>
-      <c r="Z27" s="354"/>
-      <c r="AA27" s="354"/>
-      <c r="AB27" s="354"/>
-      <c r="AC27" s="354"/>
-      <c r="AD27" s="354"/>
-      <c r="AE27" s="354"/>
-      <c r="AF27" s="354"/>
-      <c r="AG27" s="354"/>
-      <c r="AH27" s="354"/>
+      <c r="U27" s="336"/>
+      <c r="V27" s="336"/>
+      <c r="W27" s="336"/>
+      <c r="X27" s="336"/>
+      <c r="Y27" s="336"/>
+      <c r="Z27" s="336"/>
+      <c r="AA27" s="336"/>
+      <c r="AB27" s="336"/>
+      <c r="AC27" s="336"/>
+      <c r="AD27" s="336"/>
+      <c r="AE27" s="336"/>
+      <c r="AF27" s="336"/>
+      <c r="AG27" s="336"/>
+      <c r="AH27" s="336"/>
       <c r="AI27" s="37" t="s">
         <v>7</v>
       </c>
@@ -14245,36 +14247,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="H25:P25"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="H27:P27"/>
-    <mergeCell ref="U26:AC26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="U25:AC25"/>
-    <mergeCell ref="U27:AH27"/>
-    <mergeCell ref="H26:P26"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="U7:AI7"/>
     <mergeCell ref="U8:AI8"/>
@@ -14291,6 +14263,36 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="H25:P25"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="H27:P27"/>
+    <mergeCell ref="U26:AC26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="U25:AC25"/>
+    <mergeCell ref="U27:AH27"/>
+    <mergeCell ref="H26:P26"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14965,162 +14967,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="278" t="str">
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="306" t="s">
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="309" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="315" t="str">
+      <c r="P1" s="310"/>
+      <c r="Q1" s="310"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="318" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(XML)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="316"/>
-      <c r="U1" s="316"/>
-      <c r="V1" s="316"/>
-      <c r="W1" s="316"/>
-      <c r="X1" s="316"/>
-      <c r="Y1" s="316"/>
-      <c r="Z1" s="317"/>
-      <c r="AA1" s="242" t="s">
+      <c r="T1" s="319"/>
+      <c r="U1" s="319"/>
+      <c r="V1" s="319"/>
+      <c r="W1" s="319"/>
+      <c r="X1" s="319"/>
+      <c r="Y1" s="319"/>
+      <c r="Z1" s="320"/>
+      <c r="AA1" s="284" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="324">
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="277"/>
+      <c r="AG1" s="306">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="326"/>
+      <c r="AH1" s="307"/>
+      <c r="AI1" s="308"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="53"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="284" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="278" t="str">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="318"/>
-      <c r="T2" s="319"/>
-      <c r="U2" s="319"/>
-      <c r="V2" s="319"/>
-      <c r="W2" s="319"/>
-      <c r="X2" s="319"/>
-      <c r="Y2" s="319"/>
-      <c r="Z2" s="320"/>
-      <c r="AA2" s="242" t="s">
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="313"/>
+      <c r="R2" s="314"/>
+      <c r="S2" s="321"/>
+      <c r="T2" s="322"/>
+      <c r="U2" s="322"/>
+      <c r="V2" s="322"/>
+      <c r="W2" s="322"/>
+      <c r="X2" s="322"/>
+      <c r="Y2" s="322"/>
+      <c r="Z2" s="323"/>
+      <c r="AA2" s="284" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="281" t="str">
+      <c r="AB2" s="285"/>
+      <c r="AC2" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="283"/>
-      <c r="AG2" s="324" t="str">
+      <c r="AD2" s="276"/>
+      <c r="AE2" s="276"/>
+      <c r="AF2" s="277"/>
+      <c r="AG2" s="306" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="325"/>
-      <c r="AI2" s="326"/>
+      <c r="AH2" s="307"/>
+      <c r="AI2" s="308"/>
       <c r="AJ2" s="31"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="284" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="278" t="str">
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="280"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="321"/>
-      <c r="T3" s="322"/>
-      <c r="U3" s="322"/>
-      <c r="V3" s="322"/>
-      <c r="W3" s="322"/>
-      <c r="X3" s="322"/>
-      <c r="Y3" s="322"/>
-      <c r="Z3" s="323"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="281" t="str">
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="315"/>
+      <c r="P3" s="316"/>
+      <c r="Q3" s="316"/>
+      <c r="R3" s="317"/>
+      <c r="S3" s="324"/>
+      <c r="T3" s="325"/>
+      <c r="U3" s="325"/>
+      <c r="V3" s="325"/>
+      <c r="W3" s="325"/>
+      <c r="X3" s="325"/>
+      <c r="Y3" s="325"/>
+      <c r="Z3" s="326"/>
+      <c r="AA3" s="284"/>
+      <c r="AB3" s="285"/>
+      <c r="AC3" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="324" t="str">
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="306" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="325"/>
-      <c r="AI3" s="326"/>
+      <c r="AH3" s="307"/>
+      <c r="AI3" s="308"/>
       <c r="AJ3" s="31"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
@@ -15274,11 +15276,11 @@
       <c r="Z7" s="96"/>
       <c r="AA7" s="96"/>
       <c r="AB7" s="96"/>
-      <c r="AC7" s="364" t="s">
+      <c r="AC7" s="440" t="s">
         <v>50</v>
       </c>
-      <c r="AD7" s="365"/>
-      <c r="AE7" s="366"/>
+      <c r="AD7" s="441"/>
+      <c r="AE7" s="442"/>
       <c r="AF7" s="96"/>
       <c r="AG7" s="96"/>
       <c r="AH7" s="96"/>
@@ -15288,419 +15290,419 @@
       <c r="A8" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="363" t="s">
+      <c r="B8" s="419" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="276"/>
-      <c r="D8" s="276"/>
-      <c r="E8" s="276"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="363" t="s">
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="250"/>
+      <c r="G8" s="419" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="369"/>
-      <c r="I8" s="374"/>
-      <c r="J8" s="363" t="s">
+      <c r="H8" s="420"/>
+      <c r="I8" s="421"/>
+      <c r="J8" s="419" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="369"/>
-      <c r="L8" s="369"/>
-      <c r="M8" s="369"/>
-      <c r="N8" s="369"/>
-      <c r="O8" s="369"/>
-      <c r="P8" s="374"/>
-      <c r="Q8" s="367" t="s">
+      <c r="K8" s="420"/>
+      <c r="L8" s="420"/>
+      <c r="M8" s="420"/>
+      <c r="N8" s="420"/>
+      <c r="O8" s="420"/>
+      <c r="P8" s="421"/>
+      <c r="Q8" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="R8" s="368"/>
-      <c r="S8" s="367" t="s">
+      <c r="R8" s="427"/>
+      <c r="S8" s="425" t="s">
         <v>78</v>
       </c>
-      <c r="T8" s="375"/>
-      <c r="U8" s="368"/>
-      <c r="V8" s="363" t="s">
+      <c r="T8" s="426"/>
+      <c r="U8" s="427"/>
+      <c r="V8" s="419" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="369"/>
-      <c r="X8" s="369"/>
-      <c r="Y8" s="369"/>
-      <c r="Z8" s="369"/>
-      <c r="AA8" s="369"/>
-      <c r="AB8" s="370"/>
-      <c r="AC8" s="417" t="s">
+      <c r="W8" s="420"/>
+      <c r="X8" s="420"/>
+      <c r="Y8" s="420"/>
+      <c r="Z8" s="420"/>
+      <c r="AA8" s="420"/>
+      <c r="AB8" s="443"/>
+      <c r="AC8" s="408" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="418"/>
-      <c r="AE8" s="418"/>
-      <c r="AF8" s="418"/>
-      <c r="AG8" s="418"/>
-      <c r="AH8" s="406" t="s">
+      <c r="AD8" s="409"/>
+      <c r="AE8" s="409"/>
+      <c r="AF8" s="409"/>
+      <c r="AG8" s="409"/>
+      <c r="AH8" s="397" t="s">
         <v>79</v>
       </c>
-      <c r="AI8" s="406"/>
+      <c r="AI8" s="397"/>
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="95">
         <v>1</v>
       </c>
-      <c r="B9" s="391" t="s">
+      <c r="B9" s="431" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="392"/>
-      <c r="D9" s="392"/>
-      <c r="E9" s="392"/>
-      <c r="F9" s="393"/>
-      <c r="G9" s="397"/>
-      <c r="H9" s="398"/>
-      <c r="I9" s="399"/>
-      <c r="J9" s="400"/>
-      <c r="K9" s="401"/>
-      <c r="L9" s="401"/>
-      <c r="M9" s="401"/>
-      <c r="N9" s="401"/>
-      <c r="O9" s="401"/>
-      <c r="P9" s="402"/>
-      <c r="Q9" s="379"/>
-      <c r="R9" s="381"/>
-      <c r="S9" s="379"/>
-      <c r="T9" s="380"/>
-      <c r="U9" s="381"/>
-      <c r="V9" s="403"/>
-      <c r="W9" s="404"/>
-      <c r="X9" s="404"/>
-      <c r="Y9" s="404"/>
-      <c r="Z9" s="404"/>
-      <c r="AA9" s="404"/>
-      <c r="AB9" s="405"/>
-      <c r="AC9" s="411" t="s">
+      <c r="C9" s="432"/>
+      <c r="D9" s="432"/>
+      <c r="E9" s="432"/>
+      <c r="F9" s="433"/>
+      <c r="G9" s="434"/>
+      <c r="H9" s="435"/>
+      <c r="I9" s="436"/>
+      <c r="J9" s="437"/>
+      <c r="K9" s="438"/>
+      <c r="L9" s="438"/>
+      <c r="M9" s="438"/>
+      <c r="N9" s="438"/>
+      <c r="O9" s="438"/>
+      <c r="P9" s="439"/>
+      <c r="Q9" s="428"/>
+      <c r="R9" s="430"/>
+      <c r="S9" s="428"/>
+      <c r="T9" s="429"/>
+      <c r="U9" s="430"/>
+      <c r="V9" s="422"/>
+      <c r="W9" s="423"/>
+      <c r="X9" s="423"/>
+      <c r="Y9" s="423"/>
+      <c r="Z9" s="423"/>
+      <c r="AA9" s="423"/>
+      <c r="AB9" s="424"/>
+      <c r="AC9" s="402" t="s">
         <v>80</v>
       </c>
-      <c r="AD9" s="419"/>
-      <c r="AE9" s="420"/>
-      <c r="AF9" s="420"/>
-      <c r="AG9" s="421"/>
-      <c r="AH9" s="407"/>
-      <c r="AI9" s="408"/>
+      <c r="AD9" s="410"/>
+      <c r="AE9" s="411"/>
+      <c r="AF9" s="411"/>
+      <c r="AG9" s="412"/>
+      <c r="AH9" s="398"/>
+      <c r="AI9" s="399"/>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="188">
         <v>2</v>
       </c>
-      <c r="B10" s="376"/>
-      <c r="C10" s="377"/>
-      <c r="D10" s="377"/>
-      <c r="E10" s="377"/>
-      <c r="F10" s="378"/>
-      <c r="G10" s="394"/>
-      <c r="H10" s="395"/>
-      <c r="I10" s="396"/>
-      <c r="J10" s="388"/>
-      <c r="K10" s="389"/>
-      <c r="L10" s="389"/>
-      <c r="M10" s="389"/>
-      <c r="N10" s="389"/>
-      <c r="O10" s="389"/>
-      <c r="P10" s="390"/>
-      <c r="Q10" s="382"/>
-      <c r="R10" s="384"/>
-      <c r="S10" s="382"/>
-      <c r="T10" s="383"/>
-      <c r="U10" s="384"/>
-      <c r="V10" s="385"/>
-      <c r="W10" s="386"/>
-      <c r="X10" s="386"/>
-      <c r="Y10" s="386"/>
-      <c r="Z10" s="386"/>
-      <c r="AA10" s="386"/>
-      <c r="AB10" s="387"/>
-      <c r="AC10" s="412"/>
-      <c r="AD10" s="422"/>
-      <c r="AE10" s="423"/>
-      <c r="AF10" s="423"/>
-      <c r="AG10" s="424"/>
-      <c r="AH10" s="409"/>
-      <c r="AI10" s="410"/>
+      <c r="B10" s="386"/>
+      <c r="C10" s="387"/>
+      <c r="D10" s="387"/>
+      <c r="E10" s="387"/>
+      <c r="F10" s="388"/>
+      <c r="G10" s="416"/>
+      <c r="H10" s="417"/>
+      <c r="I10" s="418"/>
+      <c r="J10" s="380"/>
+      <c r="K10" s="381"/>
+      <c r="L10" s="381"/>
+      <c r="M10" s="381"/>
+      <c r="N10" s="381"/>
+      <c r="O10" s="381"/>
+      <c r="P10" s="382"/>
+      <c r="Q10" s="377"/>
+      <c r="R10" s="379"/>
+      <c r="S10" s="377"/>
+      <c r="T10" s="378"/>
+      <c r="U10" s="379"/>
+      <c r="V10" s="366"/>
+      <c r="W10" s="367"/>
+      <c r="X10" s="367"/>
+      <c r="Y10" s="367"/>
+      <c r="Z10" s="367"/>
+      <c r="AA10" s="367"/>
+      <c r="AB10" s="368"/>
+      <c r="AC10" s="403"/>
+      <c r="AD10" s="413"/>
+      <c r="AE10" s="414"/>
+      <c r="AF10" s="414"/>
+      <c r="AG10" s="415"/>
+      <c r="AH10" s="400"/>
+      <c r="AI10" s="401"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="188">
         <v>3</v>
       </c>
-      <c r="B11" s="376"/>
-      <c r="C11" s="377"/>
-      <c r="D11" s="377"/>
-      <c r="E11" s="377"/>
-      <c r="F11" s="378"/>
-      <c r="G11" s="394"/>
-      <c r="H11" s="395"/>
-      <c r="I11" s="396"/>
-      <c r="J11" s="388"/>
-      <c r="K11" s="389"/>
-      <c r="L11" s="389"/>
-      <c r="M11" s="389"/>
-      <c r="N11" s="389"/>
-      <c r="O11" s="389"/>
-      <c r="P11" s="390"/>
-      <c r="Q11" s="382"/>
-      <c r="R11" s="384"/>
-      <c r="S11" s="382"/>
-      <c r="T11" s="383"/>
-      <c r="U11" s="384"/>
-      <c r="V11" s="385"/>
-      <c r="W11" s="386"/>
-      <c r="X11" s="386"/>
-      <c r="Y11" s="386"/>
-      <c r="Z11" s="386"/>
-      <c r="AA11" s="386"/>
-      <c r="AB11" s="387"/>
-      <c r="AC11" s="412"/>
-      <c r="AD11" s="371"/>
-      <c r="AE11" s="372"/>
-      <c r="AF11" s="372"/>
-      <c r="AG11" s="373"/>
-      <c r="AH11" s="409"/>
-      <c r="AI11" s="410"/>
+      <c r="B11" s="386"/>
+      <c r="C11" s="387"/>
+      <c r="D11" s="387"/>
+      <c r="E11" s="387"/>
+      <c r="F11" s="388"/>
+      <c r="G11" s="416"/>
+      <c r="H11" s="417"/>
+      <c r="I11" s="418"/>
+      <c r="J11" s="380"/>
+      <c r="K11" s="381"/>
+      <c r="L11" s="381"/>
+      <c r="M11" s="381"/>
+      <c r="N11" s="381"/>
+      <c r="O11" s="381"/>
+      <c r="P11" s="382"/>
+      <c r="Q11" s="377"/>
+      <c r="R11" s="379"/>
+      <c r="S11" s="377"/>
+      <c r="T11" s="378"/>
+      <c r="U11" s="379"/>
+      <c r="V11" s="366"/>
+      <c r="W11" s="367"/>
+      <c r="X11" s="367"/>
+      <c r="Y11" s="367"/>
+      <c r="Z11" s="367"/>
+      <c r="AA11" s="367"/>
+      <c r="AB11" s="368"/>
+      <c r="AC11" s="403"/>
+      <c r="AD11" s="394"/>
+      <c r="AE11" s="395"/>
+      <c r="AF11" s="395"/>
+      <c r="AG11" s="396"/>
+      <c r="AH11" s="400"/>
+      <c r="AI11" s="401"/>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="188">
         <v>4</v>
       </c>
-      <c r="B12" s="376"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="377"/>
-      <c r="E12" s="377"/>
-      <c r="F12" s="378"/>
-      <c r="G12" s="394"/>
-      <c r="H12" s="395"/>
-      <c r="I12" s="396"/>
-      <c r="J12" s="388"/>
-      <c r="K12" s="389"/>
-      <c r="L12" s="389"/>
-      <c r="M12" s="389"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="389"/>
-      <c r="P12" s="390"/>
-      <c r="Q12" s="382"/>
-      <c r="R12" s="384"/>
-      <c r="S12" s="382"/>
-      <c r="T12" s="383"/>
-      <c r="U12" s="384"/>
-      <c r="V12" s="385"/>
-      <c r="W12" s="386"/>
-      <c r="X12" s="386"/>
-      <c r="Y12" s="386"/>
-      <c r="Z12" s="386"/>
-      <c r="AA12" s="386"/>
-      <c r="AB12" s="387"/>
-      <c r="AC12" s="412"/>
-      <c r="AD12" s="371"/>
-      <c r="AE12" s="372"/>
-      <c r="AF12" s="372"/>
-      <c r="AG12" s="373"/>
-      <c r="AH12" s="409"/>
-      <c r="AI12" s="410"/>
+      <c r="B12" s="386"/>
+      <c r="C12" s="387"/>
+      <c r="D12" s="387"/>
+      <c r="E12" s="387"/>
+      <c r="F12" s="388"/>
+      <c r="G12" s="416"/>
+      <c r="H12" s="417"/>
+      <c r="I12" s="418"/>
+      <c r="J12" s="380"/>
+      <c r="K12" s="381"/>
+      <c r="L12" s="381"/>
+      <c r="M12" s="381"/>
+      <c r="N12" s="381"/>
+      <c r="O12" s="381"/>
+      <c r="P12" s="382"/>
+      <c r="Q12" s="377"/>
+      <c r="R12" s="379"/>
+      <c r="S12" s="377"/>
+      <c r="T12" s="378"/>
+      <c r="U12" s="379"/>
+      <c r="V12" s="366"/>
+      <c r="W12" s="367"/>
+      <c r="X12" s="367"/>
+      <c r="Y12" s="367"/>
+      <c r="Z12" s="367"/>
+      <c r="AA12" s="367"/>
+      <c r="AB12" s="368"/>
+      <c r="AC12" s="403"/>
+      <c r="AD12" s="394"/>
+      <c r="AE12" s="395"/>
+      <c r="AF12" s="395"/>
+      <c r="AG12" s="396"/>
+      <c r="AH12" s="400"/>
+      <c r="AI12" s="401"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="188">
         <v>5</v>
       </c>
-      <c r="B13" s="376"/>
-      <c r="C13" s="377"/>
-      <c r="D13" s="377"/>
-      <c r="E13" s="377"/>
-      <c r="F13" s="378"/>
-      <c r="G13" s="388"/>
-      <c r="H13" s="389"/>
-      <c r="I13" s="390"/>
-      <c r="J13" s="388"/>
-      <c r="K13" s="389"/>
-      <c r="L13" s="389"/>
-      <c r="M13" s="389"/>
-      <c r="N13" s="389"/>
-      <c r="O13" s="389"/>
-      <c r="P13" s="390"/>
-      <c r="Q13" s="382"/>
-      <c r="R13" s="384"/>
-      <c r="S13" s="382"/>
-      <c r="T13" s="383"/>
-      <c r="U13" s="384"/>
-      <c r="V13" s="385"/>
-      <c r="W13" s="386"/>
-      <c r="X13" s="386"/>
-      <c r="Y13" s="386"/>
-      <c r="Z13" s="386"/>
-      <c r="AA13" s="386"/>
-      <c r="AB13" s="387"/>
-      <c r="AC13" s="412"/>
-      <c r="AD13" s="371"/>
-      <c r="AE13" s="372"/>
-      <c r="AF13" s="372"/>
-      <c r="AG13" s="373"/>
-      <c r="AH13" s="409"/>
-      <c r="AI13" s="410"/>
+      <c r="B13" s="386"/>
+      <c r="C13" s="387"/>
+      <c r="D13" s="387"/>
+      <c r="E13" s="387"/>
+      <c r="F13" s="388"/>
+      <c r="G13" s="380"/>
+      <c r="H13" s="381"/>
+      <c r="I13" s="382"/>
+      <c r="J13" s="380"/>
+      <c r="K13" s="381"/>
+      <c r="L13" s="381"/>
+      <c r="M13" s="381"/>
+      <c r="N13" s="381"/>
+      <c r="O13" s="381"/>
+      <c r="P13" s="382"/>
+      <c r="Q13" s="377"/>
+      <c r="R13" s="379"/>
+      <c r="S13" s="377"/>
+      <c r="T13" s="378"/>
+      <c r="U13" s="379"/>
+      <c r="V13" s="366"/>
+      <c r="W13" s="367"/>
+      <c r="X13" s="367"/>
+      <c r="Y13" s="367"/>
+      <c r="Z13" s="367"/>
+      <c r="AA13" s="367"/>
+      <c r="AB13" s="368"/>
+      <c r="AC13" s="403"/>
+      <c r="AD13" s="394"/>
+      <c r="AE13" s="395"/>
+      <c r="AF13" s="395"/>
+      <c r="AG13" s="396"/>
+      <c r="AH13" s="400"/>
+      <c r="AI13" s="401"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="188">
         <v>6</v>
       </c>
-      <c r="B14" s="376"/>
-      <c r="C14" s="377"/>
-      <c r="D14" s="377"/>
-      <c r="E14" s="377"/>
-      <c r="F14" s="378"/>
-      <c r="G14" s="388"/>
-      <c r="H14" s="389"/>
-      <c r="I14" s="390"/>
-      <c r="J14" s="388"/>
-      <c r="K14" s="389"/>
-      <c r="L14" s="389"/>
-      <c r="M14" s="389"/>
-      <c r="N14" s="389"/>
-      <c r="O14" s="389"/>
-      <c r="P14" s="390"/>
-      <c r="Q14" s="382"/>
-      <c r="R14" s="384"/>
-      <c r="S14" s="382"/>
-      <c r="T14" s="383"/>
-      <c r="U14" s="384"/>
-      <c r="V14" s="385"/>
-      <c r="W14" s="386"/>
-      <c r="X14" s="386"/>
-      <c r="Y14" s="386"/>
-      <c r="Z14" s="386"/>
-      <c r="AA14" s="386"/>
-      <c r="AB14" s="387"/>
-      <c r="AC14" s="412"/>
-      <c r="AD14" s="371"/>
-      <c r="AE14" s="372"/>
-      <c r="AF14" s="372"/>
-      <c r="AG14" s="373"/>
-      <c r="AH14" s="409"/>
-      <c r="AI14" s="410"/>
+      <c r="B14" s="386"/>
+      <c r="C14" s="387"/>
+      <c r="D14" s="387"/>
+      <c r="E14" s="387"/>
+      <c r="F14" s="388"/>
+      <c r="G14" s="380"/>
+      <c r="H14" s="381"/>
+      <c r="I14" s="382"/>
+      <c r="J14" s="380"/>
+      <c r="K14" s="381"/>
+      <c r="L14" s="381"/>
+      <c r="M14" s="381"/>
+      <c r="N14" s="381"/>
+      <c r="O14" s="381"/>
+      <c r="P14" s="382"/>
+      <c r="Q14" s="377"/>
+      <c r="R14" s="379"/>
+      <c r="S14" s="377"/>
+      <c r="T14" s="378"/>
+      <c r="U14" s="379"/>
+      <c r="V14" s="366"/>
+      <c r="W14" s="367"/>
+      <c r="X14" s="367"/>
+      <c r="Y14" s="367"/>
+      <c r="Z14" s="367"/>
+      <c r="AA14" s="367"/>
+      <c r="AB14" s="368"/>
+      <c r="AC14" s="403"/>
+      <c r="AD14" s="394"/>
+      <c r="AE14" s="395"/>
+      <c r="AF14" s="395"/>
+      <c r="AG14" s="396"/>
+      <c r="AH14" s="400"/>
+      <c r="AI14" s="401"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="189">
         <v>7</v>
       </c>
-      <c r="B15" s="376"/>
-      <c r="C15" s="377"/>
-      <c r="D15" s="377"/>
-      <c r="E15" s="377"/>
-      <c r="F15" s="378"/>
-      <c r="G15" s="388"/>
-      <c r="H15" s="389"/>
-      <c r="I15" s="390"/>
-      <c r="J15" s="388"/>
-      <c r="K15" s="389"/>
-      <c r="L15" s="389"/>
-      <c r="M15" s="389"/>
-      <c r="N15" s="389"/>
-      <c r="O15" s="389"/>
-      <c r="P15" s="390"/>
-      <c r="Q15" s="382"/>
-      <c r="R15" s="384"/>
-      <c r="S15" s="382"/>
-      <c r="T15" s="383"/>
-      <c r="U15" s="384"/>
-      <c r="V15" s="385"/>
-      <c r="W15" s="386"/>
-      <c r="X15" s="386"/>
-      <c r="Y15" s="386"/>
-      <c r="Z15" s="386"/>
-      <c r="AA15" s="386"/>
-      <c r="AB15" s="387"/>
-      <c r="AC15" s="412"/>
-      <c r="AD15" s="371"/>
-      <c r="AE15" s="372"/>
-      <c r="AF15" s="372"/>
-      <c r="AG15" s="373"/>
-      <c r="AH15" s="409"/>
-      <c r="AI15" s="410"/>
+      <c r="B15" s="386"/>
+      <c r="C15" s="387"/>
+      <c r="D15" s="387"/>
+      <c r="E15" s="387"/>
+      <c r="F15" s="388"/>
+      <c r="G15" s="380"/>
+      <c r="H15" s="381"/>
+      <c r="I15" s="382"/>
+      <c r="J15" s="380"/>
+      <c r="K15" s="381"/>
+      <c r="L15" s="381"/>
+      <c r="M15" s="381"/>
+      <c r="N15" s="381"/>
+      <c r="O15" s="381"/>
+      <c r="P15" s="382"/>
+      <c r="Q15" s="377"/>
+      <c r="R15" s="379"/>
+      <c r="S15" s="377"/>
+      <c r="T15" s="378"/>
+      <c r="U15" s="379"/>
+      <c r="V15" s="366"/>
+      <c r="W15" s="367"/>
+      <c r="X15" s="367"/>
+      <c r="Y15" s="367"/>
+      <c r="Z15" s="367"/>
+      <c r="AA15" s="367"/>
+      <c r="AB15" s="368"/>
+      <c r="AC15" s="403"/>
+      <c r="AD15" s="394"/>
+      <c r="AE15" s="395"/>
+      <c r="AF15" s="395"/>
+      <c r="AG15" s="396"/>
+      <c r="AH15" s="400"/>
+      <c r="AI15" s="401"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="190">
         <v>8</v>
       </c>
-      <c r="B16" s="376"/>
-      <c r="C16" s="377"/>
-      <c r="D16" s="377"/>
-      <c r="E16" s="377"/>
-      <c r="F16" s="378"/>
-      <c r="G16" s="388"/>
-      <c r="H16" s="389"/>
-      <c r="I16" s="390"/>
-      <c r="J16" s="388"/>
-      <c r="K16" s="389"/>
-      <c r="L16" s="389"/>
-      <c r="M16" s="389"/>
-      <c r="N16" s="389"/>
-      <c r="O16" s="389"/>
-      <c r="P16" s="390"/>
-      <c r="Q16" s="382"/>
-      <c r="R16" s="384"/>
-      <c r="S16" s="382"/>
-      <c r="T16" s="383"/>
-      <c r="U16" s="384"/>
-      <c r="V16" s="385"/>
-      <c r="W16" s="386"/>
-      <c r="X16" s="386"/>
-      <c r="Y16" s="386"/>
-      <c r="Z16" s="386"/>
-      <c r="AA16" s="386"/>
-      <c r="AB16" s="387"/>
-      <c r="AC16" s="412"/>
-      <c r="AD16" s="371"/>
-      <c r="AE16" s="372"/>
-      <c r="AF16" s="372"/>
-      <c r="AG16" s="373"/>
-      <c r="AH16" s="409"/>
-      <c r="AI16" s="410"/>
+      <c r="B16" s="386"/>
+      <c r="C16" s="387"/>
+      <c r="D16" s="387"/>
+      <c r="E16" s="387"/>
+      <c r="F16" s="388"/>
+      <c r="G16" s="380"/>
+      <c r="H16" s="381"/>
+      <c r="I16" s="382"/>
+      <c r="J16" s="380"/>
+      <c r="K16" s="381"/>
+      <c r="L16" s="381"/>
+      <c r="M16" s="381"/>
+      <c r="N16" s="381"/>
+      <c r="O16" s="381"/>
+      <c r="P16" s="382"/>
+      <c r="Q16" s="377"/>
+      <c r="R16" s="379"/>
+      <c r="S16" s="377"/>
+      <c r="T16" s="378"/>
+      <c r="U16" s="379"/>
+      <c r="V16" s="366"/>
+      <c r="W16" s="367"/>
+      <c r="X16" s="367"/>
+      <c r="Y16" s="367"/>
+      <c r="Z16" s="367"/>
+      <c r="AA16" s="367"/>
+      <c r="AB16" s="368"/>
+      <c r="AC16" s="403"/>
+      <c r="AD16" s="394"/>
+      <c r="AE16" s="395"/>
+      <c r="AF16" s="395"/>
+      <c r="AG16" s="396"/>
+      <c r="AH16" s="400"/>
+      <c r="AI16" s="401"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="191">
         <v>9</v>
       </c>
-      <c r="B17" s="439"/>
-      <c r="C17" s="440"/>
-      <c r="D17" s="440"/>
-      <c r="E17" s="440"/>
-      <c r="F17" s="441"/>
-      <c r="G17" s="436"/>
-      <c r="H17" s="437"/>
-      <c r="I17" s="438"/>
-      <c r="J17" s="436"/>
-      <c r="K17" s="437"/>
-      <c r="L17" s="437"/>
-      <c r="M17" s="437"/>
-      <c r="N17" s="437"/>
-      <c r="O17" s="437"/>
-      <c r="P17" s="438"/>
-      <c r="Q17" s="433"/>
-      <c r="R17" s="435"/>
-      <c r="S17" s="433"/>
-      <c r="T17" s="434"/>
-      <c r="U17" s="435"/>
-      <c r="V17" s="428"/>
-      <c r="W17" s="429"/>
-      <c r="X17" s="429"/>
-      <c r="Y17" s="429"/>
-      <c r="Z17" s="429"/>
-      <c r="AA17" s="429"/>
-      <c r="AB17" s="430"/>
-      <c r="AC17" s="413"/>
-      <c r="AD17" s="414"/>
-      <c r="AE17" s="415"/>
-      <c r="AF17" s="415"/>
-      <c r="AG17" s="416"/>
-      <c r="AH17" s="442"/>
-      <c r="AI17" s="443"/>
+      <c r="B17" s="389"/>
+      <c r="C17" s="390"/>
+      <c r="D17" s="390"/>
+      <c r="E17" s="390"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="383"/>
+      <c r="H17" s="384"/>
+      <c r="I17" s="385"/>
+      <c r="J17" s="383"/>
+      <c r="K17" s="384"/>
+      <c r="L17" s="384"/>
+      <c r="M17" s="384"/>
+      <c r="N17" s="384"/>
+      <c r="O17" s="384"/>
+      <c r="P17" s="385"/>
+      <c r="Q17" s="374"/>
+      <c r="R17" s="376"/>
+      <c r="S17" s="374"/>
+      <c r="T17" s="375"/>
+      <c r="U17" s="376"/>
+      <c r="V17" s="369"/>
+      <c r="W17" s="370"/>
+      <c r="X17" s="370"/>
+      <c r="Y17" s="370"/>
+      <c r="Z17" s="370"/>
+      <c r="AA17" s="370"/>
+      <c r="AB17" s="371"/>
+      <c r="AC17" s="404"/>
+      <c r="AD17" s="405"/>
+      <c r="AE17" s="406"/>
+      <c r="AF17" s="406"/>
+      <c r="AG17" s="407"/>
+      <c r="AH17" s="392"/>
+      <c r="AI17" s="393"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="431"/>
-      <c r="B18" s="432"/>
-      <c r="C18" s="432"/>
-      <c r="D18" s="432"/>
-      <c r="E18" s="432"/>
-      <c r="F18" s="432"/>
+      <c r="A18" s="372"/>
+      <c r="B18" s="373"/>
+      <c r="C18" s="373"/>
+      <c r="D18" s="373"/>
+      <c r="E18" s="373"/>
+      <c r="F18" s="373"/>
       <c r="G18" s="168"/>
       <c r="H18" s="168"/>
       <c r="I18" s="168"/>
@@ -15724,23 +15726,23 @@
       <c r="AA18" s="168"/>
       <c r="AB18" s="168"/>
       <c r="AC18" s="39"/>
-      <c r="AD18" s="427"/>
-      <c r="AE18" s="427"/>
-      <c r="AF18" s="427"/>
-      <c r="AG18" s="427"/>
-      <c r="AH18" s="427"/>
+      <c r="AD18" s="365"/>
+      <c r="AE18" s="365"/>
+      <c r="AF18" s="365"/>
+      <c r="AG18" s="365"/>
+      <c r="AH18" s="365"/>
       <c r="AI18" s="76"/>
       <c r="AJ18" s="34"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="425" t="s">
+      <c r="A19" s="363" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="426"/>
-      <c r="C19" s="426"/>
-      <c r="D19" s="426"/>
-      <c r="E19" s="426"/>
-      <c r="F19" s="426"/>
+      <c r="B19" s="364"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="364"/>
+      <c r="F19" s="364"/>
       <c r="G19" s="205"/>
       <c r="H19" s="206"/>
       <c r="I19" s="206"/>
@@ -16551,24 +16553,66 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AG3:AI3"/>
@@ -16593,66 +16637,24 @@
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="AH17:AI17"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations disablePrompts="1" count="2">
@@ -16682,7 +16684,7 @@
   <dimension ref="A1:CS81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9:AL9"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -16691,158 +16693,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="66" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="278" t="str">
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="306" t="s">
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="309" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="315" t="str">
+      <c r="P1" s="310"/>
+      <c r="Q1" s="310"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="318" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(XML)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="316"/>
-      <c r="U1" s="316"/>
-      <c r="V1" s="316"/>
-      <c r="W1" s="316"/>
-      <c r="X1" s="316"/>
-      <c r="Y1" s="316"/>
-      <c r="Z1" s="317"/>
-      <c r="AA1" s="242" t="s">
+      <c r="T1" s="319"/>
+      <c r="U1" s="319"/>
+      <c r="V1" s="319"/>
+      <c r="W1" s="319"/>
+      <c r="X1" s="319"/>
+      <c r="Y1" s="319"/>
+      <c r="Z1" s="320"/>
+      <c r="AA1" s="284" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="324">
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="277"/>
+      <c r="AG1" s="306">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="326"/>
+      <c r="AH1" s="307"/>
+      <c r="AI1" s="308"/>
     </row>
     <row r="2" spans="1:96" s="66" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="284" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="278" t="str">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="310"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="318"/>
-      <c r="T2" s="319"/>
-      <c r="U2" s="319"/>
-      <c r="V2" s="319"/>
-      <c r="W2" s="319"/>
-      <c r="X2" s="319"/>
-      <c r="Y2" s="319"/>
-      <c r="Z2" s="320"/>
-      <c r="AA2" s="242" t="s">
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="313"/>
+      <c r="R2" s="314"/>
+      <c r="S2" s="321"/>
+      <c r="T2" s="322"/>
+      <c r="U2" s="322"/>
+      <c r="V2" s="322"/>
+      <c r="W2" s="322"/>
+      <c r="X2" s="322"/>
+      <c r="Y2" s="322"/>
+      <c r="Z2" s="323"/>
+      <c r="AA2" s="284" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="281" t="str">
+      <c r="AB2" s="285"/>
+      <c r="AC2" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="283"/>
-      <c r="AG2" s="324" t="str">
+      <c r="AD2" s="276"/>
+      <c r="AE2" s="276"/>
+      <c r="AF2" s="277"/>
+      <c r="AG2" s="306" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="325"/>
-      <c r="AI2" s="326"/>
+      <c r="AH2" s="307"/>
+      <c r="AI2" s="308"/>
     </row>
     <row r="3" spans="1:96" s="66" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="284" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="278" t="str">
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="280"/>
-      <c r="O3" s="312"/>
-      <c r="P3" s="313"/>
-      <c r="Q3" s="313"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="321"/>
-      <c r="T3" s="322"/>
-      <c r="U3" s="322"/>
-      <c r="V3" s="322"/>
-      <c r="W3" s="322"/>
-      <c r="X3" s="322"/>
-      <c r="Y3" s="322"/>
-      <c r="Z3" s="323"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="281" t="str">
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="315"/>
+      <c r="P3" s="316"/>
+      <c r="Q3" s="316"/>
+      <c r="R3" s="317"/>
+      <c r="S3" s="324"/>
+      <c r="T3" s="325"/>
+      <c r="U3" s="325"/>
+      <c r="V3" s="325"/>
+      <c r="W3" s="325"/>
+      <c r="X3" s="325"/>
+      <c r="Y3" s="325"/>
+      <c r="Z3" s="326"/>
+      <c r="AA3" s="284"/>
+      <c r="AB3" s="285"/>
+      <c r="AC3" s="275" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="324" t="str">
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="277"/>
+      <c r="AG3" s="306" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="325"/>
-      <c r="AI3" s="326"/>
+      <c r="AH3" s="307"/>
+      <c r="AI3" s="308"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1"/>
     <row r="5" spans="1:96" ht="15" customHeight="1">
@@ -16885,18 +16887,18 @@
       <c r="AC6" s="111"/>
     </row>
     <row r="7" spans="1:96" ht="15" customHeight="1">
-      <c r="A7" s="458" t="s">
+      <c r="A7" s="461" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="459"/>
-      <c r="C7" s="460"/>
-      <c r="D7" s="461" t="s">
+      <c r="B7" s="462"/>
+      <c r="C7" s="463"/>
+      <c r="D7" s="464" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="462"/>
-      <c r="F7" s="462"/>
-      <c r="G7" s="462"/>
-      <c r="H7" s="463"/>
+      <c r="E7" s="465"/>
+      <c r="F7" s="465"/>
+      <c r="G7" s="465"/>
+      <c r="H7" s="466"/>
       <c r="I7" s="111"/>
       <c r="J7" s="111"/>
       <c r="K7" s="111"/>
@@ -16920,18 +16922,18 @@
       <c r="AC7" s="111"/>
     </row>
     <row r="8" spans="1:96" ht="15" customHeight="1">
-      <c r="A8" s="458" t="s">
+      <c r="A8" s="461" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="459"/>
-      <c r="C8" s="460"/>
-      <c r="D8" s="461" t="s">
+      <c r="B8" s="462"/>
+      <c r="C8" s="463"/>
+      <c r="D8" s="464" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="462"/>
-      <c r="F8" s="462"/>
-      <c r="G8" s="462"/>
-      <c r="H8" s="463"/>
+      <c r="E8" s="465"/>
+      <c r="F8" s="465"/>
+      <c r="G8" s="465"/>
+      <c r="H8" s="466"/>
       <c r="I8" s="111"/>
       <c r="J8" s="111"/>
       <c r="K8" s="111"/>
@@ -16960,65 +16962,65 @@
       <c r="A9" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="452" t="s">
+      <c r="B9" s="444" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="453"/>
-      <c r="D9" s="453"/>
-      <c r="E9" s="453"/>
-      <c r="F9" s="454"/>
-      <c r="G9" s="452" t="s">
+      <c r="C9" s="445"/>
+      <c r="D9" s="445"/>
+      <c r="E9" s="445"/>
+      <c r="F9" s="446"/>
+      <c r="G9" s="444" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="453"/>
-      <c r="I9" s="453"/>
-      <c r="J9" s="453"/>
-      <c r="K9" s="454"/>
-      <c r="L9" s="452" t="s">
+      <c r="H9" s="445"/>
+      <c r="I9" s="445"/>
+      <c r="J9" s="445"/>
+      <c r="K9" s="446"/>
+      <c r="L9" s="444" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="453"/>
-      <c r="N9" s="453"/>
-      <c r="O9" s="453"/>
-      <c r="P9" s="454"/>
+      <c r="M9" s="445"/>
+      <c r="N9" s="445"/>
+      <c r="O9" s="445"/>
+      <c r="P9" s="446"/>
       <c r="Q9" s="220" t="s">
         <v>61</v>
       </c>
       <c r="R9" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="S9" s="457" t="s">
+      <c r="S9" s="447" t="s">
         <v>67</v>
       </c>
-      <c r="T9" s="457"/>
-      <c r="U9" s="457"/>
-      <c r="V9" s="457"/>
-      <c r="W9" s="478" t="s">
+      <c r="T9" s="447"/>
+      <c r="U9" s="447"/>
+      <c r="V9" s="447"/>
+      <c r="W9" s="448" t="s">
         <v>215</v>
       </c>
-      <c r="X9" s="479"/>
-      <c r="Y9" s="455" t="s">
+      <c r="X9" s="449"/>
+      <c r="Y9" s="450" t="s">
         <v>56</v>
       </c>
-      <c r="Z9" s="456"/>
-      <c r="AA9" s="455" t="s">
+      <c r="Z9" s="451"/>
+      <c r="AA9" s="450" t="s">
         <v>25</v>
       </c>
-      <c r="AB9" s="456"/>
-      <c r="AC9" s="452" t="s">
+      <c r="AB9" s="451"/>
+      <c r="AC9" s="444" t="s">
         <v>60</v>
       </c>
-      <c r="AD9" s="453"/>
-      <c r="AE9" s="454"/>
-      <c r="AF9" s="452" t="s">
+      <c r="AD9" s="445"/>
+      <c r="AE9" s="446"/>
+      <c r="AF9" s="444" t="s">
         <v>57</v>
       </c>
-      <c r="AG9" s="453"/>
-      <c r="AH9" s="453"/>
-      <c r="AI9" s="453"/>
-      <c r="AJ9" s="453"/>
-      <c r="AK9" s="453"/>
-      <c r="AL9" s="454"/>
+      <c r="AG9" s="445"/>
+      <c r="AH9" s="445"/>
+      <c r="AI9" s="445"/>
+      <c r="AJ9" s="445"/>
+      <c r="AK9" s="445"/>
+      <c r="AL9" s="446"/>
       <c r="AO9" s="76"/>
       <c r="AP9" s="76"/>
       <c r="AR9" s="76"/>
@@ -17079,53 +17081,53 @@
       <c r="A10" s="222">
         <v>1</v>
       </c>
-      <c r="B10" s="444" t="s">
+      <c r="B10" s="467" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="444"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="444"/>
-      <c r="F10" s="444"/>
-      <c r="G10" s="444" t="s">
+      <c r="C10" s="467"/>
+      <c r="D10" s="467"/>
+      <c r="E10" s="467"/>
+      <c r="F10" s="467"/>
+      <c r="G10" s="467" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="444"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="444"/>
-      <c r="K10" s="444"/>
-      <c r="L10" s="445"/>
-      <c r="M10" s="446"/>
-      <c r="N10" s="446"/>
-      <c r="O10" s="446"/>
-      <c r="P10" s="447"/>
+      <c r="H10" s="467"/>
+      <c r="I10" s="467"/>
+      <c r="J10" s="467"/>
+      <c r="K10" s="467"/>
+      <c r="L10" s="452"/>
+      <c r="M10" s="453"/>
+      <c r="N10" s="453"/>
+      <c r="O10" s="453"/>
+      <c r="P10" s="454"/>
       <c r="Q10" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R10" s="221"/>
-      <c r="S10" s="445" t="s">
+      <c r="S10" s="452" t="s">
         <v>158</v>
       </c>
-      <c r="T10" s="446"/>
-      <c r="U10" s="446"/>
-      <c r="V10" s="447"/>
+      <c r="T10" s="453"/>
+      <c r="U10" s="453"/>
+      <c r="V10" s="454"/>
       <c r="W10" s="229"/>
       <c r="X10" s="229"/>
-      <c r="Y10" s="464">
+      <c r="Y10" s="455">
         <v>1</v>
       </c>
-      <c r="Z10" s="465"/>
-      <c r="AA10" s="466"/>
-      <c r="AB10" s="467"/>
-      <c r="AC10" s="445"/>
-      <c r="AD10" s="446"/>
-      <c r="AE10" s="447"/>
-      <c r="AF10" s="445"/>
-      <c r="AG10" s="446"/>
-      <c r="AH10" s="446"/>
-      <c r="AI10" s="446"/>
-      <c r="AJ10" s="446"/>
-      <c r="AK10" s="446"/>
-      <c r="AL10" s="447"/>
+      <c r="Z10" s="456"/>
+      <c r="AA10" s="457"/>
+      <c r="AB10" s="458"/>
+      <c r="AC10" s="452"/>
+      <c r="AD10" s="453"/>
+      <c r="AE10" s="454"/>
+      <c r="AF10" s="452"/>
+      <c r="AG10" s="453"/>
+      <c r="AH10" s="453"/>
+      <c r="AI10" s="453"/>
+      <c r="AJ10" s="453"/>
+      <c r="AK10" s="453"/>
+      <c r="AL10" s="454"/>
       <c r="AO10" s="167"/>
       <c r="AP10" s="167"/>
       <c r="AQ10" s="167"/>
@@ -17187,53 +17189,53 @@
       <c r="A11" s="222">
         <v>2</v>
       </c>
-      <c r="B11" s="444" t="s">
+      <c r="B11" s="467" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="444"/>
-      <c r="D11" s="444"/>
-      <c r="E11" s="444"/>
-      <c r="F11" s="444"/>
-      <c r="G11" s="444" t="s">
+      <c r="C11" s="467"/>
+      <c r="D11" s="467"/>
+      <c r="E11" s="467"/>
+      <c r="F11" s="467"/>
+      <c r="G11" s="467" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="444"/>
-      <c r="I11" s="444"/>
-      <c r="J11" s="444"/>
-      <c r="K11" s="444"/>
-      <c r="L11" s="445"/>
-      <c r="M11" s="446"/>
-      <c r="N11" s="446"/>
-      <c r="O11" s="446"/>
-      <c r="P11" s="447"/>
+      <c r="H11" s="467"/>
+      <c r="I11" s="467"/>
+      <c r="J11" s="467"/>
+      <c r="K11" s="467"/>
+      <c r="L11" s="452"/>
+      <c r="M11" s="453"/>
+      <c r="N11" s="453"/>
+      <c r="O11" s="453"/>
+      <c r="P11" s="454"/>
       <c r="Q11" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R11" s="221"/>
-      <c r="S11" s="445" t="s">
+      <c r="S11" s="452" t="s">
         <v>158</v>
       </c>
-      <c r="T11" s="446"/>
-      <c r="U11" s="446"/>
-      <c r="V11" s="447"/>
+      <c r="T11" s="453"/>
+      <c r="U11" s="453"/>
+      <c r="V11" s="454"/>
       <c r="W11" s="229"/>
       <c r="X11" s="229"/>
-      <c r="Y11" s="468" t="s">
+      <c r="Y11" s="474" t="s">
         <v>184</v>
       </c>
-      <c r="Z11" s="469"/>
-      <c r="AA11" s="470"/>
-      <c r="AB11" s="471"/>
-      <c r="AC11" s="445"/>
-      <c r="AD11" s="446"/>
-      <c r="AE11" s="447"/>
-      <c r="AF11" s="445"/>
-      <c r="AG11" s="446"/>
-      <c r="AH11" s="446"/>
-      <c r="AI11" s="446"/>
-      <c r="AJ11" s="446"/>
-      <c r="AK11" s="446"/>
-      <c r="AL11" s="447"/>
+      <c r="Z11" s="475"/>
+      <c r="AA11" s="459"/>
+      <c r="AB11" s="460"/>
+      <c r="AC11" s="452"/>
+      <c r="AD11" s="453"/>
+      <c r="AE11" s="454"/>
+      <c r="AF11" s="452"/>
+      <c r="AG11" s="453"/>
+      <c r="AH11" s="453"/>
+      <c r="AI11" s="453"/>
+      <c r="AJ11" s="453"/>
+      <c r="AK11" s="453"/>
+      <c r="AL11" s="454"/>
       <c r="AO11" s="167"/>
       <c r="AQ11" s="167"/>
       <c r="AR11" s="167"/>
@@ -17332,18 +17334,18 @@
       <c r="CG12" s="237"/>
     </row>
     <row r="13" spans="1:96" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="458" t="s">
+      <c r="A13" s="461" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="459"/>
-      <c r="C13" s="460"/>
-      <c r="D13" s="461" t="s">
+      <c r="B13" s="462"/>
+      <c r="C13" s="463"/>
+      <c r="D13" s="464" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="462"/>
-      <c r="F13" s="462"/>
-      <c r="G13" s="462"/>
-      <c r="H13" s="463"/>
+      <c r="E13" s="465"/>
+      <c r="F13" s="465"/>
+      <c r="G13" s="465"/>
+      <c r="H13" s="466"/>
       <c r="I13" s="238"/>
       <c r="J13" s="238"/>
       <c r="K13" s="238"/>
@@ -17359,7 +17361,7 @@
       <c r="U13" s="239"/>
       <c r="V13" s="237"/>
       <c r="W13" s="237"/>
-      <c r="X13" s="237"/>
+      <c r="X13" s="480"/>
       <c r="Y13" s="237"/>
       <c r="Z13" s="240"/>
       <c r="AA13" s="240"/>
@@ -17373,18 +17375,18 @@
       <c r="CG13" s="237"/>
     </row>
     <row r="14" spans="1:96" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="458" t="s">
+      <c r="A14" s="461" t="s">
         <v>206</v>
       </c>
-      <c r="B14" s="459"/>
-      <c r="C14" s="460"/>
-      <c r="D14" s="461" t="s">
+      <c r="B14" s="462"/>
+      <c r="C14" s="463"/>
+      <c r="D14" s="464" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="462"/>
-      <c r="F14" s="462"/>
-      <c r="G14" s="462"/>
-      <c r="H14" s="463"/>
+      <c r="E14" s="465"/>
+      <c r="F14" s="465"/>
+      <c r="G14" s="465"/>
+      <c r="H14" s="466"/>
       <c r="I14" s="238"/>
       <c r="J14" s="238"/>
       <c r="K14" s="238"/>
@@ -17417,65 +17419,65 @@
       <c r="A15" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="452" t="s">
+      <c r="B15" s="444" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="453"/>
-      <c r="D15" s="453"/>
-      <c r="E15" s="453"/>
-      <c r="F15" s="454"/>
-      <c r="G15" s="452" t="s">
+      <c r="C15" s="445"/>
+      <c r="D15" s="445"/>
+      <c r="E15" s="445"/>
+      <c r="F15" s="446"/>
+      <c r="G15" s="444" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="453"/>
-      <c r="I15" s="453"/>
-      <c r="J15" s="453"/>
-      <c r="K15" s="454"/>
-      <c r="L15" s="452" t="s">
+      <c r="H15" s="445"/>
+      <c r="I15" s="445"/>
+      <c r="J15" s="445"/>
+      <c r="K15" s="446"/>
+      <c r="L15" s="444" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="453"/>
-      <c r="N15" s="453"/>
-      <c r="O15" s="453"/>
-      <c r="P15" s="454"/>
+      <c r="M15" s="445"/>
+      <c r="N15" s="445"/>
+      <c r="O15" s="445"/>
+      <c r="P15" s="446"/>
       <c r="Q15" s="230" t="s">
         <v>61</v>
       </c>
       <c r="R15" s="230" t="s">
         <v>81</v>
       </c>
-      <c r="S15" s="457" t="s">
+      <c r="S15" s="447" t="s">
         <v>67</v>
       </c>
-      <c r="T15" s="457"/>
-      <c r="U15" s="457"/>
-      <c r="V15" s="457"/>
-      <c r="W15" s="478" t="s">
+      <c r="T15" s="447"/>
+      <c r="U15" s="447"/>
+      <c r="V15" s="447"/>
+      <c r="W15" s="448" t="s">
         <v>215</v>
       </c>
-      <c r="X15" s="479"/>
-      <c r="Y15" s="455" t="s">
+      <c r="X15" s="449"/>
+      <c r="Y15" s="450" t="s">
         <v>56</v>
       </c>
-      <c r="Z15" s="456"/>
-      <c r="AA15" s="455" t="s">
+      <c r="Z15" s="451"/>
+      <c r="AA15" s="450" t="s">
         <v>25</v>
       </c>
-      <c r="AB15" s="456"/>
-      <c r="AC15" s="452" t="s">
+      <c r="AB15" s="451"/>
+      <c r="AC15" s="444" t="s">
         <v>60</v>
       </c>
-      <c r="AD15" s="453"/>
-      <c r="AE15" s="454"/>
-      <c r="AF15" s="452" t="s">
+      <c r="AD15" s="445"/>
+      <c r="AE15" s="446"/>
+      <c r="AF15" s="444" t="s">
         <v>57</v>
       </c>
-      <c r="AG15" s="453"/>
-      <c r="AH15" s="453"/>
-      <c r="AI15" s="453"/>
-      <c r="AJ15" s="453"/>
-      <c r="AK15" s="453"/>
-      <c r="AL15" s="454"/>
+      <c r="AG15" s="445"/>
+      <c r="AH15" s="445"/>
+      <c r="AI15" s="445"/>
+      <c r="AJ15" s="445"/>
+      <c r="AK15" s="445"/>
+      <c r="AL15" s="446"/>
       <c r="AO15" s="76"/>
       <c r="AP15" s="76"/>
       <c r="AR15" s="76"/>
@@ -17536,55 +17538,55 @@
       <c r="A16" s="222">
         <v>1</v>
       </c>
-      <c r="B16" s="444" t="s">
+      <c r="B16" s="467" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="444"/>
-      <c r="D16" s="444"/>
-      <c r="E16" s="444"/>
-      <c r="F16" s="444"/>
-      <c r="G16" s="444" t="s">
+      <c r="C16" s="467"/>
+      <c r="D16" s="467"/>
+      <c r="E16" s="467"/>
+      <c r="F16" s="467"/>
+      <c r="G16" s="467" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="444"/>
-      <c r="I16" s="444"/>
-      <c r="J16" s="444"/>
-      <c r="K16" s="444"/>
-      <c r="L16" s="445" t="s">
+      <c r="H16" s="467"/>
+      <c r="I16" s="467"/>
+      <c r="J16" s="467"/>
+      <c r="K16" s="467"/>
+      <c r="L16" s="452" t="s">
         <v>137</v>
       </c>
-      <c r="M16" s="446"/>
-      <c r="N16" s="446"/>
-      <c r="O16" s="446"/>
-      <c r="P16" s="447"/>
+      <c r="M16" s="453"/>
+      <c r="N16" s="453"/>
+      <c r="O16" s="453"/>
+      <c r="P16" s="454"/>
       <c r="Q16" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R16" s="221"/>
-      <c r="S16" s="445" t="s">
+      <c r="S16" s="452" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="446"/>
-      <c r="U16" s="446"/>
-      <c r="V16" s="447"/>
+      <c r="T16" s="453"/>
+      <c r="U16" s="453"/>
+      <c r="V16" s="454"/>
       <c r="W16" s="229"/>
       <c r="X16" s="229"/>
-      <c r="Y16" s="464">
+      <c r="Y16" s="455">
         <v>1</v>
       </c>
-      <c r="Z16" s="465"/>
-      <c r="AA16" s="466"/>
-      <c r="AB16" s="467"/>
-      <c r="AC16" s="445"/>
-      <c r="AD16" s="446"/>
-      <c r="AE16" s="447"/>
-      <c r="AF16" s="445"/>
-      <c r="AG16" s="446"/>
-      <c r="AH16" s="446"/>
-      <c r="AI16" s="446"/>
-      <c r="AJ16" s="446"/>
-      <c r="AK16" s="446"/>
-      <c r="AL16" s="447"/>
+      <c r="Z16" s="456"/>
+      <c r="AA16" s="457"/>
+      <c r="AB16" s="458"/>
+      <c r="AC16" s="452"/>
+      <c r="AD16" s="453"/>
+      <c r="AE16" s="454"/>
+      <c r="AF16" s="452"/>
+      <c r="AG16" s="453"/>
+      <c r="AH16" s="453"/>
+      <c r="AI16" s="453"/>
+      <c r="AJ16" s="453"/>
+      <c r="AK16" s="453"/>
+      <c r="AL16" s="454"/>
       <c r="AO16" s="167"/>
       <c r="AR16" s="167"/>
       <c r="AS16" s="167"/>
@@ -17644,55 +17646,55 @@
       <c r="A17" s="222">
         <v>2</v>
       </c>
-      <c r="B17" s="444" t="s">
+      <c r="B17" s="467" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="444"/>
-      <c r="D17" s="444"/>
-      <c r="E17" s="444"/>
-      <c r="F17" s="444"/>
-      <c r="G17" s="444" t="s">
+      <c r="C17" s="467"/>
+      <c r="D17" s="467"/>
+      <c r="E17" s="467"/>
+      <c r="F17" s="467"/>
+      <c r="G17" s="467" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="444"/>
-      <c r="I17" s="444"/>
-      <c r="J17" s="444"/>
-      <c r="K17" s="444"/>
-      <c r="L17" s="445" t="s">
+      <c r="H17" s="467"/>
+      <c r="I17" s="467"/>
+      <c r="J17" s="467"/>
+      <c r="K17" s="467"/>
+      <c r="L17" s="452" t="s">
         <v>203</v>
       </c>
-      <c r="M17" s="446"/>
-      <c r="N17" s="446"/>
-      <c r="O17" s="446"/>
-      <c r="P17" s="447"/>
+      <c r="M17" s="453"/>
+      <c r="N17" s="453"/>
+      <c r="O17" s="453"/>
+      <c r="P17" s="454"/>
       <c r="Q17" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R17" s="221"/>
-      <c r="S17" s="445" t="s">
+      <c r="S17" s="452" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="446"/>
-      <c r="U17" s="446"/>
-      <c r="V17" s="447"/>
+      <c r="T17" s="453"/>
+      <c r="U17" s="453"/>
+      <c r="V17" s="454"/>
       <c r="W17" s="229"/>
       <c r="X17" s="229"/>
-      <c r="Y17" s="464">
+      <c r="Y17" s="455">
         <v>1</v>
       </c>
-      <c r="Z17" s="465"/>
-      <c r="AA17" s="470"/>
-      <c r="AB17" s="471"/>
-      <c r="AC17" s="445"/>
-      <c r="AD17" s="446"/>
-      <c r="AE17" s="447"/>
-      <c r="AF17" s="445"/>
-      <c r="AG17" s="446"/>
-      <c r="AH17" s="446"/>
-      <c r="AI17" s="446"/>
-      <c r="AJ17" s="446"/>
-      <c r="AK17" s="446"/>
-      <c r="AL17" s="447"/>
+      <c r="Z17" s="456"/>
+      <c r="AA17" s="459"/>
+      <c r="AB17" s="460"/>
+      <c r="AC17" s="452"/>
+      <c r="AD17" s="453"/>
+      <c r="AE17" s="454"/>
+      <c r="AF17" s="452"/>
+      <c r="AG17" s="453"/>
+      <c r="AH17" s="453"/>
+      <c r="AI17" s="453"/>
+      <c r="AJ17" s="453"/>
+      <c r="AK17" s="453"/>
+      <c r="AL17" s="454"/>
       <c r="AO17" s="167"/>
       <c r="AR17" s="167"/>
       <c r="AS17" s="167"/>
@@ -17752,55 +17754,55 @@
       <c r="A18" s="222">
         <v>3</v>
       </c>
-      <c r="B18" s="444" t="s">
+      <c r="B18" s="467" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="444"/>
-      <c r="D18" s="444"/>
-      <c r="E18" s="444"/>
-      <c r="F18" s="444"/>
-      <c r="G18" s="444" t="s">
+      <c r="C18" s="467"/>
+      <c r="D18" s="467"/>
+      <c r="E18" s="467"/>
+      <c r="F18" s="467"/>
+      <c r="G18" s="467" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="444"/>
-      <c r="I18" s="444"/>
-      <c r="J18" s="444"/>
-      <c r="K18" s="444"/>
-      <c r="L18" s="445" t="s">
+      <c r="H18" s="467"/>
+      <c r="I18" s="467"/>
+      <c r="J18" s="467"/>
+      <c r="K18" s="467"/>
+      <c r="L18" s="452" t="s">
         <v>138</v>
       </c>
-      <c r="M18" s="446"/>
-      <c r="N18" s="446"/>
-      <c r="O18" s="446"/>
-      <c r="P18" s="447"/>
+      <c r="M18" s="453"/>
+      <c r="N18" s="453"/>
+      <c r="O18" s="453"/>
+      <c r="P18" s="454"/>
       <c r="Q18" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R18" s="221"/>
-      <c r="S18" s="445" t="s">
+      <c r="S18" s="452" t="s">
         <v>33</v>
       </c>
-      <c r="T18" s="446"/>
-      <c r="U18" s="446"/>
-      <c r="V18" s="447"/>
+      <c r="T18" s="453"/>
+      <c r="U18" s="453"/>
+      <c r="V18" s="454"/>
       <c r="W18" s="229"/>
       <c r="X18" s="229"/>
-      <c r="Y18" s="464">
+      <c r="Y18" s="455">
         <v>1</v>
       </c>
-      <c r="Z18" s="465"/>
-      <c r="AA18" s="466"/>
-      <c r="AB18" s="467"/>
-      <c r="AC18" s="445"/>
-      <c r="AD18" s="446"/>
-      <c r="AE18" s="447"/>
-      <c r="AF18" s="445"/>
-      <c r="AG18" s="446"/>
-      <c r="AH18" s="446"/>
-      <c r="AI18" s="446"/>
-      <c r="AJ18" s="446"/>
-      <c r="AK18" s="446"/>
-      <c r="AL18" s="447"/>
+      <c r="Z18" s="456"/>
+      <c r="AA18" s="457"/>
+      <c r="AB18" s="458"/>
+      <c r="AC18" s="452"/>
+      <c r="AD18" s="453"/>
+      <c r="AE18" s="454"/>
+      <c r="AF18" s="452"/>
+      <c r="AG18" s="453"/>
+      <c r="AH18" s="453"/>
+      <c r="AI18" s="453"/>
+      <c r="AJ18" s="453"/>
+      <c r="AK18" s="453"/>
+      <c r="AL18" s="454"/>
       <c r="AO18" s="167"/>
       <c r="AR18" s="167"/>
       <c r="AS18" s="167"/>
@@ -17859,55 +17861,55 @@
       <c r="A19" s="222">
         <v>4</v>
       </c>
-      <c r="B19" s="444" t="s">
+      <c r="B19" s="467" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="444"/>
-      <c r="D19" s="444"/>
-      <c r="E19" s="444"/>
-      <c r="F19" s="444"/>
-      <c r="G19" s="444" t="s">
+      <c r="C19" s="467"/>
+      <c r="D19" s="467"/>
+      <c r="E19" s="467"/>
+      <c r="F19" s="467"/>
+      <c r="G19" s="467" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="444"/>
-      <c r="I19" s="444"/>
-      <c r="J19" s="444"/>
-      <c r="K19" s="444"/>
-      <c r="L19" s="445" t="s">
+      <c r="H19" s="467"/>
+      <c r="I19" s="467"/>
+      <c r="J19" s="467"/>
+      <c r="K19" s="467"/>
+      <c r="L19" s="452" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="446"/>
-      <c r="N19" s="446"/>
-      <c r="O19" s="446"/>
-      <c r="P19" s="447"/>
+      <c r="M19" s="453"/>
+      <c r="N19" s="453"/>
+      <c r="O19" s="453"/>
+      <c r="P19" s="454"/>
       <c r="Q19" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R19" s="221"/>
-      <c r="S19" s="445" t="s">
+      <c r="S19" s="452" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="446"/>
-      <c r="U19" s="446"/>
-      <c r="V19" s="447"/>
+      <c r="T19" s="453"/>
+      <c r="U19" s="453"/>
+      <c r="V19" s="454"/>
       <c r="W19" s="229"/>
       <c r="X19" s="229"/>
-      <c r="Y19" s="464">
+      <c r="Y19" s="455">
         <v>1</v>
       </c>
-      <c r="Z19" s="465"/>
-      <c r="AA19" s="466"/>
-      <c r="AB19" s="467"/>
-      <c r="AC19" s="445"/>
-      <c r="AD19" s="446"/>
-      <c r="AE19" s="447"/>
-      <c r="AF19" s="445"/>
-      <c r="AG19" s="446"/>
-      <c r="AH19" s="446"/>
-      <c r="AI19" s="446"/>
-      <c r="AJ19" s="446"/>
-      <c r="AK19" s="446"/>
-      <c r="AL19" s="447"/>
+      <c r="Z19" s="456"/>
+      <c r="AA19" s="457"/>
+      <c r="AB19" s="458"/>
+      <c r="AC19" s="452"/>
+      <c r="AD19" s="453"/>
+      <c r="AE19" s="454"/>
+      <c r="AF19" s="452"/>
+      <c r="AG19" s="453"/>
+      <c r="AH19" s="453"/>
+      <c r="AI19" s="453"/>
+      <c r="AJ19" s="453"/>
+      <c r="AK19" s="453"/>
+      <c r="AL19" s="454"/>
       <c r="AO19" s="167"/>
       <c r="AR19" s="167"/>
       <c r="AS19" s="167"/>
@@ -18004,18 +18006,18 @@
       <c r="CG20" s="237"/>
     </row>
     <row r="21" spans="1:96" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="458" t="s">
+      <c r="A21" s="461" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="459"/>
-      <c r="C21" s="460"/>
-      <c r="D21" s="461" t="s">
+      <c r="B21" s="462"/>
+      <c r="C21" s="463"/>
+      <c r="D21" s="464" t="s">
         <v>211</v>
       </c>
-      <c r="E21" s="462"/>
-      <c r="F21" s="462"/>
-      <c r="G21" s="462"/>
-      <c r="H21" s="463"/>
+      <c r="E21" s="465"/>
+      <c r="F21" s="465"/>
+      <c r="G21" s="465"/>
+      <c r="H21" s="466"/>
       <c r="I21" s="238"/>
       <c r="J21" s="238"/>
       <c r="K21" s="238"/>
@@ -18045,18 +18047,18 @@
       <c r="CG21" s="237"/>
     </row>
     <row r="22" spans="1:96" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="458" t="s">
+      <c r="A22" s="461" t="s">
         <v>206</v>
       </c>
-      <c r="B22" s="459"/>
-      <c r="C22" s="460"/>
-      <c r="D22" s="461" t="s">
+      <c r="B22" s="462"/>
+      <c r="C22" s="463"/>
+      <c r="D22" s="464" t="s">
         <v>212</v>
       </c>
-      <c r="E22" s="462"/>
-      <c r="F22" s="462"/>
-      <c r="G22" s="462"/>
-      <c r="H22" s="463"/>
+      <c r="E22" s="465"/>
+      <c r="F22" s="465"/>
+      <c r="G22" s="465"/>
+      <c r="H22" s="466"/>
       <c r="I22" s="238"/>
       <c r="J22" s="238"/>
       <c r="K22" s="238"/>
@@ -18089,65 +18091,65 @@
       <c r="A23" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="452" t="s">
+      <c r="B23" s="444" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="453"/>
-      <c r="D23" s="453"/>
-      <c r="E23" s="453"/>
-      <c r="F23" s="454"/>
-      <c r="G23" s="452" t="s">
+      <c r="C23" s="445"/>
+      <c r="D23" s="445"/>
+      <c r="E23" s="445"/>
+      <c r="F23" s="446"/>
+      <c r="G23" s="444" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="453"/>
-      <c r="I23" s="453"/>
-      <c r="J23" s="453"/>
-      <c r="K23" s="454"/>
-      <c r="L23" s="452" t="s">
+      <c r="H23" s="445"/>
+      <c r="I23" s="445"/>
+      <c r="J23" s="445"/>
+      <c r="K23" s="446"/>
+      <c r="L23" s="444" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="453"/>
-      <c r="N23" s="453"/>
-      <c r="O23" s="453"/>
-      <c r="P23" s="454"/>
+      <c r="M23" s="445"/>
+      <c r="N23" s="445"/>
+      <c r="O23" s="445"/>
+      <c r="P23" s="446"/>
       <c r="Q23" s="230" t="s">
         <v>61</v>
       </c>
       <c r="R23" s="230" t="s">
         <v>81</v>
       </c>
-      <c r="S23" s="457" t="s">
+      <c r="S23" s="447" t="s">
         <v>67</v>
       </c>
-      <c r="T23" s="457"/>
-      <c r="U23" s="457"/>
-      <c r="V23" s="457"/>
-      <c r="W23" s="478" t="s">
+      <c r="T23" s="447"/>
+      <c r="U23" s="447"/>
+      <c r="V23" s="447"/>
+      <c r="W23" s="448" t="s">
         <v>215</v>
       </c>
-      <c r="X23" s="479"/>
-      <c r="Y23" s="455" t="s">
+      <c r="X23" s="449"/>
+      <c r="Y23" s="450" t="s">
         <v>56</v>
       </c>
-      <c r="Z23" s="456"/>
-      <c r="AA23" s="455" t="s">
+      <c r="Z23" s="451"/>
+      <c r="AA23" s="450" t="s">
         <v>25</v>
       </c>
-      <c r="AB23" s="456"/>
-      <c r="AC23" s="452" t="s">
+      <c r="AB23" s="451"/>
+      <c r="AC23" s="444" t="s">
         <v>60</v>
       </c>
-      <c r="AD23" s="453"/>
-      <c r="AE23" s="454"/>
-      <c r="AF23" s="452" t="s">
+      <c r="AD23" s="445"/>
+      <c r="AE23" s="446"/>
+      <c r="AF23" s="444" t="s">
         <v>57</v>
       </c>
-      <c r="AG23" s="453"/>
-      <c r="AH23" s="453"/>
-      <c r="AI23" s="453"/>
-      <c r="AJ23" s="453"/>
-      <c r="AK23" s="453"/>
-      <c r="AL23" s="454"/>
+      <c r="AG23" s="445"/>
+      <c r="AH23" s="445"/>
+      <c r="AI23" s="445"/>
+      <c r="AJ23" s="445"/>
+      <c r="AK23" s="445"/>
+      <c r="AL23" s="446"/>
       <c r="AO23" s="76"/>
       <c r="AP23" s="76"/>
       <c r="AR23" s="76"/>
@@ -18208,55 +18210,55 @@
       <c r="A24" s="222">
         <v>1</v>
       </c>
-      <c r="B24" s="444" t="s">
+      <c r="B24" s="467" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="444"/>
-      <c r="D24" s="444"/>
-      <c r="E24" s="444"/>
-      <c r="F24" s="444"/>
-      <c r="G24" s="444" t="s">
+      <c r="C24" s="467"/>
+      <c r="D24" s="467"/>
+      <c r="E24" s="467"/>
+      <c r="F24" s="467"/>
+      <c r="G24" s="467" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="444"/>
-      <c r="I24" s="444"/>
-      <c r="J24" s="444"/>
-      <c r="K24" s="444"/>
-      <c r="L24" s="445" t="s">
+      <c r="H24" s="467"/>
+      <c r="I24" s="467"/>
+      <c r="J24" s="467"/>
+      <c r="K24" s="467"/>
+      <c r="L24" s="452" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="446"/>
-      <c r="N24" s="446"/>
-      <c r="O24" s="446"/>
-      <c r="P24" s="447"/>
+      <c r="M24" s="453"/>
+      <c r="N24" s="453"/>
+      <c r="O24" s="453"/>
+      <c r="P24" s="454"/>
       <c r="Q24" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R24" s="221" t="s">
         <v>157</v>
       </c>
-      <c r="S24" s="445" t="s">
+      <c r="S24" s="452" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="446"/>
-      <c r="U24" s="446"/>
-      <c r="V24" s="447"/>
+      <c r="T24" s="453"/>
+      <c r="U24" s="453"/>
+      <c r="V24" s="454"/>
       <c r="W24" s="229"/>
       <c r="X24" s="229"/>
-      <c r="Y24" s="468"/>
-      <c r="Z24" s="469"/>
-      <c r="AA24" s="466"/>
-      <c r="AB24" s="467"/>
-      <c r="AC24" s="445"/>
-      <c r="AD24" s="446"/>
-      <c r="AE24" s="447"/>
-      <c r="AF24" s="445"/>
-      <c r="AG24" s="446"/>
-      <c r="AH24" s="446"/>
-      <c r="AI24" s="446"/>
-      <c r="AJ24" s="446"/>
-      <c r="AK24" s="446"/>
-      <c r="AL24" s="447"/>
+      <c r="Y24" s="474"/>
+      <c r="Z24" s="475"/>
+      <c r="AA24" s="457"/>
+      <c r="AB24" s="458"/>
+      <c r="AC24" s="452"/>
+      <c r="AD24" s="453"/>
+      <c r="AE24" s="454"/>
+      <c r="AF24" s="452"/>
+      <c r="AG24" s="453"/>
+      <c r="AH24" s="453"/>
+      <c r="AI24" s="453"/>
+      <c r="AJ24" s="453"/>
+      <c r="AK24" s="453"/>
+      <c r="AL24" s="454"/>
       <c r="AO24" s="167"/>
       <c r="AR24" s="167"/>
       <c r="AS24" s="167"/>
@@ -18315,55 +18317,55 @@
       <c r="A25" s="222">
         <v>2</v>
       </c>
-      <c r="B25" s="444" t="s">
+      <c r="B25" s="467" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="444"/>
-      <c r="D25" s="444"/>
-      <c r="E25" s="444"/>
-      <c r="F25" s="444"/>
-      <c r="G25" s="444" t="s">
+      <c r="C25" s="467"/>
+      <c r="D25" s="467"/>
+      <c r="E25" s="467"/>
+      <c r="F25" s="467"/>
+      <c r="G25" s="467" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="444"/>
-      <c r="I25" s="444"/>
-      <c r="J25" s="444"/>
-      <c r="K25" s="444"/>
-      <c r="L25" s="445" t="s">
+      <c r="H25" s="467"/>
+      <c r="I25" s="467"/>
+      <c r="J25" s="467"/>
+      <c r="K25" s="467"/>
+      <c r="L25" s="452" t="s">
         <v>141</v>
       </c>
-      <c r="M25" s="446"/>
-      <c r="N25" s="446"/>
-      <c r="O25" s="446"/>
-      <c r="P25" s="447"/>
+      <c r="M25" s="453"/>
+      <c r="N25" s="453"/>
+      <c r="O25" s="453"/>
+      <c r="P25" s="454"/>
       <c r="Q25" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R25" s="221"/>
-      <c r="S25" s="445" t="s">
+      <c r="S25" s="452" t="s">
         <v>33</v>
       </c>
-      <c r="T25" s="446"/>
-      <c r="U25" s="446"/>
-      <c r="V25" s="447"/>
+      <c r="T25" s="453"/>
+      <c r="U25" s="453"/>
+      <c r="V25" s="454"/>
       <c r="W25" s="229"/>
       <c r="X25" s="229"/>
-      <c r="Y25" s="464">
+      <c r="Y25" s="455">
         <v>1</v>
       </c>
-      <c r="Z25" s="465"/>
-      <c r="AA25" s="470"/>
-      <c r="AB25" s="471"/>
-      <c r="AC25" s="445"/>
-      <c r="AD25" s="446"/>
-      <c r="AE25" s="447"/>
-      <c r="AF25" s="445"/>
-      <c r="AG25" s="446"/>
-      <c r="AH25" s="446"/>
-      <c r="AI25" s="446"/>
-      <c r="AJ25" s="446"/>
-      <c r="AK25" s="446"/>
-      <c r="AL25" s="447"/>
+      <c r="Z25" s="456"/>
+      <c r="AA25" s="459"/>
+      <c r="AB25" s="460"/>
+      <c r="AC25" s="452"/>
+      <c r="AD25" s="453"/>
+      <c r="AE25" s="454"/>
+      <c r="AF25" s="452"/>
+      <c r="AG25" s="453"/>
+      <c r="AH25" s="453"/>
+      <c r="AI25" s="453"/>
+      <c r="AJ25" s="453"/>
+      <c r="AK25" s="453"/>
+      <c r="AL25" s="454"/>
       <c r="AO25" s="167"/>
       <c r="AR25" s="167"/>
       <c r="AS25" s="167"/>
@@ -18422,55 +18424,55 @@
       <c r="A26" s="222">
         <v>3</v>
       </c>
-      <c r="B26" s="444" t="s">
+      <c r="B26" s="467" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="444"/>
-      <c r="D26" s="444"/>
-      <c r="E26" s="444"/>
-      <c r="F26" s="444"/>
-      <c r="G26" s="444" t="s">
+      <c r="C26" s="467"/>
+      <c r="D26" s="467"/>
+      <c r="E26" s="467"/>
+      <c r="F26" s="467"/>
+      <c r="G26" s="467" t="s">
         <v>121</v>
       </c>
-      <c r="H26" s="444"/>
-      <c r="I26" s="444"/>
-      <c r="J26" s="444"/>
-      <c r="K26" s="444"/>
-      <c r="L26" s="445" t="s">
+      <c r="H26" s="467"/>
+      <c r="I26" s="467"/>
+      <c r="J26" s="467"/>
+      <c r="K26" s="467"/>
+      <c r="L26" s="452" t="s">
         <v>142</v>
       </c>
-      <c r="M26" s="446"/>
-      <c r="N26" s="446"/>
-      <c r="O26" s="446"/>
-      <c r="P26" s="447"/>
+      <c r="M26" s="453"/>
+      <c r="N26" s="453"/>
+      <c r="O26" s="453"/>
+      <c r="P26" s="454"/>
       <c r="Q26" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R26" s="221"/>
-      <c r="S26" s="445" t="s">
+      <c r="S26" s="452" t="s">
         <v>34</v>
       </c>
-      <c r="T26" s="446"/>
-      <c r="U26" s="446"/>
-      <c r="V26" s="447"/>
+      <c r="T26" s="453"/>
+      <c r="U26" s="453"/>
+      <c r="V26" s="454"/>
       <c r="W26" s="229"/>
       <c r="X26" s="229"/>
-      <c r="Y26" s="464">
+      <c r="Y26" s="455">
         <v>1</v>
       </c>
-      <c r="Z26" s="465"/>
-      <c r="AA26" s="470"/>
-      <c r="AB26" s="471"/>
-      <c r="AC26" s="445"/>
-      <c r="AD26" s="446"/>
-      <c r="AE26" s="447"/>
-      <c r="AF26" s="445"/>
-      <c r="AG26" s="446"/>
-      <c r="AH26" s="446"/>
-      <c r="AI26" s="446"/>
-      <c r="AJ26" s="446"/>
-      <c r="AK26" s="446"/>
-      <c r="AL26" s="447"/>
+      <c r="Z26" s="456"/>
+      <c r="AA26" s="459"/>
+      <c r="AB26" s="460"/>
+      <c r="AC26" s="452"/>
+      <c r="AD26" s="453"/>
+      <c r="AE26" s="454"/>
+      <c r="AF26" s="452"/>
+      <c r="AG26" s="453"/>
+      <c r="AH26" s="453"/>
+      <c r="AI26" s="453"/>
+      <c r="AJ26" s="453"/>
+      <c r="AK26" s="453"/>
+      <c r="AL26" s="454"/>
       <c r="CD26" s="76"/>
       <c r="CE26" s="76"/>
       <c r="CF26" s="76"/>
@@ -18491,53 +18493,53 @@
       <c r="A27" s="222">
         <v>4</v>
       </c>
-      <c r="B27" s="444" t="s">
+      <c r="B27" s="467" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="444"/>
-      <c r="D27" s="444"/>
-      <c r="E27" s="444"/>
-      <c r="F27" s="444"/>
-      <c r="G27" s="444" t="s">
+      <c r="C27" s="467"/>
+      <c r="D27" s="467"/>
+      <c r="E27" s="467"/>
+      <c r="F27" s="467"/>
+      <c r="G27" s="467" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="444"/>
-      <c r="I27" s="444"/>
-      <c r="J27" s="444"/>
-      <c r="K27" s="444"/>
-      <c r="L27" s="445" t="s">
+      <c r="H27" s="467"/>
+      <c r="I27" s="467"/>
+      <c r="J27" s="467"/>
+      <c r="K27" s="467"/>
+      <c r="L27" s="452" t="s">
         <v>143</v>
       </c>
-      <c r="M27" s="446"/>
-      <c r="N27" s="446"/>
-      <c r="O27" s="446"/>
-      <c r="P27" s="447"/>
+      <c r="M27" s="453"/>
+      <c r="N27" s="453"/>
+      <c r="O27" s="453"/>
+      <c r="P27" s="454"/>
       <c r="Q27" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R27" s="221"/>
-      <c r="S27" s="445" t="s">
+      <c r="S27" s="452" t="s">
         <v>27</v>
       </c>
-      <c r="T27" s="446"/>
-      <c r="U27" s="446"/>
-      <c r="V27" s="447"/>
+      <c r="T27" s="453"/>
+      <c r="U27" s="453"/>
+      <c r="V27" s="454"/>
       <c r="W27" s="229"/>
       <c r="X27" s="229"/>
-      <c r="Y27" s="468"/>
-      <c r="Z27" s="469"/>
-      <c r="AA27" s="470"/>
-      <c r="AB27" s="471"/>
-      <c r="AC27" s="445"/>
-      <c r="AD27" s="446"/>
-      <c r="AE27" s="447"/>
-      <c r="AF27" s="445"/>
-      <c r="AG27" s="446"/>
-      <c r="AH27" s="446"/>
-      <c r="AI27" s="446"/>
-      <c r="AJ27" s="446"/>
-      <c r="AK27" s="446"/>
-      <c r="AL27" s="447"/>
+      <c r="Y27" s="474"/>
+      <c r="Z27" s="475"/>
+      <c r="AA27" s="459"/>
+      <c r="AB27" s="460"/>
+      <c r="AC27" s="452"/>
+      <c r="AD27" s="453"/>
+      <c r="AE27" s="454"/>
+      <c r="AF27" s="452"/>
+      <c r="AG27" s="453"/>
+      <c r="AH27" s="453"/>
+      <c r="AI27" s="453"/>
+      <c r="AJ27" s="453"/>
+      <c r="AK27" s="453"/>
+      <c r="AL27" s="454"/>
       <c r="CD27" s="76"/>
       <c r="CE27" s="76"/>
       <c r="CF27" s="76"/>
@@ -18558,53 +18560,53 @@
       <c r="A28" s="222">
         <v>5</v>
       </c>
-      <c r="B28" s="444" t="s">
+      <c r="B28" s="467" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="444"/>
-      <c r="D28" s="444"/>
-      <c r="E28" s="444"/>
-      <c r="F28" s="444"/>
-      <c r="G28" s="444" t="s">
+      <c r="C28" s="467"/>
+      <c r="D28" s="467"/>
+      <c r="E28" s="467"/>
+      <c r="F28" s="467"/>
+      <c r="G28" s="467" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="444"/>
-      <c r="I28" s="444"/>
-      <c r="J28" s="444"/>
-      <c r="K28" s="444"/>
-      <c r="L28" s="445" t="s">
+      <c r="H28" s="467"/>
+      <c r="I28" s="467"/>
+      <c r="J28" s="467"/>
+      <c r="K28" s="467"/>
+      <c r="L28" s="452" t="s">
         <v>144</v>
       </c>
-      <c r="M28" s="446"/>
-      <c r="N28" s="446"/>
-      <c r="O28" s="446"/>
-      <c r="P28" s="447"/>
+      <c r="M28" s="453"/>
+      <c r="N28" s="453"/>
+      <c r="O28" s="453"/>
+      <c r="P28" s="454"/>
       <c r="Q28" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R28" s="221"/>
-      <c r="S28" s="445" t="s">
+      <c r="S28" s="452" t="s">
         <v>33</v>
       </c>
-      <c r="T28" s="446"/>
-      <c r="U28" s="446"/>
-      <c r="V28" s="447"/>
+      <c r="T28" s="453"/>
+      <c r="U28" s="453"/>
+      <c r="V28" s="454"/>
       <c r="W28" s="229"/>
       <c r="X28" s="229"/>
-      <c r="Y28" s="468"/>
-      <c r="Z28" s="469"/>
-      <c r="AA28" s="470"/>
-      <c r="AB28" s="471"/>
-      <c r="AC28" s="445"/>
-      <c r="AD28" s="446"/>
-      <c r="AE28" s="447"/>
-      <c r="AF28" s="445"/>
-      <c r="AG28" s="446"/>
-      <c r="AH28" s="446"/>
-      <c r="AI28" s="446"/>
-      <c r="AJ28" s="446"/>
-      <c r="AK28" s="446"/>
-      <c r="AL28" s="447"/>
+      <c r="Y28" s="474"/>
+      <c r="Z28" s="475"/>
+      <c r="AA28" s="459"/>
+      <c r="AB28" s="460"/>
+      <c r="AC28" s="452"/>
+      <c r="AD28" s="453"/>
+      <c r="AE28" s="454"/>
+      <c r="AF28" s="452"/>
+      <c r="AG28" s="453"/>
+      <c r="AH28" s="453"/>
+      <c r="AI28" s="453"/>
+      <c r="AJ28" s="453"/>
+      <c r="AK28" s="453"/>
+      <c r="AL28" s="454"/>
       <c r="CD28" s="76"/>
       <c r="CE28" s="76"/>
       <c r="CF28" s="76"/>
@@ -18625,55 +18627,55 @@
       <c r="A29" s="222">
         <v>6</v>
       </c>
-      <c r="B29" s="444" t="s">
+      <c r="B29" s="467" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="444"/>
-      <c r="D29" s="444"/>
-      <c r="E29" s="444"/>
-      <c r="F29" s="444"/>
-      <c r="G29" s="444" t="s">
+      <c r="C29" s="467"/>
+      <c r="D29" s="467"/>
+      <c r="E29" s="467"/>
+      <c r="F29" s="467"/>
+      <c r="G29" s="467" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="444"/>
-      <c r="I29" s="444"/>
-      <c r="J29" s="444"/>
-      <c r="K29" s="444"/>
-      <c r="L29" s="445" t="s">
+      <c r="H29" s="467"/>
+      <c r="I29" s="467"/>
+      <c r="J29" s="467"/>
+      <c r="K29" s="467"/>
+      <c r="L29" s="452" t="s">
         <v>145</v>
       </c>
-      <c r="M29" s="446"/>
-      <c r="N29" s="446"/>
-      <c r="O29" s="446"/>
-      <c r="P29" s="447"/>
+      <c r="M29" s="453"/>
+      <c r="N29" s="453"/>
+      <c r="O29" s="453"/>
+      <c r="P29" s="454"/>
       <c r="Q29" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R29" s="221"/>
-      <c r="S29" s="445" t="s">
+      <c r="S29" s="452" t="s">
         <v>33</v>
       </c>
-      <c r="T29" s="446"/>
-      <c r="U29" s="446"/>
-      <c r="V29" s="447"/>
+      <c r="T29" s="453"/>
+      <c r="U29" s="453"/>
+      <c r="V29" s="454"/>
       <c r="W29" s="229"/>
       <c r="X29" s="229"/>
-      <c r="Y29" s="464">
+      <c r="Y29" s="455">
         <v>1</v>
       </c>
-      <c r="Z29" s="465"/>
-      <c r="AA29" s="470"/>
-      <c r="AB29" s="471"/>
-      <c r="AC29" s="445"/>
-      <c r="AD29" s="446"/>
-      <c r="AE29" s="447"/>
-      <c r="AF29" s="445"/>
-      <c r="AG29" s="446"/>
-      <c r="AH29" s="446"/>
-      <c r="AI29" s="446"/>
-      <c r="AJ29" s="446"/>
-      <c r="AK29" s="446"/>
-      <c r="AL29" s="447"/>
+      <c r="Z29" s="456"/>
+      <c r="AA29" s="459"/>
+      <c r="AB29" s="460"/>
+      <c r="AC29" s="452"/>
+      <c r="AD29" s="453"/>
+      <c r="AE29" s="454"/>
+      <c r="AF29" s="452"/>
+      <c r="AG29" s="453"/>
+      <c r="AH29" s="453"/>
+      <c r="AI29" s="453"/>
+      <c r="AJ29" s="453"/>
+      <c r="AK29" s="453"/>
+      <c r="AL29" s="454"/>
       <c r="CD29" s="76"/>
       <c r="CE29" s="76"/>
       <c r="CF29" s="76"/>
@@ -18694,53 +18696,53 @@
       <c r="A30" s="222">
         <v>7</v>
       </c>
-      <c r="B30" s="444" t="s">
+      <c r="B30" s="467" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="444"/>
-      <c r="D30" s="444"/>
-      <c r="E30" s="444"/>
-      <c r="F30" s="444"/>
-      <c r="G30" s="444" t="s">
+      <c r="C30" s="467"/>
+      <c r="D30" s="467"/>
+      <c r="E30" s="467"/>
+      <c r="F30" s="467"/>
+      <c r="G30" s="467" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="444"/>
-      <c r="I30" s="444"/>
-      <c r="J30" s="444"/>
-      <c r="K30" s="444"/>
-      <c r="L30" s="445"/>
-      <c r="M30" s="446"/>
-      <c r="N30" s="446"/>
-      <c r="O30" s="446"/>
-      <c r="P30" s="447"/>
+      <c r="H30" s="467"/>
+      <c r="I30" s="467"/>
+      <c r="J30" s="467"/>
+      <c r="K30" s="467"/>
+      <c r="L30" s="452"/>
+      <c r="M30" s="453"/>
+      <c r="N30" s="453"/>
+      <c r="O30" s="453"/>
+      <c r="P30" s="454"/>
       <c r="Q30" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R30" s="221"/>
-      <c r="S30" s="445" t="s">
+      <c r="S30" s="452" t="s">
         <v>158</v>
       </c>
-      <c r="T30" s="446"/>
-      <c r="U30" s="446"/>
-      <c r="V30" s="447"/>
+      <c r="T30" s="453"/>
+      <c r="U30" s="453"/>
+      <c r="V30" s="454"/>
       <c r="W30" s="229"/>
       <c r="X30" s="229"/>
-      <c r="Y30" s="464">
+      <c r="Y30" s="455">
         <v>1</v>
       </c>
-      <c r="Z30" s="465"/>
-      <c r="AA30" s="470"/>
-      <c r="AB30" s="471"/>
-      <c r="AC30" s="445"/>
-      <c r="AD30" s="446"/>
-      <c r="AE30" s="447"/>
-      <c r="AF30" s="445"/>
-      <c r="AG30" s="446"/>
-      <c r="AH30" s="446"/>
-      <c r="AI30" s="446"/>
-      <c r="AJ30" s="446"/>
-      <c r="AK30" s="446"/>
-      <c r="AL30" s="447"/>
+      <c r="Z30" s="456"/>
+      <c r="AA30" s="459"/>
+      <c r="AB30" s="460"/>
+      <c r="AC30" s="452"/>
+      <c r="AD30" s="453"/>
+      <c r="AE30" s="454"/>
+      <c r="AF30" s="452"/>
+      <c r="AG30" s="453"/>
+      <c r="AH30" s="453"/>
+      <c r="AI30" s="453"/>
+      <c r="AJ30" s="453"/>
+      <c r="AK30" s="453"/>
+      <c r="AL30" s="454"/>
       <c r="CD30" s="76"/>
       <c r="CE30" s="76"/>
       <c r="CF30" s="76"/>
@@ -18761,55 +18763,55 @@
       <c r="A31" s="222">
         <v>8</v>
       </c>
-      <c r="B31" s="444" t="s">
+      <c r="B31" s="467" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="444"/>
-      <c r="D31" s="444"/>
-      <c r="E31" s="444"/>
-      <c r="F31" s="444"/>
-      <c r="G31" s="444" t="s">
+      <c r="C31" s="467"/>
+      <c r="D31" s="467"/>
+      <c r="E31" s="467"/>
+      <c r="F31" s="467"/>
+      <c r="G31" s="467" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="444"/>
-      <c r="I31" s="444"/>
-      <c r="J31" s="444"/>
-      <c r="K31" s="444"/>
-      <c r="L31" s="445" t="s">
+      <c r="H31" s="467"/>
+      <c r="I31" s="467"/>
+      <c r="J31" s="467"/>
+      <c r="K31" s="467"/>
+      <c r="L31" s="452" t="s">
         <v>146</v>
       </c>
-      <c r="M31" s="446"/>
-      <c r="N31" s="446"/>
-      <c r="O31" s="446"/>
-      <c r="P31" s="447"/>
+      <c r="M31" s="453"/>
+      <c r="N31" s="453"/>
+      <c r="O31" s="453"/>
+      <c r="P31" s="454"/>
       <c r="Q31" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R31" s="221"/>
-      <c r="S31" s="445" t="s">
+      <c r="S31" s="452" t="s">
         <v>32</v>
       </c>
-      <c r="T31" s="446"/>
-      <c r="U31" s="446"/>
-      <c r="V31" s="447"/>
+      <c r="T31" s="453"/>
+      <c r="U31" s="453"/>
+      <c r="V31" s="454"/>
       <c r="W31" s="229"/>
       <c r="X31" s="229"/>
-      <c r="Y31" s="464">
+      <c r="Y31" s="455">
         <v>1</v>
       </c>
-      <c r="Z31" s="465"/>
-      <c r="AA31" s="470"/>
-      <c r="AB31" s="471"/>
-      <c r="AC31" s="445"/>
-      <c r="AD31" s="446"/>
-      <c r="AE31" s="447"/>
-      <c r="AF31" s="445"/>
-      <c r="AG31" s="446"/>
-      <c r="AH31" s="446"/>
-      <c r="AI31" s="446"/>
-      <c r="AJ31" s="446"/>
-      <c r="AK31" s="446"/>
-      <c r="AL31" s="447"/>
+      <c r="Z31" s="456"/>
+      <c r="AA31" s="459"/>
+      <c r="AB31" s="460"/>
+      <c r="AC31" s="452"/>
+      <c r="AD31" s="453"/>
+      <c r="AE31" s="454"/>
+      <c r="AF31" s="452"/>
+      <c r="AG31" s="453"/>
+      <c r="AH31" s="453"/>
+      <c r="AI31" s="453"/>
+      <c r="AJ31" s="453"/>
+      <c r="AK31" s="453"/>
+      <c r="AL31" s="454"/>
       <c r="CD31" s="76"/>
       <c r="CE31" s="76"/>
       <c r="CF31" s="76"/>
@@ -18830,53 +18832,53 @@
       <c r="A32" s="222">
         <v>9</v>
       </c>
-      <c r="B32" s="444" t="s">
+      <c r="B32" s="467" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="444"/>
-      <c r="D32" s="444"/>
-      <c r="E32" s="444"/>
-      <c r="F32" s="444"/>
-      <c r="G32" s="444" t="s">
+      <c r="C32" s="467"/>
+      <c r="D32" s="467"/>
+      <c r="E32" s="467"/>
+      <c r="F32" s="467"/>
+      <c r="G32" s="467" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="444"/>
-      <c r="I32" s="444"/>
-      <c r="J32" s="444"/>
-      <c r="K32" s="444"/>
-      <c r="L32" s="445" t="s">
+      <c r="H32" s="467"/>
+      <c r="I32" s="467"/>
+      <c r="J32" s="467"/>
+      <c r="K32" s="467"/>
+      <c r="L32" s="452" t="s">
         <v>147</v>
       </c>
-      <c r="M32" s="446"/>
-      <c r="N32" s="446"/>
-      <c r="O32" s="446"/>
-      <c r="P32" s="447"/>
+      <c r="M32" s="453"/>
+      <c r="N32" s="453"/>
+      <c r="O32" s="453"/>
+      <c r="P32" s="454"/>
       <c r="Q32" s="221"/>
       <c r="R32" s="221"/>
-      <c r="S32" s="445" t="s">
+      <c r="S32" s="452" t="s">
         <v>37</v>
       </c>
-      <c r="T32" s="446"/>
-      <c r="U32" s="446"/>
-      <c r="V32" s="447"/>
+      <c r="T32" s="453"/>
+      <c r="U32" s="453"/>
+      <c r="V32" s="454"/>
       <c r="W32" s="229"/>
       <c r="X32" s="229"/>
-      <c r="Y32" s="464">
+      <c r="Y32" s="455">
         <v>1</v>
       </c>
-      <c r="Z32" s="465"/>
-      <c r="AA32" s="470"/>
-      <c r="AB32" s="471"/>
-      <c r="AC32" s="445"/>
-      <c r="AD32" s="446"/>
-      <c r="AE32" s="447"/>
-      <c r="AF32" s="445"/>
-      <c r="AG32" s="446"/>
-      <c r="AH32" s="446"/>
-      <c r="AI32" s="446"/>
-      <c r="AJ32" s="446"/>
-      <c r="AK32" s="446"/>
-      <c r="AL32" s="447"/>
+      <c r="Z32" s="456"/>
+      <c r="AA32" s="459"/>
+      <c r="AB32" s="460"/>
+      <c r="AC32" s="452"/>
+      <c r="AD32" s="453"/>
+      <c r="AE32" s="454"/>
+      <c r="AF32" s="452"/>
+      <c r="AG32" s="453"/>
+      <c r="AH32" s="453"/>
+      <c r="AI32" s="453"/>
+      <c r="AJ32" s="453"/>
+      <c r="AK32" s="453"/>
+      <c r="AL32" s="454"/>
       <c r="CD32" s="76"/>
       <c r="CE32" s="76"/>
       <c r="CF32" s="76"/>
@@ -18897,53 +18899,53 @@
       <c r="A33" s="222">
         <v>10</v>
       </c>
-      <c r="B33" s="444" t="s">
+      <c r="B33" s="467" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="444"/>
-      <c r="D33" s="444"/>
-      <c r="E33" s="444"/>
-      <c r="F33" s="444"/>
-      <c r="G33" s="444" t="s">
+      <c r="C33" s="467"/>
+      <c r="D33" s="467"/>
+      <c r="E33" s="467"/>
+      <c r="F33" s="467"/>
+      <c r="G33" s="467" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="444"/>
-      <c r="I33" s="444"/>
-      <c r="J33" s="444"/>
-      <c r="K33" s="444"/>
-      <c r="L33" s="445" t="s">
+      <c r="H33" s="467"/>
+      <c r="I33" s="467"/>
+      <c r="J33" s="467"/>
+      <c r="K33" s="467"/>
+      <c r="L33" s="452" t="s">
         <v>148</v>
       </c>
-      <c r="M33" s="446"/>
-      <c r="N33" s="446"/>
-      <c r="O33" s="446"/>
-      <c r="P33" s="447"/>
+      <c r="M33" s="453"/>
+      <c r="N33" s="453"/>
+      <c r="O33" s="453"/>
+      <c r="P33" s="454"/>
       <c r="Q33" s="221"/>
       <c r="R33" s="221"/>
-      <c r="S33" s="445" t="s">
+      <c r="S33" s="452" t="s">
         <v>37</v>
       </c>
-      <c r="T33" s="446"/>
-      <c r="U33" s="446"/>
-      <c r="V33" s="447"/>
+      <c r="T33" s="453"/>
+      <c r="U33" s="453"/>
+      <c r="V33" s="454"/>
       <c r="W33" s="229"/>
       <c r="X33" s="229"/>
-      <c r="Y33" s="464">
+      <c r="Y33" s="455">
         <v>1</v>
       </c>
-      <c r="Z33" s="465"/>
-      <c r="AA33" s="470"/>
-      <c r="AB33" s="471"/>
-      <c r="AC33" s="445"/>
-      <c r="AD33" s="446"/>
-      <c r="AE33" s="447"/>
-      <c r="AF33" s="445"/>
-      <c r="AG33" s="446"/>
-      <c r="AH33" s="446"/>
-      <c r="AI33" s="446"/>
-      <c r="AJ33" s="446"/>
-      <c r="AK33" s="446"/>
-      <c r="AL33" s="447"/>
+      <c r="Z33" s="456"/>
+      <c r="AA33" s="459"/>
+      <c r="AB33" s="460"/>
+      <c r="AC33" s="452"/>
+      <c r="AD33" s="453"/>
+      <c r="AE33" s="454"/>
+      <c r="AF33" s="452"/>
+      <c r="AG33" s="453"/>
+      <c r="AH33" s="453"/>
+      <c r="AI33" s="453"/>
+      <c r="AJ33" s="453"/>
+      <c r="AK33" s="453"/>
+      <c r="AL33" s="454"/>
       <c r="CD33" s="76"/>
       <c r="CE33" s="76"/>
       <c r="CF33" s="76"/>
@@ -18964,53 +18966,53 @@
       <c r="A34" s="222">
         <v>11</v>
       </c>
-      <c r="B34" s="444" t="s">
+      <c r="B34" s="467" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="444"/>
-      <c r="D34" s="444"/>
-      <c r="E34" s="444"/>
-      <c r="F34" s="444"/>
-      <c r="G34" s="444" t="s">
+      <c r="C34" s="467"/>
+      <c r="D34" s="467"/>
+      <c r="E34" s="467"/>
+      <c r="F34" s="467"/>
+      <c r="G34" s="467" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="444"/>
-      <c r="I34" s="444"/>
-      <c r="J34" s="444"/>
-      <c r="K34" s="444"/>
-      <c r="L34" s="445" t="s">
+      <c r="H34" s="467"/>
+      <c r="I34" s="467"/>
+      <c r="J34" s="467"/>
+      <c r="K34" s="467"/>
+      <c r="L34" s="452" t="s">
         <v>149</v>
       </c>
-      <c r="M34" s="446"/>
-      <c r="N34" s="446"/>
-      <c r="O34" s="446"/>
-      <c r="P34" s="447"/>
+      <c r="M34" s="453"/>
+      <c r="N34" s="453"/>
+      <c r="O34" s="453"/>
+      <c r="P34" s="454"/>
       <c r="Q34" s="221"/>
       <c r="R34" s="221"/>
-      <c r="S34" s="445" t="s">
+      <c r="S34" s="452" t="s">
         <v>37</v>
       </c>
-      <c r="T34" s="446"/>
-      <c r="U34" s="446"/>
-      <c r="V34" s="447"/>
+      <c r="T34" s="453"/>
+      <c r="U34" s="453"/>
+      <c r="V34" s="454"/>
       <c r="W34" s="229"/>
       <c r="X34" s="229"/>
-      <c r="Y34" s="464">
+      <c r="Y34" s="455">
         <v>1</v>
       </c>
-      <c r="Z34" s="465"/>
-      <c r="AA34" s="470"/>
-      <c r="AB34" s="471"/>
-      <c r="AC34" s="445"/>
-      <c r="AD34" s="446"/>
-      <c r="AE34" s="447"/>
-      <c r="AF34" s="445"/>
-      <c r="AG34" s="446"/>
-      <c r="AH34" s="446"/>
-      <c r="AI34" s="446"/>
-      <c r="AJ34" s="446"/>
-      <c r="AK34" s="446"/>
-      <c r="AL34" s="447"/>
+      <c r="Z34" s="456"/>
+      <c r="AA34" s="459"/>
+      <c r="AB34" s="460"/>
+      <c r="AC34" s="452"/>
+      <c r="AD34" s="453"/>
+      <c r="AE34" s="454"/>
+      <c r="AF34" s="452"/>
+      <c r="AG34" s="453"/>
+      <c r="AH34" s="453"/>
+      <c r="AI34" s="453"/>
+      <c r="AJ34" s="453"/>
+      <c r="AK34" s="453"/>
+      <c r="AL34" s="454"/>
       <c r="CD34" s="76"/>
       <c r="CE34" s="76"/>
       <c r="CF34" s="76"/>
@@ -19031,53 +19033,53 @@
       <c r="A35" s="222">
         <v>12</v>
       </c>
-      <c r="B35" s="444" t="s">
+      <c r="B35" s="467" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="444"/>
-      <c r="D35" s="444"/>
-      <c r="E35" s="444"/>
-      <c r="F35" s="444"/>
-      <c r="G35" s="444" t="s">
+      <c r="C35" s="467"/>
+      <c r="D35" s="467"/>
+      <c r="E35" s="467"/>
+      <c r="F35" s="467"/>
+      <c r="G35" s="467" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="444"/>
-      <c r="I35" s="444"/>
-      <c r="J35" s="444"/>
-      <c r="K35" s="444"/>
-      <c r="L35" s="445" t="s">
+      <c r="H35" s="467"/>
+      <c r="I35" s="467"/>
+      <c r="J35" s="467"/>
+      <c r="K35" s="467"/>
+      <c r="L35" s="452" t="s">
         <v>150</v>
       </c>
-      <c r="M35" s="446"/>
-      <c r="N35" s="446"/>
-      <c r="O35" s="446"/>
-      <c r="P35" s="447"/>
+      <c r="M35" s="453"/>
+      <c r="N35" s="453"/>
+      <c r="O35" s="453"/>
+      <c r="P35" s="454"/>
       <c r="Q35" s="221"/>
       <c r="R35" s="221"/>
-      <c r="S35" s="445" t="s">
+      <c r="S35" s="452" t="s">
         <v>53</v>
       </c>
-      <c r="T35" s="446"/>
-      <c r="U35" s="446"/>
-      <c r="V35" s="447"/>
+      <c r="T35" s="453"/>
+      <c r="U35" s="453"/>
+      <c r="V35" s="454"/>
       <c r="W35" s="229"/>
       <c r="X35" s="229"/>
-      <c r="Y35" s="464">
+      <c r="Y35" s="455">
         <v>1</v>
       </c>
-      <c r="Z35" s="465"/>
-      <c r="AA35" s="470"/>
-      <c r="AB35" s="471"/>
-      <c r="AC35" s="445"/>
-      <c r="AD35" s="446"/>
-      <c r="AE35" s="447"/>
-      <c r="AF35" s="445"/>
-      <c r="AG35" s="446"/>
-      <c r="AH35" s="446"/>
-      <c r="AI35" s="446"/>
-      <c r="AJ35" s="446"/>
-      <c r="AK35" s="446"/>
-      <c r="AL35" s="447"/>
+      <c r="Z35" s="456"/>
+      <c r="AA35" s="459"/>
+      <c r="AB35" s="460"/>
+      <c r="AC35" s="452"/>
+      <c r="AD35" s="453"/>
+      <c r="AE35" s="454"/>
+      <c r="AF35" s="452"/>
+      <c r="AG35" s="453"/>
+      <c r="AH35" s="453"/>
+      <c r="AI35" s="453"/>
+      <c r="AJ35" s="453"/>
+      <c r="AK35" s="453"/>
+      <c r="AL35" s="454"/>
       <c r="CD35" s="76"/>
       <c r="CE35" s="76"/>
       <c r="CF35" s="76"/>
@@ -19136,18 +19138,18 @@
       <c r="CG36" s="237"/>
     </row>
     <row r="37" spans="1:97" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="458" t="s">
+      <c r="A37" s="461" t="s">
         <v>205</v>
       </c>
-      <c r="B37" s="459"/>
-      <c r="C37" s="460"/>
-      <c r="D37" s="461" t="s">
+      <c r="B37" s="462"/>
+      <c r="C37" s="463"/>
+      <c r="D37" s="464" t="s">
         <v>213</v>
       </c>
-      <c r="E37" s="462"/>
-      <c r="F37" s="462"/>
-      <c r="G37" s="462"/>
-      <c r="H37" s="463"/>
+      <c r="E37" s="465"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="465"/>
+      <c r="H37" s="466"/>
       <c r="I37" s="238"/>
       <c r="J37" s="238"/>
       <c r="K37" s="238"/>
@@ -19177,18 +19179,18 @@
       <c r="CG37" s="237"/>
     </row>
     <row r="38" spans="1:97" s="105" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="458" t="s">
+      <c r="A38" s="461" t="s">
         <v>206</v>
       </c>
-      <c r="B38" s="459"/>
-      <c r="C38" s="460"/>
-      <c r="D38" s="461" t="s">
+      <c r="B38" s="462"/>
+      <c r="C38" s="463"/>
+      <c r="D38" s="464" t="s">
         <v>214</v>
       </c>
-      <c r="E38" s="462"/>
-      <c r="F38" s="462"/>
-      <c r="G38" s="462"/>
-      <c r="H38" s="463"/>
+      <c r="E38" s="465"/>
+      <c r="F38" s="465"/>
+      <c r="G38" s="465"/>
+      <c r="H38" s="466"/>
       <c r="I38" s="238"/>
       <c r="J38" s="238"/>
       <c r="K38" s="238"/>
@@ -19221,65 +19223,65 @@
       <c r="A39" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="452" t="s">
+      <c r="B39" s="444" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="453"/>
-      <c r="D39" s="453"/>
-      <c r="E39" s="453"/>
-      <c r="F39" s="454"/>
-      <c r="G39" s="452" t="s">
+      <c r="C39" s="445"/>
+      <c r="D39" s="445"/>
+      <c r="E39" s="445"/>
+      <c r="F39" s="446"/>
+      <c r="G39" s="444" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="453"/>
-      <c r="I39" s="453"/>
-      <c r="J39" s="453"/>
-      <c r="K39" s="454"/>
-      <c r="L39" s="452" t="s">
+      <c r="H39" s="445"/>
+      <c r="I39" s="445"/>
+      <c r="J39" s="445"/>
+      <c r="K39" s="446"/>
+      <c r="L39" s="444" t="s">
         <v>55</v>
       </c>
-      <c r="M39" s="453"/>
-      <c r="N39" s="453"/>
-      <c r="O39" s="453"/>
-      <c r="P39" s="454"/>
+      <c r="M39" s="445"/>
+      <c r="N39" s="445"/>
+      <c r="O39" s="445"/>
+      <c r="P39" s="446"/>
       <c r="Q39" s="230" t="s">
         <v>61</v>
       </c>
       <c r="R39" s="230" t="s">
         <v>81</v>
       </c>
-      <c r="S39" s="452" t="s">
+      <c r="S39" s="444" t="s">
         <v>67</v>
       </c>
-      <c r="T39" s="453"/>
-      <c r="U39" s="453"/>
-      <c r="V39" s="454"/>
-      <c r="W39" s="478" t="s">
+      <c r="T39" s="445"/>
+      <c r="U39" s="445"/>
+      <c r="V39" s="446"/>
+      <c r="W39" s="448" t="s">
         <v>215</v>
       </c>
-      <c r="X39" s="479"/>
-      <c r="Y39" s="455" t="s">
+      <c r="X39" s="449"/>
+      <c r="Y39" s="450" t="s">
         <v>56</v>
       </c>
-      <c r="Z39" s="456"/>
-      <c r="AA39" s="455" t="s">
+      <c r="Z39" s="451"/>
+      <c r="AA39" s="450" t="s">
         <v>25</v>
       </c>
-      <c r="AB39" s="456"/>
-      <c r="AC39" s="452" t="s">
+      <c r="AB39" s="451"/>
+      <c r="AC39" s="444" t="s">
         <v>60</v>
       </c>
-      <c r="AD39" s="453"/>
-      <c r="AE39" s="454"/>
-      <c r="AF39" s="452" t="s">
+      <c r="AD39" s="445"/>
+      <c r="AE39" s="446"/>
+      <c r="AF39" s="444" t="s">
         <v>57</v>
       </c>
-      <c r="AG39" s="453"/>
-      <c r="AH39" s="453"/>
-      <c r="AI39" s="453"/>
-      <c r="AJ39" s="453"/>
-      <c r="AK39" s="453"/>
-      <c r="AL39" s="454"/>
+      <c r="AG39" s="445"/>
+      <c r="AH39" s="445"/>
+      <c r="AI39" s="445"/>
+      <c r="AJ39" s="445"/>
+      <c r="AK39" s="445"/>
+      <c r="AL39" s="446"/>
       <c r="AO39" s="76"/>
       <c r="AP39" s="76"/>
       <c r="AR39" s="76"/>
@@ -19340,55 +19342,55 @@
       <c r="A40" s="222">
         <v>1</v>
       </c>
-      <c r="B40" s="444" t="s">
+      <c r="B40" s="467" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="444"/>
-      <c r="D40" s="444"/>
-      <c r="E40" s="444"/>
-      <c r="F40" s="444"/>
-      <c r="G40" s="444" t="s">
+      <c r="C40" s="467"/>
+      <c r="D40" s="467"/>
+      <c r="E40" s="467"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="467" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="444"/>
-      <c r="I40" s="444"/>
-      <c r="J40" s="444"/>
-      <c r="K40" s="444"/>
-      <c r="L40" s="445" t="s">
+      <c r="H40" s="467"/>
+      <c r="I40" s="467"/>
+      <c r="J40" s="467"/>
+      <c r="K40" s="467"/>
+      <c r="L40" s="452" t="s">
         <v>151</v>
       </c>
-      <c r="M40" s="446"/>
-      <c r="N40" s="446"/>
-      <c r="O40" s="446"/>
-      <c r="P40" s="447"/>
+      <c r="M40" s="453"/>
+      <c r="N40" s="453"/>
+      <c r="O40" s="453"/>
+      <c r="P40" s="454"/>
       <c r="Q40" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R40" s="221"/>
-      <c r="S40" s="445" t="s">
+      <c r="S40" s="452" t="s">
         <v>33</v>
       </c>
-      <c r="T40" s="446"/>
-      <c r="U40" s="446"/>
-      <c r="V40" s="447"/>
+      <c r="T40" s="453"/>
+      <c r="U40" s="453"/>
+      <c r="V40" s="454"/>
       <c r="W40" s="229"/>
       <c r="X40" s="229"/>
-      <c r="Y40" s="464">
+      <c r="Y40" s="455">
         <v>1</v>
       </c>
-      <c r="Z40" s="465"/>
-      <c r="AA40" s="470"/>
-      <c r="AB40" s="471"/>
-      <c r="AC40" s="445"/>
-      <c r="AD40" s="446"/>
-      <c r="AE40" s="447"/>
-      <c r="AF40" s="445"/>
-      <c r="AG40" s="446"/>
-      <c r="AH40" s="446"/>
-      <c r="AI40" s="446"/>
-      <c r="AJ40" s="446"/>
-      <c r="AK40" s="446"/>
-      <c r="AL40" s="447"/>
+      <c r="Z40" s="456"/>
+      <c r="AA40" s="459"/>
+      <c r="AB40" s="460"/>
+      <c r="AC40" s="452"/>
+      <c r="AD40" s="453"/>
+      <c r="AE40" s="454"/>
+      <c r="AF40" s="452"/>
+      <c r="AG40" s="453"/>
+      <c r="AH40" s="453"/>
+      <c r="AI40" s="453"/>
+      <c r="AJ40" s="453"/>
+      <c r="AK40" s="453"/>
+      <c r="AL40" s="454"/>
       <c r="CD40" s="76"/>
       <c r="CE40" s="76"/>
       <c r="CF40" s="76"/>
@@ -19409,55 +19411,55 @@
       <c r="A41" s="222">
         <v>2</v>
       </c>
-      <c r="B41" s="444" t="s">
+      <c r="B41" s="467" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="444"/>
-      <c r="D41" s="444"/>
-      <c r="E41" s="444"/>
-      <c r="F41" s="444"/>
-      <c r="G41" s="444" t="s">
+      <c r="C41" s="467"/>
+      <c r="D41" s="467"/>
+      <c r="E41" s="467"/>
+      <c r="F41" s="467"/>
+      <c r="G41" s="467" t="s">
         <v>132</v>
       </c>
-      <c r="H41" s="444"/>
-      <c r="I41" s="444"/>
-      <c r="J41" s="444"/>
-      <c r="K41" s="444"/>
-      <c r="L41" s="445" t="s">
+      <c r="H41" s="467"/>
+      <c r="I41" s="467"/>
+      <c r="J41" s="467"/>
+      <c r="K41" s="467"/>
+      <c r="L41" s="452" t="s">
         <v>152</v>
       </c>
-      <c r="M41" s="446"/>
-      <c r="N41" s="446"/>
-      <c r="O41" s="446"/>
-      <c r="P41" s="447"/>
+      <c r="M41" s="453"/>
+      <c r="N41" s="453"/>
+      <c r="O41" s="453"/>
+      <c r="P41" s="454"/>
       <c r="Q41" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R41" s="221"/>
-      <c r="S41" s="445" t="s">
+      <c r="S41" s="452" t="s">
         <v>33</v>
       </c>
-      <c r="T41" s="446"/>
-      <c r="U41" s="446"/>
-      <c r="V41" s="447"/>
+      <c r="T41" s="453"/>
+      <c r="U41" s="453"/>
+      <c r="V41" s="454"/>
       <c r="W41" s="229"/>
       <c r="X41" s="229"/>
-      <c r="Y41" s="464">
+      <c r="Y41" s="455">
         <v>1</v>
       </c>
-      <c r="Z41" s="465"/>
+      <c r="Z41" s="456"/>
       <c r="AA41" s="223"/>
       <c r="AB41" s="224"/>
       <c r="AC41" s="225"/>
       <c r="AD41" s="226"/>
       <c r="AE41" s="227"/>
-      <c r="AF41" s="445"/>
-      <c r="AG41" s="446"/>
-      <c r="AH41" s="446"/>
-      <c r="AI41" s="446"/>
-      <c r="AJ41" s="446"/>
-      <c r="AK41" s="446"/>
-      <c r="AL41" s="447"/>
+      <c r="AF41" s="452"/>
+      <c r="AG41" s="453"/>
+      <c r="AH41" s="453"/>
+      <c r="AI41" s="453"/>
+      <c r="AJ41" s="453"/>
+      <c r="AK41" s="453"/>
+      <c r="AL41" s="454"/>
       <c r="CD41" s="76"/>
       <c r="CE41" s="76"/>
       <c r="CF41" s="76"/>
@@ -19478,55 +19480,55 @@
       <c r="A42" s="222">
         <v>3</v>
       </c>
-      <c r="B42" s="444" t="s">
+      <c r="B42" s="467" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="444"/>
-      <c r="D42" s="444"/>
-      <c r="E42" s="444"/>
-      <c r="F42" s="444"/>
-      <c r="G42" s="444" t="s">
+      <c r="C42" s="467"/>
+      <c r="D42" s="467"/>
+      <c r="E42" s="467"/>
+      <c r="F42" s="467"/>
+      <c r="G42" s="467" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="444"/>
-      <c r="I42" s="444"/>
-      <c r="J42" s="444"/>
-      <c r="K42" s="444"/>
-      <c r="L42" s="445" t="s">
+      <c r="H42" s="467"/>
+      <c r="I42" s="467"/>
+      <c r="J42" s="467"/>
+      <c r="K42" s="467"/>
+      <c r="L42" s="452" t="s">
         <v>153</v>
       </c>
-      <c r="M42" s="446"/>
-      <c r="N42" s="446"/>
-      <c r="O42" s="446"/>
-      <c r="P42" s="447"/>
+      <c r="M42" s="453"/>
+      <c r="N42" s="453"/>
+      <c r="O42" s="453"/>
+      <c r="P42" s="454"/>
       <c r="Q42" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R42" s="221"/>
-      <c r="S42" s="445" t="s">
+      <c r="S42" s="452" t="s">
         <v>33</v>
       </c>
-      <c r="T42" s="446"/>
-      <c r="U42" s="446"/>
-      <c r="V42" s="447"/>
+      <c r="T42" s="453"/>
+      <c r="U42" s="453"/>
+      <c r="V42" s="454"/>
       <c r="W42" s="229"/>
       <c r="X42" s="229"/>
-      <c r="Y42" s="464">
+      <c r="Y42" s="455">
         <v>1</v>
       </c>
-      <c r="Z42" s="465"/>
+      <c r="Z42" s="456"/>
       <c r="AA42" s="223"/>
       <c r="AB42" s="224"/>
       <c r="AC42" s="225"/>
       <c r="AD42" s="226"/>
       <c r="AE42" s="227"/>
-      <c r="AF42" s="445"/>
-      <c r="AG42" s="446"/>
-      <c r="AH42" s="446"/>
-      <c r="AI42" s="446"/>
-      <c r="AJ42" s="446"/>
-      <c r="AK42" s="446"/>
-      <c r="AL42" s="447"/>
+      <c r="AF42" s="452"/>
+      <c r="AG42" s="453"/>
+      <c r="AH42" s="453"/>
+      <c r="AI42" s="453"/>
+      <c r="AJ42" s="453"/>
+      <c r="AK42" s="453"/>
+      <c r="AL42" s="454"/>
       <c r="CD42" s="76"/>
       <c r="CE42" s="76"/>
       <c r="CF42" s="76"/>
@@ -19547,55 +19549,55 @@
       <c r="A43" s="222">
         <v>4</v>
       </c>
-      <c r="B43" s="444" t="s">
+      <c r="B43" s="467" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="444"/>
-      <c r="D43" s="444"/>
-      <c r="E43" s="444"/>
-      <c r="F43" s="444"/>
-      <c r="G43" s="477" t="s">
+      <c r="C43" s="467"/>
+      <c r="D43" s="467"/>
+      <c r="E43" s="467"/>
+      <c r="F43" s="467"/>
+      <c r="G43" s="469" t="s">
         <v>134</v>
       </c>
-      <c r="H43" s="477"/>
-      <c r="I43" s="477"/>
-      <c r="J43" s="477"/>
-      <c r="K43" s="477"/>
-      <c r="L43" s="445" t="s">
+      <c r="H43" s="469"/>
+      <c r="I43" s="469"/>
+      <c r="J43" s="469"/>
+      <c r="K43" s="469"/>
+      <c r="L43" s="452" t="s">
         <v>154</v>
       </c>
-      <c r="M43" s="446"/>
-      <c r="N43" s="446"/>
-      <c r="O43" s="446"/>
-      <c r="P43" s="447"/>
+      <c r="M43" s="453"/>
+      <c r="N43" s="453"/>
+      <c r="O43" s="453"/>
+      <c r="P43" s="454"/>
       <c r="Q43" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R43" s="221"/>
-      <c r="S43" s="445" t="s">
+      <c r="S43" s="452" t="s">
         <v>34</v>
       </c>
-      <c r="T43" s="446"/>
-      <c r="U43" s="446"/>
-      <c r="V43" s="447"/>
+      <c r="T43" s="453"/>
+      <c r="U43" s="453"/>
+      <c r="V43" s="454"/>
       <c r="W43" s="229"/>
       <c r="X43" s="229"/>
-      <c r="Y43" s="464">
+      <c r="Y43" s="455">
         <v>1</v>
       </c>
-      <c r="Z43" s="465"/>
+      <c r="Z43" s="456"/>
       <c r="AA43" s="223"/>
       <c r="AB43" s="224"/>
       <c r="AC43" s="225"/>
       <c r="AD43" s="226"/>
       <c r="AE43" s="227"/>
-      <c r="AF43" s="445"/>
-      <c r="AG43" s="446"/>
-      <c r="AH43" s="446"/>
-      <c r="AI43" s="446"/>
-      <c r="AJ43" s="446"/>
-      <c r="AK43" s="446"/>
-      <c r="AL43" s="447"/>
+      <c r="AF43" s="452"/>
+      <c r="AG43" s="453"/>
+      <c r="AH43" s="453"/>
+      <c r="AI43" s="453"/>
+      <c r="AJ43" s="453"/>
+      <c r="AK43" s="453"/>
+      <c r="AL43" s="454"/>
       <c r="CD43" s="76"/>
       <c r="CE43" s="76"/>
       <c r="CF43" s="76"/>
@@ -19616,55 +19618,55 @@
       <c r="A44" s="222">
         <v>5</v>
       </c>
-      <c r="B44" s="444" t="s">
+      <c r="B44" s="467" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="444"/>
-      <c r="D44" s="444"/>
-      <c r="E44" s="444"/>
-      <c r="F44" s="444"/>
-      <c r="G44" s="477" t="s">
+      <c r="C44" s="467"/>
+      <c r="D44" s="467"/>
+      <c r="E44" s="467"/>
+      <c r="F44" s="467"/>
+      <c r="G44" s="469" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="477"/>
-      <c r="I44" s="477"/>
-      <c r="J44" s="477"/>
-      <c r="K44" s="477"/>
-      <c r="L44" s="445" t="s">
+      <c r="H44" s="469"/>
+      <c r="I44" s="469"/>
+      <c r="J44" s="469"/>
+      <c r="K44" s="469"/>
+      <c r="L44" s="452" t="s">
         <v>155</v>
       </c>
-      <c r="M44" s="446"/>
-      <c r="N44" s="446"/>
-      <c r="O44" s="446"/>
-      <c r="P44" s="447"/>
+      <c r="M44" s="453"/>
+      <c r="N44" s="453"/>
+      <c r="O44" s="453"/>
+      <c r="P44" s="454"/>
       <c r="Q44" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R44" s="221"/>
-      <c r="S44" s="445" t="s">
+      <c r="S44" s="452" t="s">
         <v>34</v>
       </c>
-      <c r="T44" s="446"/>
-      <c r="U44" s="446"/>
-      <c r="V44" s="447"/>
+      <c r="T44" s="453"/>
+      <c r="U44" s="453"/>
+      <c r="V44" s="454"/>
       <c r="W44" s="229"/>
       <c r="X44" s="229"/>
-      <c r="Y44" s="464">
+      <c r="Y44" s="455">
         <v>1</v>
       </c>
-      <c r="Z44" s="465"/>
+      <c r="Z44" s="456"/>
       <c r="AA44" s="223"/>
       <c r="AB44" s="224"/>
       <c r="AC44" s="225"/>
       <c r="AD44" s="226"/>
       <c r="AE44" s="227"/>
-      <c r="AF44" s="445"/>
-      <c r="AG44" s="446"/>
-      <c r="AH44" s="446"/>
-      <c r="AI44" s="446"/>
-      <c r="AJ44" s="446"/>
-      <c r="AK44" s="446"/>
-      <c r="AL44" s="447"/>
+      <c r="AF44" s="452"/>
+      <c r="AG44" s="453"/>
+      <c r="AH44" s="453"/>
+      <c r="AI44" s="453"/>
+      <c r="AJ44" s="453"/>
+      <c r="AK44" s="453"/>
+      <c r="AL44" s="454"/>
       <c r="CD44" s="76"/>
       <c r="CE44" s="76"/>
       <c r="CF44" s="76"/>
@@ -19685,55 +19687,55 @@
       <c r="A45" s="222">
         <v>6</v>
       </c>
-      <c r="B45" s="444" t="s">
+      <c r="B45" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="444"/>
-      <c r="D45" s="444"/>
-      <c r="E45" s="444"/>
-      <c r="F45" s="444"/>
-      <c r="G45" s="476" t="s">
+      <c r="C45" s="467"/>
+      <c r="D45" s="467"/>
+      <c r="E45" s="467"/>
+      <c r="F45" s="467"/>
+      <c r="G45" s="468" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="476"/>
-      <c r="I45" s="476"/>
-      <c r="J45" s="476"/>
-      <c r="K45" s="476"/>
-      <c r="L45" s="445" t="s">
+      <c r="H45" s="468"/>
+      <c r="I45" s="468"/>
+      <c r="J45" s="468"/>
+      <c r="K45" s="468"/>
+      <c r="L45" s="452" t="s">
         <v>156</v>
       </c>
-      <c r="M45" s="446"/>
-      <c r="N45" s="446"/>
-      <c r="O45" s="446"/>
-      <c r="P45" s="447"/>
+      <c r="M45" s="453"/>
+      <c r="N45" s="453"/>
+      <c r="O45" s="453"/>
+      <c r="P45" s="454"/>
       <c r="Q45" s="221" t="s">
         <v>157</v>
       </c>
       <c r="R45" s="221"/>
-      <c r="S45" s="445" t="s">
+      <c r="S45" s="452" t="s">
         <v>34</v>
       </c>
-      <c r="T45" s="446"/>
-      <c r="U45" s="446"/>
-      <c r="V45" s="447"/>
+      <c r="T45" s="453"/>
+      <c r="U45" s="453"/>
+      <c r="V45" s="454"/>
       <c r="W45" s="229"/>
       <c r="X45" s="229"/>
-      <c r="Y45" s="464">
+      <c r="Y45" s="455">
         <v>1</v>
       </c>
-      <c r="Z45" s="465"/>
+      <c r="Z45" s="456"/>
       <c r="AA45" s="223"/>
       <c r="AB45" s="224"/>
       <c r="AC45" s="225"/>
       <c r="AD45" s="226"/>
       <c r="AE45" s="227"/>
-      <c r="AF45" s="445"/>
-      <c r="AG45" s="446"/>
-      <c r="AH45" s="446"/>
-      <c r="AI45" s="446"/>
-      <c r="AJ45" s="446"/>
-      <c r="AK45" s="446"/>
-      <c r="AL45" s="447"/>
+      <c r="AF45" s="452"/>
+      <c r="AG45" s="453"/>
+      <c r="AH45" s="453"/>
+      <c r="AI45" s="453"/>
+      <c r="AJ45" s="453"/>
+      <c r="AK45" s="453"/>
+      <c r="AL45" s="454"/>
       <c r="CD45" s="76"/>
       <c r="CE45" s="76"/>
       <c r="CF45" s="76"/>
@@ -19775,8 +19777,8 @@
       <c r="V46" s="102"/>
       <c r="W46" s="102"/>
       <c r="X46" s="102"/>
-      <c r="Y46" s="475"/>
-      <c r="Z46" s="475"/>
+      <c r="Y46" s="473"/>
+      <c r="Z46" s="473"/>
       <c r="AA46" s="103"/>
       <c r="AB46" s="100"/>
       <c r="AC46" s="100"/>
@@ -19855,61 +19857,61 @@
       <c r="CQ47" s="107"/>
     </row>
     <row r="48" spans="1:97" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="451" t="s">
+      <c r="A48" s="479" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="451"/>
-      <c r="C48" s="451"/>
-      <c r="D48" s="451"/>
-      <c r="E48" s="451"/>
-      <c r="F48" s="451"/>
-      <c r="G48" s="451"/>
-      <c r="H48" s="451"/>
-      <c r="I48" s="451"/>
-      <c r="J48" s="451"/>
-      <c r="K48" s="451"/>
-      <c r="L48" s="451"/>
-      <c r="M48" s="451"/>
-      <c r="N48" s="451"/>
-      <c r="O48" s="451"/>
-      <c r="P48" s="451"/>
-      <c r="Q48" s="451"/>
-      <c r="R48" s="451"/>
-      <c r="S48" s="451"/>
-      <c r="T48" s="451"/>
-      <c r="U48" s="451"/>
-      <c r="V48" s="451"/>
-      <c r="W48" s="451"/>
-      <c r="X48" s="451"/>
-      <c r="Y48" s="448" t="s">
+      <c r="B48" s="479"/>
+      <c r="C48" s="479"/>
+      <c r="D48" s="479"/>
+      <c r="E48" s="479"/>
+      <c r="F48" s="479"/>
+      <c r="G48" s="479"/>
+      <c r="H48" s="479"/>
+      <c r="I48" s="479"/>
+      <c r="J48" s="479"/>
+      <c r="K48" s="479"/>
+      <c r="L48" s="479"/>
+      <c r="M48" s="479"/>
+      <c r="N48" s="479"/>
+      <c r="O48" s="479"/>
+      <c r="P48" s="479"/>
+      <c r="Q48" s="479"/>
+      <c r="R48" s="479"/>
+      <c r="S48" s="479"/>
+      <c r="T48" s="479"/>
+      <c r="U48" s="479"/>
+      <c r="V48" s="479"/>
+      <c r="W48" s="479"/>
+      <c r="X48" s="479"/>
+      <c r="Y48" s="476" t="s">
         <v>82</v>
       </c>
-      <c r="Z48" s="449"/>
-      <c r="AA48" s="449"/>
-      <c r="AB48" s="449"/>
-      <c r="AC48" s="449"/>
-      <c r="AD48" s="449"/>
-      <c r="AE48" s="449"/>
-      <c r="AF48" s="449"/>
-      <c r="AG48" s="449"/>
-      <c r="AH48" s="449"/>
-      <c r="AI48" s="449"/>
-      <c r="AJ48" s="449"/>
-      <c r="AK48" s="450"/>
+      <c r="Z48" s="477"/>
+      <c r="AA48" s="477"/>
+      <c r="AB48" s="477"/>
+      <c r="AC48" s="477"/>
+      <c r="AD48" s="477"/>
+      <c r="AE48" s="477"/>
+      <c r="AF48" s="477"/>
+      <c r="AG48" s="477"/>
+      <c r="AH48" s="477"/>
+      <c r="AI48" s="477"/>
+      <c r="AJ48" s="477"/>
+      <c r="AK48" s="478"/>
     </row>
     <row r="49" spans="1:95" ht="15" customHeight="1">
-      <c r="A49" s="472"/>
-      <c r="B49" s="473"/>
-      <c r="C49" s="473"/>
-      <c r="D49" s="473"/>
-      <c r="E49" s="473"/>
-      <c r="F49" s="474"/>
-      <c r="G49" s="474"/>
+      <c r="A49" s="470"/>
+      <c r="B49" s="471"/>
+      <c r="C49" s="471"/>
+      <c r="D49" s="471"/>
+      <c r="E49" s="471"/>
+      <c r="F49" s="472"/>
+      <c r="G49" s="472"/>
       <c r="H49" s="171"/>
-      <c r="I49" s="475"/>
-      <c r="J49" s="475"/>
-      <c r="K49" s="475"/>
-      <c r="L49" s="475"/>
+      <c r="I49" s="473"/>
+      <c r="J49" s="473"/>
+      <c r="K49" s="473"/>
+      <c r="L49" s="473"/>
       <c r="M49" s="117"/>
       <c r="N49" s="117"/>
       <c r="O49" s="117"/>
@@ -21193,6 +21195,240 @@
     </row>
   </sheetData>
   <mergeCells count="258">
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="A48:X48"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="AF9:AL9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="S41:V41"/>
+    <mergeCell ref="AF10:AL10"/>
+    <mergeCell ref="AF11:AL11"/>
+    <mergeCell ref="AF16:AL16"/>
+    <mergeCell ref="AF17:AL17"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="AF18:AL18"/>
+    <mergeCell ref="AF19:AL19"/>
+    <mergeCell ref="AF24:AL24"/>
+    <mergeCell ref="AF25:AL25"/>
+    <mergeCell ref="AF26:AL26"/>
+    <mergeCell ref="AF40:AL40"/>
+    <mergeCell ref="AF41:AL41"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="AF27:AL27"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF29:AL29"/>
+    <mergeCell ref="AF30:AL30"/>
+    <mergeCell ref="AF31:AL31"/>
+    <mergeCell ref="AF32:AL32"/>
+    <mergeCell ref="AF42:AL42"/>
+    <mergeCell ref="AF43:AL43"/>
+    <mergeCell ref="AF44:AL44"/>
+    <mergeCell ref="AF45:AL45"/>
+    <mergeCell ref="AF33:AL33"/>
+    <mergeCell ref="AF34:AL34"/>
+    <mergeCell ref="AF35:AL35"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="S28:V28"/>
     <mergeCell ref="AC39:AE39"/>
     <mergeCell ref="AF39:AL39"/>
     <mergeCell ref="AF15:AL15"/>
@@ -21217,240 +21453,6 @@
     <mergeCell ref="AC18:AE18"/>
     <mergeCell ref="L17:P17"/>
     <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="AF27:AL27"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF29:AL29"/>
-    <mergeCell ref="AF30:AL30"/>
-    <mergeCell ref="AF31:AL31"/>
-    <mergeCell ref="AF32:AL32"/>
-    <mergeCell ref="AF42:AL42"/>
-    <mergeCell ref="AF43:AL43"/>
-    <mergeCell ref="AF44:AL44"/>
-    <mergeCell ref="AF45:AL45"/>
-    <mergeCell ref="AF33:AL33"/>
-    <mergeCell ref="AF34:AL34"/>
-    <mergeCell ref="AF35:AL35"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="AF10:AL10"/>
-    <mergeCell ref="AF11:AL11"/>
-    <mergeCell ref="AF16:AL16"/>
-    <mergeCell ref="AF17:AL17"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="AF18:AL18"/>
-    <mergeCell ref="AF19:AL19"/>
-    <mergeCell ref="AF24:AL24"/>
-    <mergeCell ref="AF25:AL25"/>
-    <mergeCell ref="AF26:AL26"/>
-    <mergeCell ref="AF40:AL40"/>
-    <mergeCell ref="AF41:AL41"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="A48:X48"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="S44:V44"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="AF9:AL9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="3">
